--- a/output/calibration/adana.xlsx
+++ b/output/calibration/adana.xlsx
@@ -931,6 +931,69 @@
       <c r="H6">
         <v>1.743</v>
       </c>
+      <c r="I6">
+        <v>384.0376894458356</v>
+      </c>
+      <c r="J6">
+        <v>384.0376894458356</v>
+      </c>
+      <c r="K6">
+        <v>223.9996847380993</v>
+      </c>
+      <c r="L6">
+        <v>223.9996847380993</v>
+      </c>
+      <c r="M6">
+        <v>208.477001331917</v>
+      </c>
+      <c r="N6">
+        <v>208.477001331917</v>
+      </c>
+      <c r="O6">
+        <v>666.2616854492776</v>
+      </c>
+      <c r="P6">
+        <v>666.2616854492776</v>
+      </c>
+      <c r="Q6">
+        <v>635.4279805689927</v>
+      </c>
+      <c r="R6">
+        <v>635.4279805689927</v>
+      </c>
+      <c r="S6">
+        <v>642.1689471690019</v>
+      </c>
+      <c r="T6">
+        <v>94.04458491393339</v>
+      </c>
+      <c r="U6">
+        <v>384.0376894458356</v>
+      </c>
+      <c r="V6">
+        <v>155.9532346004674</v>
+      </c>
+      <c r="W6">
+        <v>318.3742198248536</v>
+      </c>
+      <c r="X6">
+        <v>384.0376894458356</v>
+      </c>
+      <c r="Y6">
+        <v>150.3719166740655</v>
+      </c>
+      <c r="Z6">
+        <v>150.3719166740655</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>318.6994658862075</v>
+      </c>
+      <c r="AC6">
+        <v>318.6994658862075</v>
+      </c>
     </row>
     <row r="7" spans="1:29">
       <c r="A7" s="1">
@@ -957,6 +1020,69 @@
       <c r="H7">
         <v>2.013</v>
       </c>
+      <c r="I7">
+        <v>377.8651085567955</v>
+      </c>
+      <c r="J7">
+        <v>377.8651085567955</v>
+      </c>
+      <c r="K7">
+        <v>186.1343737658799</v>
+      </c>
+      <c r="L7">
+        <v>186.1343737658799</v>
+      </c>
+      <c r="M7">
+        <v>233.7900599744954</v>
+      </c>
+      <c r="N7">
+        <v>233.7900599744954</v>
+      </c>
+      <c r="O7">
+        <v>650.9608778023456</v>
+      </c>
+      <c r="P7">
+        <v>650.9608778023456</v>
+      </c>
+      <c r="Q7">
+        <v>444.2934793055591</v>
+      </c>
+      <c r="R7">
+        <v>444.2934793055591</v>
+      </c>
+      <c r="S7">
+        <v>478.4147488478813</v>
+      </c>
+      <c r="T7">
+        <v>81.05017300945373</v>
+      </c>
+      <c r="U7">
+        <v>377.8651085567955</v>
+      </c>
+      <c r="V7">
+        <v>157.0901729720547</v>
+      </c>
+      <c r="W7">
+        <v>325.7257917115331</v>
+      </c>
+      <c r="X7">
+        <v>377.8651085567955</v>
+      </c>
+      <c r="Y7">
+        <v>152.9571484858412</v>
+      </c>
+      <c r="Z7">
+        <v>152.9571484858412</v>
+      </c>
+      <c r="AA7">
+        <v>93.51505843475884</v>
+      </c>
+      <c r="AB7">
+        <v>248.3066881483916</v>
+      </c>
+      <c r="AC7">
+        <v>248.3066881483916</v>
+      </c>
     </row>
     <row r="8" spans="1:29">
       <c r="A8" s="1">
@@ -983,6 +1109,69 @@
       <c r="H8">
         <v>1.472</v>
       </c>
+      <c r="I8">
+        <v>388.4151430028079</v>
+      </c>
+      <c r="J8">
+        <v>388.4151430028079</v>
+      </c>
+      <c r="K8">
+        <v>189.068035659484</v>
+      </c>
+      <c r="L8">
+        <v>189.068035659484</v>
+      </c>
+      <c r="M8">
+        <v>221.122126962485</v>
+      </c>
+      <c r="N8">
+        <v>221.122126962485</v>
+      </c>
+      <c r="O8">
+        <v>761.6975065558155</v>
+      </c>
+      <c r="P8">
+        <v>761.6975065558155</v>
+      </c>
+      <c r="Q8">
+        <v>418.84402496006</v>
+      </c>
+      <c r="R8">
+        <v>418.84402496006</v>
+      </c>
+      <c r="S8">
+        <v>426.7651985884454</v>
+      </c>
+      <c r="T8">
+        <v>89.89387923607657</v>
+      </c>
+      <c r="U8">
+        <v>388.4151430028079</v>
+      </c>
+      <c r="V8">
+        <v>161.9769107198179</v>
+      </c>
+      <c r="W8">
+        <v>319.4335058524532</v>
+      </c>
+      <c r="X8">
+        <v>388.4151430028079</v>
+      </c>
+      <c r="Y8">
+        <v>159.9089344514696</v>
+      </c>
+      <c r="Z8">
+        <v>159.9089344514696</v>
+      </c>
+      <c r="AA8">
+        <v>97.82366473123409</v>
+      </c>
+      <c r="AB8">
+        <v>225.2822605102334</v>
+      </c>
+      <c r="AC8">
+        <v>225.2822605102334</v>
+      </c>
     </row>
     <row r="9" spans="1:29">
       <c r="A9" s="1">
@@ -1009,6 +1198,69 @@
       <c r="H9">
         <v>10.126</v>
       </c>
+      <c r="I9">
+        <v>309.2289284766927</v>
+      </c>
+      <c r="J9">
+        <v>309.2289284766927</v>
+      </c>
+      <c r="K9">
+        <v>186.0274894532556</v>
+      </c>
+      <c r="L9">
+        <v>186.0274894532556</v>
+      </c>
+      <c r="M9">
+        <v>216.7212895380845</v>
+      </c>
+      <c r="N9">
+        <v>216.7212895380845</v>
+      </c>
+      <c r="O9">
+        <v>494.029714245302</v>
+      </c>
+      <c r="P9">
+        <v>494.029714245302</v>
+      </c>
+      <c r="Q9">
+        <v>407.877684805734</v>
+      </c>
+      <c r="R9">
+        <v>407.877684805734</v>
+      </c>
+      <c r="S9">
+        <v>431.2662439633044</v>
+      </c>
+      <c r="T9">
+        <v>76.38748180808159</v>
+      </c>
+      <c r="U9">
+        <v>309.2289284766927</v>
+      </c>
+      <c r="V9">
+        <v>150.3433905659833</v>
+      </c>
+      <c r="W9">
+        <v>265.1368867660673</v>
+      </c>
+      <c r="X9">
+        <v>309.2289284766927</v>
+      </c>
+      <c r="Y9">
+        <v>136.4943382395366</v>
+      </c>
+      <c r="Z9">
+        <v>136.4943382395366</v>
+      </c>
+      <c r="AA9">
+        <v>96.58336143184111</v>
+      </c>
+      <c r="AB9">
+        <v>219.3291783435166</v>
+      </c>
+      <c r="AC9">
+        <v>219.3291783435166</v>
+      </c>
     </row>
     <row r="10" spans="1:29">
       <c r="A10" s="1">
@@ -1035,6 +1287,69 @@
       <c r="H10">
         <v>3.635</v>
       </c>
+      <c r="I10">
+        <v>348.9490548877516</v>
+      </c>
+      <c r="J10">
+        <v>348.9490548877516</v>
+      </c>
+      <c r="K10">
+        <v>158.4032291157486</v>
+      </c>
+      <c r="L10">
+        <v>158.4032291157486</v>
+      </c>
+      <c r="M10">
+        <v>379.8185465321052</v>
+      </c>
+      <c r="N10">
+        <v>379.8185465321052</v>
+      </c>
+      <c r="O10">
+        <v>865.8901429654488</v>
+      </c>
+      <c r="P10">
+        <v>865.8901429654488</v>
+      </c>
+      <c r="Q10">
+        <v>313.9271441618522</v>
+      </c>
+      <c r="R10">
+        <v>313.9271441618522</v>
+      </c>
+      <c r="S10">
+        <v>210.6767462868312</v>
+      </c>
+      <c r="T10">
+        <v>69.26262711794797</v>
+      </c>
+      <c r="U10">
+        <v>348.9490548877516</v>
+      </c>
+      <c r="V10">
+        <v>204.0572691060436</v>
+      </c>
+      <c r="W10">
+        <v>290.7598143011406</v>
+      </c>
+      <c r="X10">
+        <v>348.9490548877516</v>
+      </c>
+      <c r="Y10">
+        <v>144.0950902259122</v>
+      </c>
+      <c r="Z10">
+        <v>144.0950902259122</v>
+      </c>
+      <c r="AA10">
+        <v>79.46864249140815</v>
+      </c>
+      <c r="AB10">
+        <v>144.6378293092624</v>
+      </c>
+      <c r="AC10">
+        <v>144.6378293092624</v>
+      </c>
     </row>
     <row r="11" spans="1:29">
       <c r="A11" s="1">
@@ -1061,6 +1376,69 @@
       <c r="H11">
         <v>11.478</v>
       </c>
+      <c r="I11">
+        <v>352.66714601052</v>
+      </c>
+      <c r="J11">
+        <v>352.66714601052</v>
+      </c>
+      <c r="K11">
+        <v>207.3079437948274</v>
+      </c>
+      <c r="L11">
+        <v>207.3079437948274</v>
+      </c>
+      <c r="M11">
+        <v>320.3015846249152</v>
+      </c>
+      <c r="N11">
+        <v>320.3015846249152</v>
+      </c>
+      <c r="O11">
+        <v>850.3793508049403</v>
+      </c>
+      <c r="P11">
+        <v>850.3793508049403</v>
+      </c>
+      <c r="Q11">
+        <v>385.0699487926494</v>
+      </c>
+      <c r="R11">
+        <v>385.0699487926494</v>
+      </c>
+      <c r="S11">
+        <v>250.9567863581995</v>
+      </c>
+      <c r="T11">
+        <v>104.3366179151561</v>
+      </c>
+      <c r="U11">
+        <v>352.66714601052</v>
+      </c>
+      <c r="V11">
+        <v>204.1437899268673</v>
+      </c>
+      <c r="W11">
+        <v>285.6230820620835</v>
+      </c>
+      <c r="X11">
+        <v>352.66714601052</v>
+      </c>
+      <c r="Y11">
+        <v>153.7424464007298</v>
+      </c>
+      <c r="Z11">
+        <v>153.7424464007298</v>
+      </c>
+      <c r="AA11">
+        <v>105.4900415098538</v>
+      </c>
+      <c r="AB11">
+        <v>196.0617431156519</v>
+      </c>
+      <c r="AC11">
+        <v>196.0617431156519</v>
+      </c>
     </row>
     <row r="12" spans="1:29">
       <c r="A12" s="1">
@@ -1087,6 +1465,69 @@
       <c r="H12">
         <v>5.258</v>
       </c>
+      <c r="I12">
+        <v>406.3871137343334</v>
+      </c>
+      <c r="J12">
+        <v>406.3871137343334</v>
+      </c>
+      <c r="K12">
+        <v>198.1105888226095</v>
+      </c>
+      <c r="L12">
+        <v>198.1105888226095</v>
+      </c>
+      <c r="M12">
+        <v>243.8245556283305</v>
+      </c>
+      <c r="N12">
+        <v>243.8245556283305</v>
+      </c>
+      <c r="O12">
+        <v>755.7313213602495</v>
+      </c>
+      <c r="P12">
+        <v>755.7313213602495</v>
+      </c>
+      <c r="Q12">
+        <v>378.8950966062437</v>
+      </c>
+      <c r="R12">
+        <v>378.8950966062437</v>
+      </c>
+      <c r="S12">
+        <v>342.3664192524001</v>
+      </c>
+      <c r="T12">
+        <v>91.51183890635509</v>
+      </c>
+      <c r="U12">
+        <v>406.3871137343334</v>
+      </c>
+      <c r="V12">
+        <v>165.2276375359353</v>
+      </c>
+      <c r="W12">
+        <v>340.4996181980261</v>
+      </c>
+      <c r="X12">
+        <v>406.3871137343334</v>
+      </c>
+      <c r="Y12">
+        <v>162.5403049245475</v>
+      </c>
+      <c r="Z12">
+        <v>162.5403049245475</v>
+      </c>
+      <c r="AA12">
+        <v>93.7827885911215</v>
+      </c>
+      <c r="AB12">
+        <v>201.7019383138551</v>
+      </c>
+      <c r="AC12">
+        <v>201.7019383138551</v>
+      </c>
     </row>
     <row r="13" spans="1:29">
       <c r="A13" s="1">
@@ -1113,6 +1554,69 @@
       <c r="H13">
         <v>3.635</v>
       </c>
+      <c r="I13">
+        <v>419.6878758284478</v>
+      </c>
+      <c r="J13">
+        <v>419.6878758284478</v>
+      </c>
+      <c r="K13">
+        <v>191.1434491435968</v>
+      </c>
+      <c r="L13">
+        <v>191.1434491435968</v>
+      </c>
+      <c r="M13">
+        <v>280.0395971625849</v>
+      </c>
+      <c r="N13">
+        <v>280.0395971625849</v>
+      </c>
+      <c r="O13">
+        <v>927.5098618283988</v>
+      </c>
+      <c r="P13">
+        <v>927.5098618283988</v>
+      </c>
+      <c r="Q13">
+        <v>403.0293582734224</v>
+      </c>
+      <c r="R13">
+        <v>403.0293582734224</v>
+      </c>
+      <c r="S13">
+        <v>389.9819169381847</v>
+      </c>
+      <c r="T13">
+        <v>84.95674056000655</v>
+      </c>
+      <c r="U13">
+        <v>419.6878758284478</v>
+      </c>
+      <c r="V13">
+        <v>179.3551388604782</v>
+      </c>
+      <c r="W13">
+        <v>351.9959365544138</v>
+      </c>
+      <c r="X13">
+        <v>419.6878758284478</v>
+      </c>
+      <c r="Y13">
+        <v>170.7411807452721</v>
+      </c>
+      <c r="Z13">
+        <v>170.7411807452721</v>
+      </c>
+      <c r="AA13">
+        <v>104.4022127466987</v>
+      </c>
+      <c r="AB13">
+        <v>217.576301924229</v>
+      </c>
+      <c r="AC13">
+        <v>217.576301924229</v>
+      </c>
     </row>
     <row r="14" spans="1:29">
       <c r="A14" s="1">
@@ -1139,6 +1643,69 @@
       <c r="H14">
         <v>1.472</v>
       </c>
+      <c r="I14">
+        <v>356.8186246983963</v>
+      </c>
+      <c r="J14">
+        <v>356.8186246983963</v>
+      </c>
+      <c r="K14">
+        <v>168.9784336449413</v>
+      </c>
+      <c r="L14">
+        <v>168.9784336449413</v>
+      </c>
+      <c r="M14">
+        <v>217.7759848186398</v>
+      </c>
+      <c r="N14">
+        <v>217.7759848186398</v>
+      </c>
+      <c r="O14">
+        <v>567.0098180076897</v>
+      </c>
+      <c r="P14">
+        <v>567.0098180076897</v>
+      </c>
+      <c r="Q14">
+        <v>318.8346180485889</v>
+      </c>
+      <c r="R14">
+        <v>318.8346180485889</v>
+      </c>
+      <c r="S14">
+        <v>272.2675564473594</v>
+      </c>
+      <c r="T14">
+        <v>74.56111376709134</v>
+      </c>
+      <c r="U14">
+        <v>356.8186246983963</v>
+      </c>
+      <c r="V14">
+        <v>150.2242104410217</v>
+      </c>
+      <c r="W14">
+        <v>293.9980334199247</v>
+      </c>
+      <c r="X14">
+        <v>356.8186246983963</v>
+      </c>
+      <c r="Y14">
+        <v>157.9746459425843</v>
+      </c>
+      <c r="Z14">
+        <v>157.9746459425843</v>
+      </c>
+      <c r="AA14">
+        <v>82.31093464848509</v>
+      </c>
+      <c r="AB14">
+        <v>166.9159939450557</v>
+      </c>
+      <c r="AC14">
+        <v>166.9159939450557</v>
+      </c>
     </row>
     <row r="15" spans="1:29">
       <c r="A15" s="1">
@@ -1165,6 +1732,69 @@
       <c r="H15">
         <v>3.365</v>
       </c>
+      <c r="I15">
+        <v>388.1756660349544</v>
+      </c>
+      <c r="J15">
+        <v>388.1756660349544</v>
+      </c>
+      <c r="K15">
+        <v>175.3294507395862</v>
+      </c>
+      <c r="L15">
+        <v>175.3294507395862</v>
+      </c>
+      <c r="M15">
+        <v>222.1099697199025</v>
+      </c>
+      <c r="N15">
+        <v>222.1099697199025</v>
+      </c>
+      <c r="O15">
+        <v>633.2459343380806</v>
+      </c>
+      <c r="P15">
+        <v>633.2459343380806</v>
+      </c>
+      <c r="Q15">
+        <v>321.1163105448637</v>
+      </c>
+      <c r="R15">
+        <v>321.1163105448637</v>
+      </c>
+      <c r="S15">
+        <v>273.0079411069788</v>
+      </c>
+      <c r="T15">
+        <v>83.33804701472104</v>
+      </c>
+      <c r="U15">
+        <v>388.1756660349544</v>
+      </c>
+      <c r="V15">
+        <v>156.1326041136735</v>
+      </c>
+      <c r="W15">
+        <v>322.4917861734398</v>
+      </c>
+      <c r="X15">
+        <v>388.1756660349544</v>
+      </c>
+      <c r="Y15">
+        <v>160.2674367874658</v>
+      </c>
+      <c r="Z15">
+        <v>160.2674367874658</v>
+      </c>
+      <c r="AA15">
+        <v>88.5536951200512</v>
+      </c>
+      <c r="AB15">
+        <v>175.5646082424034</v>
+      </c>
+      <c r="AC15">
+        <v>175.5646082424034</v>
+      </c>
     </row>
     <row r="16" spans="1:29">
       <c r="A16" s="1">
@@ -1191,8 +1821,71 @@
       <c r="H16">
         <v>3.906</v>
       </c>
+      <c r="I16">
+        <v>430.4043750204631</v>
+      </c>
+      <c r="J16">
+        <v>430.4043750204631</v>
+      </c>
+      <c r="K16">
+        <v>206.9390263553151</v>
+      </c>
+      <c r="L16">
+        <v>206.9390263553151</v>
+      </c>
+      <c r="M16">
+        <v>252.5395653301624</v>
+      </c>
+      <c r="N16">
+        <v>252.5395653301624</v>
+      </c>
+      <c r="O16">
+        <v>818.7869358525279</v>
+      </c>
+      <c r="P16">
+        <v>818.7869358525279</v>
+      </c>
+      <c r="Q16">
+        <v>370.8354829394133</v>
+      </c>
+      <c r="R16">
+        <v>370.8354829394133</v>
+      </c>
+      <c r="S16">
+        <v>293.9358154526319</v>
+      </c>
+      <c r="T16">
+        <v>84.1361412027553</v>
+      </c>
+      <c r="U16">
+        <v>430.4043750204631</v>
+      </c>
+      <c r="V16">
+        <v>168.5077864833857</v>
+      </c>
+      <c r="W16">
+        <v>360.2012071778519</v>
+      </c>
+      <c r="X16">
+        <v>430.4043750204631</v>
+      </c>
+      <c r="Y16">
+        <v>170.5751718266715</v>
+      </c>
+      <c r="Z16">
+        <v>170.5751718266715</v>
+      </c>
+      <c r="AA16">
+        <v>99.44216846629672</v>
+      </c>
+      <c r="AB16">
+        <v>197.9356316625648</v>
+      </c>
+      <c r="AC16">
+        <v>197.9356316625648</v>
+      </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:29">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1217,8 +1910,71 @@
       <c r="H17">
         <v>7.421</v>
       </c>
+      <c r="I17">
+        <v>425.1576906638763</v>
+      </c>
+      <c r="J17">
+        <v>425.1576906638763</v>
+      </c>
+      <c r="K17">
+        <v>199.1082881154339</v>
+      </c>
+      <c r="L17">
+        <v>199.1082881154339</v>
+      </c>
+      <c r="M17">
+        <v>250.8213717757749</v>
+      </c>
+      <c r="N17">
+        <v>250.8213717757749</v>
+      </c>
+      <c r="O17">
+        <v>683.6410483102591</v>
+      </c>
+      <c r="P17">
+        <v>683.6410483102591</v>
+      </c>
+      <c r="Q17">
+        <v>375.4873230743028</v>
+      </c>
+      <c r="R17">
+        <v>375.4873230743028</v>
+      </c>
+      <c r="S17">
+        <v>323.2797541200265</v>
+      </c>
+      <c r="T17">
+        <v>84.29324258781369</v>
+      </c>
+      <c r="U17">
+        <v>425.1576906638763</v>
+      </c>
+      <c r="V17">
+        <v>170.8425574241586</v>
+      </c>
+      <c r="W17">
+        <v>350.2049757587133</v>
+      </c>
+      <c r="X17">
+        <v>425.1576906638763</v>
+      </c>
+      <c r="Y17">
+        <v>166.0171611356235</v>
+      </c>
+      <c r="Z17">
+        <v>166.0171611356235</v>
+      </c>
+      <c r="AA17">
+        <v>97.50140315173491</v>
+      </c>
+      <c r="AB17">
+        <v>201.1780048073426</v>
+      </c>
+      <c r="AC17">
+        <v>201.1780048073426</v>
+      </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:29">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1243,8 +1999,71 @@
       <c r="H18">
         <v>6.069</v>
       </c>
+      <c r="I18">
+        <v>397.6955811277902</v>
+      </c>
+      <c r="J18">
+        <v>397.6955811277902</v>
+      </c>
+      <c r="K18">
+        <v>191.5948277413793</v>
+      </c>
+      <c r="L18">
+        <v>191.5948277413793</v>
+      </c>
+      <c r="M18">
+        <v>229.9705726560667</v>
+      </c>
+      <c r="N18">
+        <v>229.9705726560667</v>
+      </c>
+      <c r="O18">
+        <v>762.9204931940673</v>
+      </c>
+      <c r="P18">
+        <v>762.9204931940673</v>
+      </c>
+      <c r="Q18">
+        <v>373.5761777117808</v>
+      </c>
+      <c r="R18">
+        <v>373.5761777117808</v>
+      </c>
+      <c r="S18">
+        <v>330.3660437137241</v>
+      </c>
+      <c r="T18">
+        <v>82.23012314863104</v>
+      </c>
+      <c r="U18">
+        <v>397.6955811277902</v>
+      </c>
+      <c r="V18">
+        <v>154.4873475092573</v>
+      </c>
+      <c r="W18">
+        <v>335.538597852992</v>
+      </c>
+      <c r="X18">
+        <v>397.6955811277902</v>
+      </c>
+      <c r="Y18">
+        <v>160.4831205515079</v>
+      </c>
+      <c r="Z18">
+        <v>160.4831205515079</v>
+      </c>
+      <c r="AA18">
+        <v>98.09934397781392</v>
+      </c>
+      <c r="AB18">
+        <v>206.9047616933942</v>
+      </c>
+      <c r="AC18">
+        <v>206.9047616933942</v>
+      </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:29">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1269,8 +2088,71 @@
       <c r="H19">
         <v>1.477</v>
       </c>
+      <c r="I19">
+        <v>358.4235892651806</v>
+      </c>
+      <c r="J19">
+        <v>358.4235892651806</v>
+      </c>
+      <c r="K19">
+        <v>168.6049537183127</v>
+      </c>
+      <c r="L19">
+        <v>168.6049537183127</v>
+      </c>
+      <c r="M19">
+        <v>213.0006935361005</v>
+      </c>
+      <c r="N19">
+        <v>213.0006935361005</v>
+      </c>
+      <c r="O19">
+        <v>606.5253783729507</v>
+      </c>
+      <c r="P19">
+        <v>606.5253783729507</v>
+      </c>
+      <c r="Q19">
+        <v>306.4853854685213</v>
+      </c>
+      <c r="R19">
+        <v>306.4853854685213</v>
+      </c>
+      <c r="S19">
+        <v>238.5213136981797</v>
+      </c>
+      <c r="T19">
+        <v>70.21326446212979</v>
+      </c>
+      <c r="U19">
+        <v>358.4235892651806</v>
+      </c>
+      <c r="V19">
+        <v>153.2062520703935</v>
+      </c>
+      <c r="W19">
+        <v>308.7154300482262</v>
+      </c>
+      <c r="X19">
+        <v>358.4235892651806</v>
+      </c>
+      <c r="Y19">
+        <v>146.6602995514719</v>
+      </c>
+      <c r="Z19">
+        <v>146.6602995514719</v>
+      </c>
+      <c r="AA19">
+        <v>74.56102327265904</v>
+      </c>
+      <c r="AB19">
+        <v>157.6956914469495</v>
+      </c>
+      <c r="AC19">
+        <v>157.6956914469495</v>
+      </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:29">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1295,8 +2177,71 @@
       <c r="H20">
         <v>1.218</v>
       </c>
+      <c r="I20">
+        <v>391.6380578908238</v>
+      </c>
+      <c r="J20">
+        <v>391.6380578908238</v>
+      </c>
+      <c r="K20">
+        <v>171.4555126597946</v>
+      </c>
+      <c r="L20">
+        <v>171.4555126597946</v>
+      </c>
+      <c r="M20">
+        <v>219.0824835442763</v>
+      </c>
+      <c r="N20">
+        <v>219.0824835442763</v>
+      </c>
+      <c r="O20">
+        <v>726.1892724883611</v>
+      </c>
+      <c r="P20">
+        <v>726.1892724883611</v>
+      </c>
+      <c r="Q20">
+        <v>323.2184863153136</v>
+      </c>
+      <c r="R20">
+        <v>323.2184863153136</v>
+      </c>
+      <c r="S20">
+        <v>298.932355186093</v>
+      </c>
+      <c r="T20">
+        <v>78.75224492520022</v>
+      </c>
+      <c r="U20">
+        <v>391.6380578908238</v>
+      </c>
+      <c r="V20">
+        <v>157.215576077877</v>
+      </c>
+      <c r="W20">
+        <v>327.924683769384</v>
+      </c>
+      <c r="X20">
+        <v>391.6380578908238</v>
+      </c>
+      <c r="Y20">
+        <v>150.6691044523228</v>
+      </c>
+      <c r="Z20">
+        <v>150.6691044523228</v>
+      </c>
+      <c r="AA20">
+        <v>90.46454762454958</v>
+      </c>
+      <c r="AB20">
+        <v>179.3499706682152</v>
+      </c>
+      <c r="AC20">
+        <v>179.3499706682152</v>
+      </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:29">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1321,8 +2266,71 @@
       <c r="H21">
         <v>3.03</v>
       </c>
+      <c r="I21">
+        <v>457.4334695814226</v>
+      </c>
+      <c r="J21">
+        <v>457.4334695814226</v>
+      </c>
+      <c r="K21">
+        <v>200.9671157162094</v>
+      </c>
+      <c r="L21">
+        <v>200.9671157162094</v>
+      </c>
+      <c r="M21">
+        <v>249.2408077635399</v>
+      </c>
+      <c r="N21">
+        <v>249.2408077635399</v>
+      </c>
+      <c r="O21">
+        <v>767.2857375423621</v>
+      </c>
+      <c r="P21">
+        <v>767.2857375423621</v>
+      </c>
+      <c r="Q21">
+        <v>432.5896962816723</v>
+      </c>
+      <c r="R21">
+        <v>432.5896962816723</v>
+      </c>
+      <c r="S21">
+        <v>390.467627902382</v>
+      </c>
+      <c r="T21">
+        <v>94.42288933751939</v>
+      </c>
+      <c r="U21">
+        <v>457.4334695814226</v>
+      </c>
+      <c r="V21">
+        <v>171.2659544743688</v>
+      </c>
+      <c r="W21">
+        <v>371.4087552412564</v>
+      </c>
+      <c r="X21">
+        <v>457.4334695814226</v>
+      </c>
+      <c r="Y21">
+        <v>179.7388362860749</v>
+      </c>
+      <c r="Z21">
+        <v>179.7388362860749</v>
+      </c>
+      <c r="AA21">
+        <v>107.3356822044891</v>
+      </c>
+      <c r="AB21">
+        <v>232.9185382796342</v>
+      </c>
+      <c r="AC21">
+        <v>232.9185382796342</v>
+      </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:29">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1347,8 +2355,71 @@
       <c r="H22">
         <v>2.253</v>
       </c>
+      <c r="I22">
+        <v>440.3701649522301</v>
+      </c>
+      <c r="J22">
+        <v>440.3701649522301</v>
+      </c>
+      <c r="K22">
+        <v>187.6191066077577</v>
+      </c>
+      <c r="L22">
+        <v>187.6191066077577</v>
+      </c>
+      <c r="M22">
+        <v>242.9783155144075</v>
+      </c>
+      <c r="N22">
+        <v>242.9783155144075</v>
+      </c>
+      <c r="O22">
+        <v>723.2616464853789</v>
+      </c>
+      <c r="P22">
+        <v>723.2616464853789</v>
+      </c>
+      <c r="Q22">
+        <v>397.3907905949467</v>
+      </c>
+      <c r="R22">
+        <v>397.3907905949467</v>
+      </c>
+      <c r="S22">
+        <v>366.3837294340339</v>
+      </c>
+      <c r="T22">
+        <v>84.12923663711027</v>
+      </c>
+      <c r="U22">
+        <v>440.3701649522301</v>
+      </c>
+      <c r="V22">
+        <v>163.1415497316492</v>
+      </c>
+      <c r="W22">
+        <v>371.142523591601</v>
+      </c>
+      <c r="X22">
+        <v>440.3701649522301</v>
+      </c>
+      <c r="Y22">
+        <v>177.8231716135443</v>
+      </c>
+      <c r="Z22">
+        <v>177.8231716135443</v>
+      </c>
+      <c r="AA22">
+        <v>99.29883417070796</v>
+      </c>
+      <c r="AB22">
+        <v>227.650949575935</v>
+      </c>
+      <c r="AC22">
+        <v>227.650949575935</v>
+      </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:29">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1373,8 +2444,71 @@
       <c r="H23">
         <v>1.218</v>
       </c>
+      <c r="I23">
+        <v>463.8966569277516</v>
+      </c>
+      <c r="J23">
+        <v>463.8966569277516</v>
+      </c>
+      <c r="K23">
+        <v>185.4522037145047</v>
+      </c>
+      <c r="L23">
+        <v>185.4522037145047</v>
+      </c>
+      <c r="M23">
+        <v>264.3796522079663</v>
+      </c>
+      <c r="N23">
+        <v>264.3796522079663</v>
+      </c>
+      <c r="O23">
+        <v>796.4861590005881</v>
+      </c>
+      <c r="P23">
+        <v>796.4861590005881</v>
+      </c>
+      <c r="Q23">
+        <v>381.6946942915199</v>
+      </c>
+      <c r="R23">
+        <v>381.6946942915199</v>
+      </c>
+      <c r="S23">
+        <v>359.6385805640297</v>
+      </c>
+      <c r="T23">
+        <v>92.15267352057255</v>
+      </c>
+      <c r="U23">
+        <v>463.8966569277516</v>
+      </c>
+      <c r="V23">
+        <v>175.4261202441849</v>
+      </c>
+      <c r="W23">
+        <v>387.1875389061718</v>
+      </c>
+      <c r="X23">
+        <v>463.8966569277516</v>
+      </c>
+      <c r="Y23">
+        <v>183.4890175712807</v>
+      </c>
+      <c r="Z23">
+        <v>183.4890175712807</v>
+      </c>
+      <c r="AA23">
+        <v>88.52738904057387</v>
+      </c>
+      <c r="AB23">
+        <v>200.0912784538363</v>
+      </c>
+      <c r="AC23">
+        <v>200.0912784538363</v>
+      </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:29">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1399,8 +2533,71 @@
       <c r="H24">
         <v>1.477</v>
       </c>
+      <c r="I24">
+        <v>379.092055734666</v>
+      </c>
+      <c r="J24">
+        <v>379.092055734666</v>
+      </c>
+      <c r="K24">
+        <v>154.0552506319768</v>
+      </c>
+      <c r="L24">
+        <v>154.0552506319768</v>
+      </c>
+      <c r="M24">
+        <v>253.0706720338218</v>
+      </c>
+      <c r="N24">
+        <v>253.0706720338218</v>
+      </c>
+      <c r="O24">
+        <v>677.3377954226851</v>
+      </c>
+      <c r="P24">
+        <v>677.3377954226851</v>
+      </c>
+      <c r="Q24">
+        <v>278.6562907667327</v>
+      </c>
+      <c r="R24">
+        <v>278.6562907667327</v>
+      </c>
+      <c r="S24">
+        <v>239.6154238236976</v>
+      </c>
+      <c r="T24">
+        <v>74.54339708942952</v>
+      </c>
+      <c r="U24">
+        <v>379.092055734666</v>
+      </c>
+      <c r="V24">
+        <v>153.9363239849185</v>
+      </c>
+      <c r="W24">
+        <v>320.9378916447454</v>
+      </c>
+      <c r="X24">
+        <v>379.092055734666</v>
+      </c>
+      <c r="Y24">
+        <v>162.205526285959</v>
+      </c>
+      <c r="Z24">
+        <v>162.205526285959</v>
+      </c>
+      <c r="AA24">
+        <v>82.8038153189683</v>
+      </c>
+      <c r="AB24">
+        <v>157.6068387898883</v>
+      </c>
+      <c r="AC24">
+        <v>157.6068387898883</v>
+      </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:29">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1425,8 +2622,71 @@
       <c r="H25">
         <v>0.959</v>
       </c>
+      <c r="I25">
+        <v>400.7752662993873</v>
+      </c>
+      <c r="J25">
+        <v>400.7752662993873</v>
+      </c>
+      <c r="K25">
+        <v>167.2537085197177</v>
+      </c>
+      <c r="L25">
+        <v>167.2537085197177</v>
+      </c>
+      <c r="M25">
+        <v>266.1529465494568</v>
+      </c>
+      <c r="N25">
+        <v>266.1529465494568</v>
+      </c>
+      <c r="O25">
+        <v>768.7031004349438</v>
+      </c>
+      <c r="P25">
+        <v>768.7031004349438</v>
+      </c>
+      <c r="Q25">
+        <v>345.6697890192992</v>
+      </c>
+      <c r="R25">
+        <v>345.6697890192992</v>
+      </c>
+      <c r="S25">
+        <v>307.0416837560907</v>
+      </c>
+      <c r="T25">
+        <v>72.07196590280357</v>
+      </c>
+      <c r="U25">
+        <v>400.7752662993873</v>
+      </c>
+      <c r="V25">
+        <v>166.3464070321473</v>
+      </c>
+      <c r="W25">
+        <v>338.966665549103</v>
+      </c>
+      <c r="X25">
+        <v>400.7752662993873</v>
+      </c>
+      <c r="Y25">
+        <v>161.0054980524659</v>
+      </c>
+      <c r="Z25">
+        <v>161.0054980524659</v>
+      </c>
+      <c r="AA25">
+        <v>81.52127556133944</v>
+      </c>
+      <c r="AB25">
+        <v>175.7153419079735</v>
+      </c>
+      <c r="AC25">
+        <v>175.7153419079735</v>
+      </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:29">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1451,8 +2711,71 @@
       <c r="H26">
         <v>2.253</v>
       </c>
+      <c r="I26">
+        <v>414.7077948697605</v>
+      </c>
+      <c r="J26">
+        <v>414.7077948697605</v>
+      </c>
+      <c r="K26">
+        <v>190.2219648494978</v>
+      </c>
+      <c r="L26">
+        <v>190.2219648494978</v>
+      </c>
+      <c r="M26">
+        <v>266.3180916431249</v>
+      </c>
+      <c r="N26">
+        <v>266.3180916431249</v>
+      </c>
+      <c r="O26">
+        <v>946.7776632568691</v>
+      </c>
+      <c r="P26">
+        <v>946.7776632568691</v>
+      </c>
+      <c r="Q26">
+        <v>402.7668928616786</v>
+      </c>
+      <c r="R26">
+        <v>402.7668928616786</v>
+      </c>
+      <c r="S26">
+        <v>323.9985951652742</v>
+      </c>
+      <c r="T26">
+        <v>92.44540766550134</v>
+      </c>
+      <c r="U26">
+        <v>414.7077948697605</v>
+      </c>
+      <c r="V26">
+        <v>240.4772815842278</v>
+      </c>
+      <c r="W26">
+        <v>338.7837356076287</v>
+      </c>
+      <c r="X26">
+        <v>414.7077948697605</v>
+      </c>
+      <c r="Y26">
+        <v>168.0592162755338</v>
+      </c>
+      <c r="Z26">
+        <v>168.0592162755338</v>
+      </c>
+      <c r="AA26">
+        <v>91.1433598413857</v>
+      </c>
+      <c r="AB26">
+        <v>230.0671826557632</v>
+      </c>
+      <c r="AC26">
+        <v>230.0671826557632</v>
+      </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:29">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1477,8 +2800,71 @@
       <c r="H27">
         <v>181.9392</v>
       </c>
+      <c r="I27">
+        <v>370.6624708186055</v>
+      </c>
+      <c r="J27">
+        <v>370.6624708186055</v>
+      </c>
+      <c r="K27">
+        <v>203.0441951761325</v>
+      </c>
+      <c r="L27">
+        <v>203.0441951761325</v>
+      </c>
+      <c r="M27">
+        <v>202.1557914436748</v>
+      </c>
+      <c r="N27">
+        <v>202.1557914436748</v>
+      </c>
+      <c r="O27">
+        <v>669.817433410681</v>
+      </c>
+      <c r="P27">
+        <v>669.817433410681</v>
+      </c>
+      <c r="Q27">
+        <v>565.179464978239</v>
+      </c>
+      <c r="R27">
+        <v>565.179464978239</v>
+      </c>
+      <c r="S27">
+        <v>644.3546023853198</v>
+      </c>
+      <c r="T27">
+        <v>98.19261055805242</v>
+      </c>
+      <c r="U27">
+        <v>370.6624708186055</v>
+      </c>
+      <c r="V27">
+        <v>146.8438401847273</v>
+      </c>
+      <c r="W27">
+        <v>301.4848800612498</v>
+      </c>
+      <c r="X27">
+        <v>370.6624708186055</v>
+      </c>
+      <c r="Y27">
+        <v>151.8056643082518</v>
+      </c>
+      <c r="Z27">
+        <v>151.8056643082518</v>
+      </c>
+      <c r="AA27">
+        <v>123.6562535923631</v>
+      </c>
+      <c r="AB27">
+        <v>343.8037099824912</v>
+      </c>
+      <c r="AC27">
+        <v>343.8037099824912</v>
+      </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:29">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1503,8 +2889,71 @@
       <c r="H28">
         <v>70.25920000000001</v>
       </c>
+      <c r="I28">
+        <v>337.9360370248222</v>
+      </c>
+      <c r="J28">
+        <v>337.9360370248222</v>
+      </c>
+      <c r="K28">
+        <v>175.0178128093572</v>
+      </c>
+      <c r="L28">
+        <v>175.0178128093572</v>
+      </c>
+      <c r="M28">
+        <v>235.2955718325062</v>
+      </c>
+      <c r="N28">
+        <v>235.2955718325062</v>
+      </c>
+      <c r="O28">
+        <v>520.1440634851656</v>
+      </c>
+      <c r="P28">
+        <v>520.1440634851656</v>
+      </c>
+      <c r="Q28">
+        <v>267.1576976289946</v>
+      </c>
+      <c r="R28">
+        <v>267.1576976289946</v>
+      </c>
+      <c r="S28">
+        <v>225.4715052188625</v>
+      </c>
+      <c r="T28">
+        <v>82.9035625040769</v>
+      </c>
+      <c r="U28">
+        <v>337.9360370248222</v>
+      </c>
+      <c r="V28">
+        <v>147.7487163263508</v>
+      </c>
+      <c r="W28">
+        <v>286.5150680991983</v>
+      </c>
+      <c r="X28">
+        <v>337.9360370248222</v>
+      </c>
+      <c r="Y28">
+        <v>144.8208434338625</v>
+      </c>
+      <c r="Z28">
+        <v>144.8208434338625</v>
+      </c>
+      <c r="AA28">
+        <v>92.72472120295645</v>
+      </c>
+      <c r="AB28">
+        <v>162.0547469018701</v>
+      </c>
+      <c r="AC28">
+        <v>162.0547469018701</v>
+      </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:29">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1529,8 +2978,71 @@
       <c r="H29">
         <v>18.8864</v>
       </c>
+      <c r="I29">
+        <v>435.8717808705419</v>
+      </c>
+      <c r="J29">
+        <v>435.8717808705419</v>
+      </c>
+      <c r="K29">
+        <v>189.0276648978276</v>
+      </c>
+      <c r="L29">
+        <v>189.0276648978276</v>
+      </c>
+      <c r="M29">
+        <v>261.0140105812062</v>
+      </c>
+      <c r="N29">
+        <v>261.0140105812062</v>
+      </c>
+      <c r="O29">
+        <v>655.6238802954234</v>
+      </c>
+      <c r="P29">
+        <v>655.6238802954234</v>
+      </c>
+      <c r="Q29">
+        <v>349.3784936180472</v>
+      </c>
+      <c r="R29">
+        <v>349.3784936180472</v>
+      </c>
+      <c r="S29">
+        <v>342.4483128247357</v>
+      </c>
+      <c r="T29">
+        <v>89.24676741868545</v>
+      </c>
+      <c r="U29">
+        <v>435.8717808705419</v>
+      </c>
+      <c r="V29">
+        <v>166.0335551902926</v>
+      </c>
+      <c r="W29">
+        <v>360.9182008478419</v>
+      </c>
+      <c r="X29">
+        <v>435.8717808705419</v>
+      </c>
+      <c r="Y29">
+        <v>165.1713336459098</v>
+      </c>
+      <c r="Z29">
+        <v>165.1713336459098</v>
+      </c>
+      <c r="AA29">
+        <v>101.713136682184</v>
+      </c>
+      <c r="AB29">
+        <v>203.1005065818227</v>
+      </c>
+      <c r="AC29">
+        <v>203.1005065818227</v>
+      </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:29">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1555,8 +3067,71 @@
       <c r="H30">
         <v>11.0688</v>
       </c>
+      <c r="I30">
+        <v>383.151885878653</v>
+      </c>
+      <c r="J30">
+        <v>383.151885878653</v>
+      </c>
+      <c r="K30">
+        <v>195.3292715488063</v>
+      </c>
+      <c r="L30">
+        <v>195.3292715488063</v>
+      </c>
+      <c r="M30">
+        <v>258.0767652725276</v>
+      </c>
+      <c r="N30">
+        <v>258.0767652725276</v>
+      </c>
+      <c r="O30">
+        <v>646.5186386342542</v>
+      </c>
+      <c r="P30">
+        <v>646.5186386342542</v>
+      </c>
+      <c r="Q30">
+        <v>336.9598870415759</v>
+      </c>
+      <c r="R30">
+        <v>340.0827254405456</v>
+      </c>
+      <c r="S30">
+        <v>377.97745208858</v>
+      </c>
+      <c r="T30">
+        <v>102.0907080152845</v>
+      </c>
+      <c r="U30">
+        <v>383.151885878653</v>
+      </c>
+      <c r="V30">
+        <v>167.2681504676872</v>
+      </c>
+      <c r="W30">
+        <v>320.1786497996432</v>
+      </c>
+      <c r="X30">
+        <v>383.151885878653</v>
+      </c>
+      <c r="Y30">
+        <v>152.1755733935058</v>
+      </c>
+      <c r="Z30">
+        <v>152.1755733935058</v>
+      </c>
+      <c r="AA30">
+        <v>97.78354520302996</v>
+      </c>
+      <c r="AB30">
+        <v>206.3540355880637</v>
+      </c>
+      <c r="AC30">
+        <v>206.3540355880637</v>
+      </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:29">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1581,8 +3156,71 @@
       <c r="H31">
         <v>18.8864</v>
       </c>
+      <c r="I31">
+        <v>437.1594534727267</v>
+      </c>
+      <c r="J31">
+        <v>437.1594534727267</v>
+      </c>
+      <c r="K31">
+        <v>224.1170028524456</v>
+      </c>
+      <c r="L31">
+        <v>224.1170028524456</v>
+      </c>
+      <c r="M31">
+        <v>237.2918836867595</v>
+      </c>
+      <c r="N31">
+        <v>237.2918836867595</v>
+      </c>
+      <c r="O31">
+        <v>710.6839254721508</v>
+      </c>
+      <c r="P31">
+        <v>710.6839254721508</v>
+      </c>
+      <c r="Q31">
+        <v>554.1003544631334</v>
+      </c>
+      <c r="R31">
+        <v>554.1003544631334</v>
+      </c>
+      <c r="S31">
+        <v>648.1302617944481</v>
+      </c>
+      <c r="T31">
+        <v>97.28538967929369</v>
+      </c>
+      <c r="U31">
+        <v>437.1594534727267</v>
+      </c>
+      <c r="V31">
+        <v>171.1074678235283</v>
+      </c>
+      <c r="W31">
+        <v>356.9241588519267</v>
+      </c>
+      <c r="X31">
+        <v>437.1594534727267</v>
+      </c>
+      <c r="Y31">
+        <v>164.0169039038651</v>
+      </c>
+      <c r="Z31">
+        <v>164.0169039038651</v>
+      </c>
+      <c r="AA31">
+        <v>118.9543885819857</v>
+      </c>
+      <c r="AB31">
+        <v>333.1761885184086</v>
+      </c>
+      <c r="AC31">
+        <v>333.1761885184086</v>
+      </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:29">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1607,8 +3245,71 @@
       <c r="H32">
         <v>20.0032</v>
       </c>
+      <c r="I32">
+        <v>338.6936559506685</v>
+      </c>
+      <c r="J32">
+        <v>338.6936559506685</v>
+      </c>
+      <c r="K32">
+        <v>174.2351940614718</v>
+      </c>
+      <c r="L32">
+        <v>174.2351940614718</v>
+      </c>
+      <c r="M32">
+        <v>235.1888160346071</v>
+      </c>
+      <c r="N32">
+        <v>235.1888160346071</v>
+      </c>
+      <c r="O32">
+        <v>473.1471404252814</v>
+      </c>
+      <c r="P32">
+        <v>473.1471404252814</v>
+      </c>
+      <c r="Q32">
+        <v>392.4665929814528</v>
+      </c>
+      <c r="R32">
+        <v>392.4665929814528</v>
+      </c>
+      <c r="S32">
+        <v>478.1986026384891</v>
+      </c>
+      <c r="T32">
+        <v>78.58888346077894</v>
+      </c>
+      <c r="U32">
+        <v>338.6936559506685</v>
+      </c>
+      <c r="V32">
+        <v>159.0819486042514</v>
+      </c>
+      <c r="W32">
+        <v>279.4767469143138</v>
+      </c>
+      <c r="X32">
+        <v>338.6936559506685</v>
+      </c>
+      <c r="Y32">
+        <v>142.3387326220144</v>
+      </c>
+      <c r="Z32">
+        <v>142.3387326220144</v>
+      </c>
+      <c r="AA32">
+        <v>89.24832435009365</v>
+      </c>
+      <c r="AB32">
+        <v>234.5103789282097</v>
+      </c>
+      <c r="AC32">
+        <v>234.5103789282097</v>
+      </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:29">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1633,8 +3334,71 @@
       <c r="H33">
         <v>21.12</v>
       </c>
+      <c r="I33">
+        <v>456.0129048642105</v>
+      </c>
+      <c r="J33">
+        <v>456.0129048642105</v>
+      </c>
+      <c r="K33">
+        <v>197.0907635732213</v>
+      </c>
+      <c r="L33">
+        <v>197.0907635732213</v>
+      </c>
+      <c r="M33">
+        <v>269.5561728632164</v>
+      </c>
+      <c r="N33">
+        <v>269.5561728632164</v>
+      </c>
+      <c r="O33">
+        <v>715.8410618585011</v>
+      </c>
+      <c r="P33">
+        <v>715.8410618585011</v>
+      </c>
+      <c r="Q33">
+        <v>399.7933117211437</v>
+      </c>
+      <c r="R33">
+        <v>399.7933117211437</v>
+      </c>
+      <c r="S33">
+        <v>448.0775014600792</v>
+      </c>
+      <c r="T33">
+        <v>87.5615131498095</v>
+      </c>
+      <c r="U33">
+        <v>456.0129048642105</v>
+      </c>
+      <c r="V33">
+        <v>173.3634461466476</v>
+      </c>
+      <c r="W33">
+        <v>387.2582969305053</v>
+      </c>
+      <c r="X33">
+        <v>456.0129048642105</v>
+      </c>
+      <c r="Y33">
+        <v>174.7416115831797</v>
+      </c>
+      <c r="Z33">
+        <v>174.7416115831797</v>
+      </c>
+      <c r="AA33">
+        <v>106.622631784726</v>
+      </c>
+      <c r="AB33">
+        <v>230.0836780600154</v>
+      </c>
+      <c r="AC33">
+        <v>230.0836780600154</v>
+      </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:29">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1659,8 +3423,71 @@
       <c r="H34">
         <v>33.4048</v>
       </c>
+      <c r="I34">
+        <v>456.5969874985278</v>
+      </c>
+      <c r="J34">
+        <v>456.5969874985278</v>
+      </c>
+      <c r="K34">
+        <v>210.2479825892534</v>
+      </c>
+      <c r="L34">
+        <v>210.2479825892534</v>
+      </c>
+      <c r="M34">
+        <v>237.2936671594918</v>
+      </c>
+      <c r="N34">
+        <v>237.2936671594918</v>
+      </c>
+      <c r="O34">
+        <v>661.0104544357042</v>
+      </c>
+      <c r="P34">
+        <v>661.0104544357042</v>
+      </c>
+      <c r="Q34">
+        <v>475.3178732518628</v>
+      </c>
+      <c r="R34">
+        <v>475.3178732518628</v>
+      </c>
+      <c r="S34">
+        <v>587.5912382630931</v>
+      </c>
+      <c r="T34">
+        <v>107.5875217196349</v>
+      </c>
+      <c r="U34">
+        <v>456.5969874985278</v>
+      </c>
+      <c r="V34">
+        <v>174.4637182293446</v>
+      </c>
+      <c r="W34">
+        <v>391.0377366083418</v>
+      </c>
+      <c r="X34">
+        <v>456.5969874985278</v>
+      </c>
+      <c r="Y34">
+        <v>190.4894174123841</v>
+      </c>
+      <c r="Z34">
+        <v>190.4894174123841</v>
+      </c>
+      <c r="AA34">
+        <v>133.0291511194358</v>
+      </c>
+      <c r="AB34">
+        <v>307.2076620411784</v>
+      </c>
+      <c r="AC34">
+        <v>307.2076620411784</v>
+      </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:29">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1685,8 +3512,71 @@
       <c r="H35">
         <v>23.3536</v>
       </c>
+      <c r="I35">
+        <v>408.269050404078</v>
+      </c>
+      <c r="J35">
+        <v>408.269050404078</v>
+      </c>
+      <c r="K35">
+        <v>186.1491371317687</v>
+      </c>
+      <c r="L35">
+        <v>186.1491371317687</v>
+      </c>
+      <c r="M35">
+        <v>248.7981343927476</v>
+      </c>
+      <c r="N35">
+        <v>248.7981343927476</v>
+      </c>
+      <c r="O35">
+        <v>649.0659459983822</v>
+      </c>
+      <c r="P35">
+        <v>649.0659459983822</v>
+      </c>
+      <c r="Q35">
+        <v>388.3809148367131</v>
+      </c>
+      <c r="R35">
+        <v>388.3809148367131</v>
+      </c>
+      <c r="S35">
+        <v>406.7071138397772</v>
+      </c>
+      <c r="T35">
+        <v>98.34279751665127</v>
+      </c>
+      <c r="U35">
+        <v>408.269050404078</v>
+      </c>
+      <c r="V35">
+        <v>168.3905348028326</v>
+      </c>
+      <c r="W35">
+        <v>341.7080995161652</v>
+      </c>
+      <c r="X35">
+        <v>408.269050404078</v>
+      </c>
+      <c r="Y35">
+        <v>158.053820056629</v>
+      </c>
+      <c r="Z35">
+        <v>158.053820056629</v>
+      </c>
+      <c r="AA35">
+        <v>103.1616256518496</v>
+      </c>
+      <c r="AB35">
+        <v>230.8576767739564</v>
+      </c>
+      <c r="AC35">
+        <v>230.8576767739564</v>
+      </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:29">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1711,8 +3601,71 @@
       <c r="H36">
         <v>28.9376</v>
       </c>
+      <c r="I36">
+        <v>417.8063709442735</v>
+      </c>
+      <c r="J36">
+        <v>417.8063709442735</v>
+      </c>
+      <c r="K36">
+        <v>222.5189530871466</v>
+      </c>
+      <c r="L36">
+        <v>222.5189530871466</v>
+      </c>
+      <c r="M36">
+        <v>250.2556525177247</v>
+      </c>
+      <c r="N36">
+        <v>250.2556525177247</v>
+      </c>
+      <c r="O36">
+        <v>811.6741242727738</v>
+      </c>
+      <c r="P36">
+        <v>811.6741242727738</v>
+      </c>
+      <c r="Q36">
+        <v>393.7097813491893</v>
+      </c>
+      <c r="R36">
+        <v>393.7097813491893</v>
+      </c>
+      <c r="S36">
+        <v>379.6803098651988</v>
+      </c>
+      <c r="T36">
+        <v>119.728783479304</v>
+      </c>
+      <c r="U36">
+        <v>417.8063709442735</v>
+      </c>
+      <c r="V36">
+        <v>161.1116376116029</v>
+      </c>
+      <c r="W36">
+        <v>352.5327855112331</v>
+      </c>
+      <c r="X36">
+        <v>417.8063709442735</v>
+      </c>
+      <c r="Y36">
+        <v>170.6220589930146</v>
+      </c>
+      <c r="Z36">
+        <v>170.6220589930146</v>
+      </c>
+      <c r="AA36">
+        <v>119.7344832601991</v>
+      </c>
+      <c r="AB36">
+        <v>234.4282830501459</v>
+      </c>
+      <c r="AC36">
+        <v>234.4282830501459</v>
+      </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:29">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1737,8 +3690,71 @@
       <c r="H37">
         <v>143.968</v>
       </c>
+      <c r="I37">
+        <v>382.7968732386371</v>
+      </c>
+      <c r="J37">
+        <v>382.7968732386371</v>
+      </c>
+      <c r="K37">
+        <v>195.7611050759241</v>
+      </c>
+      <c r="L37">
+        <v>195.7611050759241</v>
+      </c>
+      <c r="M37">
+        <v>226.2668579619516</v>
+      </c>
+      <c r="N37">
+        <v>226.2668579619516</v>
+      </c>
+      <c r="O37">
+        <v>709.761480056239</v>
+      </c>
+      <c r="P37">
+        <v>709.761480056239</v>
+      </c>
+      <c r="Q37">
+        <v>335.5768842003835</v>
+      </c>
+      <c r="R37">
+        <v>335.5768842003835</v>
+      </c>
+      <c r="S37">
+        <v>330.4001105100385</v>
+      </c>
+      <c r="T37">
+        <v>106.5988858155678</v>
+      </c>
+      <c r="U37">
+        <v>382.7968732386371</v>
+      </c>
+      <c r="V37">
+        <v>152.4388198496455</v>
+      </c>
+      <c r="W37">
+        <v>328.7244728788456</v>
+      </c>
+      <c r="X37">
+        <v>382.7968732386371</v>
+      </c>
+      <c r="Y37">
+        <v>159.8808537201351</v>
+      </c>
+      <c r="Z37">
+        <v>159.8808537201351</v>
+      </c>
+      <c r="AA37">
+        <v>116.7737085507708</v>
+      </c>
+      <c r="AB37">
+        <v>204.0885622586355</v>
+      </c>
+      <c r="AC37">
+        <v>204.0885622586355</v>
+      </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:29">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -1763,8 +3779,71 @@
       <c r="H38">
         <v>9.952</v>
       </c>
+      <c r="I38">
+        <v>329.5079739293262</v>
+      </c>
+      <c r="J38">
+        <v>329.5079739293262</v>
+      </c>
+      <c r="K38">
+        <v>169.8009899147957</v>
+      </c>
+      <c r="L38">
+        <v>169.8009899147957</v>
+      </c>
+      <c r="M38">
+        <v>200.1591066576025</v>
+      </c>
+      <c r="N38">
+        <v>200.1591066576025</v>
+      </c>
+      <c r="O38">
+        <v>493.3317192197098</v>
+      </c>
+      <c r="P38">
+        <v>493.3317192197098</v>
+      </c>
+      <c r="Q38">
+        <v>407.5741921101081</v>
+      </c>
+      <c r="R38">
+        <v>407.5741921101081</v>
+      </c>
+      <c r="S38">
+        <v>467.6251961602248</v>
+      </c>
+      <c r="T38">
+        <v>76.10884315905582</v>
+      </c>
+      <c r="U38">
+        <v>329.5079739293262</v>
+      </c>
+      <c r="V38">
+        <v>139.7548495459142</v>
+      </c>
+      <c r="W38">
+        <v>273.4613474663397</v>
+      </c>
+      <c r="X38">
+        <v>329.5079739293262</v>
+      </c>
+      <c r="Y38">
+        <v>143.5936144945321</v>
+      </c>
+      <c r="Z38">
+        <v>143.5936144945321</v>
+      </c>
+      <c r="AA38">
+        <v>89.22570577791166</v>
+      </c>
+      <c r="AB38">
+        <v>246.9025070947218</v>
+      </c>
+      <c r="AC38">
+        <v>246.9025070947218</v>
+      </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:29">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -1789,8 +3868,71 @@
       <c r="H39">
         <v>59.0912</v>
       </c>
+      <c r="I39">
+        <v>390.9439112612718</v>
+      </c>
+      <c r="J39">
+        <v>390.9439112612718</v>
+      </c>
+      <c r="K39">
+        <v>205.7173761294216</v>
+      </c>
+      <c r="L39">
+        <v>205.7173761294216</v>
+      </c>
+      <c r="M39">
+        <v>232.3308478873612</v>
+      </c>
+      <c r="N39">
+        <v>232.3308478873612</v>
+      </c>
+      <c r="O39">
+        <v>611.5463277516852</v>
+      </c>
+      <c r="P39">
+        <v>611.5463277516852</v>
+      </c>
+      <c r="Q39">
+        <v>551.4275191993473</v>
+      </c>
+      <c r="R39">
+        <v>551.4275191993473</v>
+      </c>
+      <c r="S39">
+        <v>698.7381946538392</v>
+      </c>
+      <c r="T39">
+        <v>90.79987094795965</v>
+      </c>
+      <c r="U39">
+        <v>390.9439112612718</v>
+      </c>
+      <c r="V39">
+        <v>156.4325344203783</v>
+      </c>
+      <c r="W39">
+        <v>315.9509533744791</v>
+      </c>
+      <c r="X39">
+        <v>390.9439112612718</v>
+      </c>
+      <c r="Y39">
+        <v>152.0909330005987</v>
+      </c>
+      <c r="Z39">
+        <v>152.0909330005987</v>
+      </c>
+      <c r="AA39">
+        <v>123.629344320746</v>
+      </c>
+      <c r="AB39">
+        <v>318.6831034893568</v>
+      </c>
+      <c r="AC39">
+        <v>318.6831034893568</v>
+      </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:29">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -1815,8 +3957,71 @@
       <c r="H40">
         <v>26.704</v>
       </c>
+      <c r="I40">
+        <v>357.5750689541476</v>
+      </c>
+      <c r="J40">
+        <v>357.5750689541476</v>
+      </c>
+      <c r="K40">
+        <v>160.7493001295238</v>
+      </c>
+      <c r="L40">
+        <v>160.7493001295238</v>
+      </c>
+      <c r="M40">
+        <v>210.3947516806836</v>
+      </c>
+      <c r="N40">
+        <v>210.3947516806836</v>
+      </c>
+      <c r="O40">
+        <v>583.0476489174832</v>
+      </c>
+      <c r="P40">
+        <v>583.0476489174832</v>
+      </c>
+      <c r="Q40">
+        <v>362.6674602675113</v>
+      </c>
+      <c r="R40">
+        <v>362.9021714448238</v>
+      </c>
+      <c r="S40">
+        <v>419.1410892845786</v>
+      </c>
+      <c r="T40">
+        <v>74.33657684766776</v>
+      </c>
+      <c r="U40">
+        <v>357.5750689541476</v>
+      </c>
+      <c r="V40">
+        <v>146.087826487951</v>
+      </c>
+      <c r="W40">
+        <v>293.5824194255185</v>
+      </c>
+      <c r="X40">
+        <v>357.5750689541476</v>
+      </c>
+      <c r="Y40">
+        <v>144.4341055546809</v>
+      </c>
+      <c r="Z40">
+        <v>144.4341055546809</v>
+      </c>
+      <c r="AA40">
+        <v>91.33608980896739</v>
+      </c>
+      <c r="AB40">
+        <v>226.7014781092303</v>
+      </c>
+      <c r="AC40">
+        <v>226.7014781092303</v>
+      </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:29">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -1841,8 +4046,71 @@
       <c r="H41">
         <v>7.7184</v>
       </c>
+      <c r="I41">
+        <v>418.8001104917419</v>
+      </c>
+      <c r="J41">
+        <v>418.8001104917419</v>
+      </c>
+      <c r="K41">
+        <v>197.2791791514479</v>
+      </c>
+      <c r="L41">
+        <v>197.2791791514479</v>
+      </c>
+      <c r="M41">
+        <v>229.5468081645202</v>
+      </c>
+      <c r="N41">
+        <v>229.5468081645202</v>
+      </c>
+      <c r="O41">
+        <v>606.8769223374542</v>
+      </c>
+      <c r="P41">
+        <v>606.8769223374542</v>
+      </c>
+      <c r="Q41">
+        <v>417.9059640243481</v>
+      </c>
+      <c r="R41">
+        <v>417.9059640243481</v>
+      </c>
+      <c r="S41">
+        <v>488.7866850621235</v>
+      </c>
+      <c r="T41">
+        <v>81.50145184600203</v>
+      </c>
+      <c r="U41">
+        <v>418.8001104917419</v>
+      </c>
+      <c r="V41">
+        <v>161.5537164843478</v>
+      </c>
+      <c r="W41">
+        <v>360.2475046380179</v>
+      </c>
+      <c r="X41">
+        <v>418.8001104917419</v>
+      </c>
+      <c r="Y41">
+        <v>170.8584349846563</v>
+      </c>
+      <c r="Z41">
+        <v>170.8584349846563</v>
+      </c>
+      <c r="AA41">
+        <v>95.38713891157188</v>
+      </c>
+      <c r="AB41">
+        <v>260.0904343821953</v>
+      </c>
+      <c r="AC41">
+        <v>260.0904343821953</v>
+      </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:29">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -1867,8 +4135,71 @@
       <c r="H42">
         <v>2.1344</v>
       </c>
+      <c r="I42">
+        <v>370.6899506247275</v>
+      </c>
+      <c r="J42">
+        <v>370.6899506247275</v>
+      </c>
+      <c r="K42">
+        <v>180.917448493156</v>
+      </c>
+      <c r="L42">
+        <v>180.917448493156</v>
+      </c>
+      <c r="M42">
+        <v>230.940989945163</v>
+      </c>
+      <c r="N42">
+        <v>230.940989945163</v>
+      </c>
+      <c r="O42">
+        <v>514.3210657175185</v>
+      </c>
+      <c r="P42">
+        <v>514.3210657175185</v>
+      </c>
+      <c r="Q42">
+        <v>384.3218008597452</v>
+      </c>
+      <c r="R42">
+        <v>384.3218008597452</v>
+      </c>
+      <c r="S42">
+        <v>422.7718763449288</v>
+      </c>
+      <c r="T42">
+        <v>77.77153732577693</v>
+      </c>
+      <c r="U42">
+        <v>370.6899506247275</v>
+      </c>
+      <c r="V42">
+        <v>156.7493086465178</v>
+      </c>
+      <c r="W42">
+        <v>297.9435389317358</v>
+      </c>
+      <c r="X42">
+        <v>370.6899506247275</v>
+      </c>
+      <c r="Y42">
+        <v>149.5147699245422</v>
+      </c>
+      <c r="Z42">
+        <v>149.5147699245422</v>
+      </c>
+      <c r="AA42">
+        <v>92.51411189288896</v>
+      </c>
+      <c r="AB42">
+        <v>228.684006364157</v>
+      </c>
+      <c r="AC42">
+        <v>228.684006364157</v>
+      </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:29">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -1893,8 +4224,71 @@
       <c r="H43">
         <v>28.9376</v>
       </c>
+      <c r="I43">
+        <v>451.130354520303</v>
+      </c>
+      <c r="J43">
+        <v>451.130354520303</v>
+      </c>
+      <c r="K43">
+        <v>201.0271984234084</v>
+      </c>
+      <c r="L43">
+        <v>201.0271984234084</v>
+      </c>
+      <c r="M43">
+        <v>275.0385434634456</v>
+      </c>
+      <c r="N43">
+        <v>275.0385434634456</v>
+      </c>
+      <c r="O43">
+        <v>641.2197730896388</v>
+      </c>
+      <c r="P43">
+        <v>641.2197730896388</v>
+      </c>
+      <c r="Q43">
+        <v>362.7630862438417</v>
+      </c>
+      <c r="R43">
+        <v>362.7630862438417</v>
+      </c>
+      <c r="S43">
+        <v>321.2747422829577</v>
+      </c>
+      <c r="T43">
+        <v>82.05915836253914</v>
+      </c>
+      <c r="U43">
+        <v>451.130354520303</v>
+      </c>
+      <c r="V43">
+        <v>180.7336229610925</v>
+      </c>
+      <c r="W43">
+        <v>373.9194464691503</v>
+      </c>
+      <c r="X43">
+        <v>451.130354520303</v>
+      </c>
+      <c r="Y43">
+        <v>160.4024782119479</v>
+      </c>
+      <c r="Z43">
+        <v>160.4024782119479</v>
+      </c>
+      <c r="AA43">
+        <v>89.60854854621859</v>
+      </c>
+      <c r="AB43">
+        <v>180.7549029732833</v>
+      </c>
+      <c r="AC43">
+        <v>180.7549029732833</v>
+      </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:29">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -1919,8 +4313,71 @@
       <c r="H44">
         <v>75.8432</v>
       </c>
+      <c r="I44">
+        <v>417.5170278350409</v>
+      </c>
+      <c r="J44">
+        <v>417.5170278350409</v>
+      </c>
+      <c r="K44">
+        <v>192.7609780120193</v>
+      </c>
+      <c r="L44">
+        <v>192.7609780120193</v>
+      </c>
+      <c r="M44">
+        <v>300.6750556977746</v>
+      </c>
+      <c r="N44">
+        <v>300.6750556977746</v>
+      </c>
+      <c r="O44">
+        <v>825.6090155532899</v>
+      </c>
+      <c r="P44">
+        <v>825.6090155532899</v>
+      </c>
+      <c r="Q44">
+        <v>361.1412011203726</v>
+      </c>
+      <c r="R44">
+        <v>361.1412011203726</v>
+      </c>
+      <c r="S44">
+        <v>285.7718847207963</v>
+      </c>
+      <c r="T44">
+        <v>86.12932425303907</v>
+      </c>
+      <c r="U44">
+        <v>417.5170278350409</v>
+      </c>
+      <c r="V44">
+        <v>184.3915881883439</v>
+      </c>
+      <c r="W44">
+        <v>348.3063793030747</v>
+      </c>
+      <c r="X44">
+        <v>417.5170278350409</v>
+      </c>
+      <c r="Y44">
+        <v>158.3399058494652</v>
+      </c>
+      <c r="Z44">
+        <v>158.3399058494652</v>
+      </c>
+      <c r="AA44">
+        <v>99.04046659575869</v>
+      </c>
+      <c r="AB44">
+        <v>191.1671461882918</v>
+      </c>
+      <c r="AC44">
+        <v>191.1671461882918</v>
+      </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:29">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -1945,8 +4402,71 @@
       <c r="H45">
         <v>68.0256</v>
       </c>
+      <c r="I45">
+        <v>509.635338889608</v>
+      </c>
+      <c r="J45">
+        <v>509.635338889608</v>
+      </c>
+      <c r="K45">
+        <v>209.7389844827791</v>
+      </c>
+      <c r="L45">
+        <v>209.7389844827791</v>
+      </c>
+      <c r="M45">
+        <v>290.6368412758318</v>
+      </c>
+      <c r="N45">
+        <v>290.6368412758318</v>
+      </c>
+      <c r="O45">
+        <v>695.4591305705812</v>
+      </c>
+      <c r="P45">
+        <v>695.4591305705812</v>
+      </c>
+      <c r="Q45">
+        <v>398.219420888771</v>
+      </c>
+      <c r="R45">
+        <v>398.219420888771</v>
+      </c>
+      <c r="S45">
+        <v>365.8862426866708</v>
+      </c>
+      <c r="T45">
+        <v>83.28474199133804</v>
+      </c>
+      <c r="U45">
+        <v>509.635338889608</v>
+      </c>
+      <c r="V45">
+        <v>180.6318160121685</v>
+      </c>
+      <c r="W45">
+        <v>419.0684571161212</v>
+      </c>
+      <c r="X45">
+        <v>509.635338889608</v>
+      </c>
+      <c r="Y45">
+        <v>186.491940588726</v>
+      </c>
+      <c r="Z45">
+        <v>186.491940588726</v>
+      </c>
+      <c r="AA45">
+        <v>105.9420643774024</v>
+      </c>
+      <c r="AB45">
+        <v>211.6031002249503</v>
+      </c>
+      <c r="AC45">
+        <v>211.6031002249503</v>
+      </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:29">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -1971,8 +4491,71 @@
       <c r="H46">
         <v>16.6528</v>
       </c>
+      <c r="I46">
+        <v>522.5314031485941</v>
+      </c>
+      <c r="J46">
+        <v>522.5314031485941</v>
+      </c>
+      <c r="K46">
+        <v>231.3129073693503</v>
+      </c>
+      <c r="L46">
+        <v>231.3129073693503</v>
+      </c>
+      <c r="M46">
+        <v>223.6492121889728</v>
+      </c>
+      <c r="N46">
+        <v>223.6492121889728</v>
+      </c>
+      <c r="O46">
+        <v>686.1951808187837</v>
+      </c>
+      <c r="P46">
+        <v>686.1951808187837</v>
+      </c>
+      <c r="Q46">
+        <v>553.9638813301472</v>
+      </c>
+      <c r="R46">
+        <v>553.9638813301472</v>
+      </c>
+      <c r="S46">
+        <v>630.1386908671949</v>
+      </c>
+      <c r="T46">
+        <v>95.79666812168291</v>
+      </c>
+      <c r="U46">
+        <v>522.5314031485941</v>
+      </c>
+      <c r="V46">
+        <v>167.8108713136074</v>
+      </c>
+      <c r="W46">
+        <v>432.648422754192</v>
+      </c>
+      <c r="X46">
+        <v>522.5314031485941</v>
+      </c>
+      <c r="Y46">
+        <v>197.45086236271</v>
+      </c>
+      <c r="Z46">
+        <v>197.45086236271</v>
+      </c>
+      <c r="AA46">
+        <v>93.5250165749399</v>
+      </c>
+      <c r="AB46">
+        <v>321.6419158259143</v>
+      </c>
+      <c r="AC46">
+        <v>321.6419158259143</v>
+      </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:29">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -1997,8 +4580,71 @@
       <c r="H47">
         <v>62.4416</v>
       </c>
+      <c r="I47">
+        <v>479.5154684818791</v>
+      </c>
+      <c r="J47">
+        <v>479.5154684818791</v>
+      </c>
+      <c r="K47">
+        <v>190.5413440995019</v>
+      </c>
+      <c r="L47">
+        <v>190.5413440995019</v>
+      </c>
+      <c r="M47">
+        <v>279.0412254921121</v>
+      </c>
+      <c r="N47">
+        <v>279.0412254921121</v>
+      </c>
+      <c r="O47">
+        <v>827.8647636577989</v>
+      </c>
+      <c r="P47">
+        <v>827.8647636577989</v>
+      </c>
+      <c r="Q47">
+        <v>429.2915162756667</v>
+      </c>
+      <c r="R47">
+        <v>429.2915162756667</v>
+      </c>
+      <c r="S47">
+        <v>463.4557077135053</v>
+      </c>
+      <c r="T47">
+        <v>82.65281747618005</v>
+      </c>
+      <c r="U47">
+        <v>479.5154684818791</v>
+      </c>
+      <c r="V47">
+        <v>187.2350658162971</v>
+      </c>
+      <c r="W47">
+        <v>396.3227733506263</v>
+      </c>
+      <c r="X47">
+        <v>479.5154684818791</v>
+      </c>
+      <c r="Y47">
+        <v>180.2558168303559</v>
+      </c>
+      <c r="Z47">
+        <v>180.2558168303559</v>
+      </c>
+      <c r="AA47">
+        <v>93.13529437618756</v>
+      </c>
+      <c r="AB47">
+        <v>241.6733363817003</v>
+      </c>
+      <c r="AC47">
+        <v>241.6733363817003</v>
+      </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:29">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -2023,8 +4669,71 @@
       <c r="H48">
         <v>197.3</v>
       </c>
+      <c r="I48">
+        <v>359.0834214658462</v>
+      </c>
+      <c r="J48">
+        <v>359.0834214658462</v>
+      </c>
+      <c r="K48">
+        <v>153.7799312668057</v>
+      </c>
+      <c r="L48">
+        <v>153.7799312668057</v>
+      </c>
+      <c r="M48">
+        <v>211.8983829283752</v>
+      </c>
+      <c r="N48">
+        <v>211.8983829283752</v>
+      </c>
+      <c r="O48">
+        <v>522.1913031319248</v>
+      </c>
+      <c r="P48">
+        <v>522.1913031319248</v>
+      </c>
+      <c r="Q48">
+        <v>341.3089388847212</v>
+      </c>
+      <c r="R48">
+        <v>341.3089388847212</v>
+      </c>
+      <c r="S48">
+        <v>306.6840226852039</v>
+      </c>
+      <c r="T48">
+        <v>64.60380240893792</v>
+      </c>
+      <c r="U48">
+        <v>359.0834214658462</v>
+      </c>
+      <c r="V48">
+        <v>141.3901189121782</v>
+      </c>
+      <c r="W48">
+        <v>290.3256562858093</v>
+      </c>
+      <c r="X48">
+        <v>359.0834214658462</v>
+      </c>
+      <c r="Y48">
+        <v>144.6966607516221</v>
+      </c>
+      <c r="Z48">
+        <v>144.6966607516221</v>
+      </c>
+      <c r="AA48">
+        <v>77.08901601365494</v>
+      </c>
+      <c r="AB48">
+        <v>163.4877069572597</v>
+      </c>
+      <c r="AC48">
+        <v>163.4877069572597</v>
+      </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:29">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -2049,8 +4758,71 @@
       <c r="H49">
         <v>69.14239999999999</v>
       </c>
+      <c r="I49">
+        <v>439.8875055210448</v>
+      </c>
+      <c r="J49">
+        <v>439.8875055210448</v>
+      </c>
+      <c r="K49">
+        <v>164.9721280807466</v>
+      </c>
+      <c r="L49">
+        <v>164.9721280807466</v>
+      </c>
+      <c r="M49">
+        <v>399.9927779900586</v>
+      </c>
+      <c r="N49">
+        <v>399.9927779900586</v>
+      </c>
+      <c r="O49">
+        <v>1027.07955242303</v>
+      </c>
+      <c r="P49">
+        <v>1027.07955242303</v>
+      </c>
+      <c r="Q49">
+        <v>328.1806679789447</v>
+      </c>
+      <c r="R49">
+        <v>328.1806679789447</v>
+      </c>
+      <c r="S49">
+        <v>296.4124123226671</v>
+      </c>
+      <c r="T49">
+        <v>78.08690099169903</v>
+      </c>
+      <c r="U49">
+        <v>439.8875055210448</v>
+      </c>
+      <c r="V49">
+        <v>229.4972976495434</v>
+      </c>
+      <c r="W49">
+        <v>375.4617038341524</v>
+      </c>
+      <c r="X49">
+        <v>439.8875055210448</v>
+      </c>
+      <c r="Y49">
+        <v>179.856842096328</v>
+      </c>
+      <c r="Z49">
+        <v>179.856842096328</v>
+      </c>
+      <c r="AA49">
+        <v>85.26447157961582</v>
+      </c>
+      <c r="AB49">
+        <v>169.0994188729744</v>
+      </c>
+      <c r="AC49">
+        <v>169.0994188729744</v>
+      </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:29">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -2075,8 +4847,71 @@
       <c r="H50">
         <v>26.704</v>
       </c>
+      <c r="I50">
+        <v>345.5035004690653</v>
+      </c>
+      <c r="J50">
+        <v>345.5035004690653</v>
+      </c>
+      <c r="K50">
+        <v>156.2886345195196</v>
+      </c>
+      <c r="L50">
+        <v>156.2886345195196</v>
+      </c>
+      <c r="M50">
+        <v>199.5822525861005</v>
+      </c>
+      <c r="N50">
+        <v>199.5822525861005</v>
+      </c>
+      <c r="O50">
+        <v>491.0931756158323</v>
+      </c>
+      <c r="P50">
+        <v>491.0931756158323</v>
+      </c>
+      <c r="Q50">
+        <v>250.0865412500837</v>
+      </c>
+      <c r="R50">
+        <v>250.0865412500837</v>
+      </c>
+      <c r="S50">
+        <v>248.6116179144552</v>
+      </c>
+      <c r="T50">
+        <v>68.03324992332323</v>
+      </c>
+      <c r="U50">
+        <v>345.5035004690653</v>
+      </c>
+      <c r="V50">
+        <v>153.6795885529654</v>
+      </c>
+      <c r="W50">
+        <v>297.4601220073868</v>
+      </c>
+      <c r="X50">
+        <v>345.5035004690653</v>
+      </c>
+      <c r="Y50">
+        <v>139.2094848667202</v>
+      </c>
+      <c r="Z50">
+        <v>139.2094848667202</v>
+      </c>
+      <c r="AA50">
+        <v>73.24755479654843</v>
+      </c>
+      <c r="AB50">
+        <v>144.5483858745774</v>
+      </c>
+      <c r="AC50">
+        <v>144.5483858745774</v>
+      </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:29">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -2100,6 +4935,69 @@
       </c>
       <c r="H51">
         <v>31.1712</v>
+      </c>
+      <c r="I51">
+        <v>85.26802252089439</v>
+      </c>
+      <c r="J51">
+        <v>85.26802252089439</v>
+      </c>
+      <c r="K51">
+        <v>16.75251873888798</v>
+      </c>
+      <c r="L51">
+        <v>16.75251873888798</v>
+      </c>
+      <c r="M51">
+        <v>83.4085015061732</v>
+      </c>
+      <c r="N51">
+        <v>83.4085015061732</v>
+      </c>
+      <c r="O51">
+        <v>8.549765474720978</v>
+      </c>
+      <c r="P51">
+        <v>8.549765474720978</v>
+      </c>
+      <c r="Q51">
+        <v>6.502100521422577</v>
+      </c>
+      <c r="R51">
+        <v>8.778364831747604</v>
+      </c>
+      <c r="S51">
+        <v>79.69043915865134</v>
+      </c>
+      <c r="T51">
+        <v>20.395725616899</v>
+      </c>
+      <c r="U51">
+        <v>80.92997180390527</v>
+      </c>
+      <c r="V51">
+        <v>84.23531998313904</v>
+      </c>
+      <c r="W51">
+        <v>86.71386260547456</v>
+      </c>
+      <c r="X51">
+        <v>85.26802252089439</v>
+      </c>
+      <c r="Y51">
+        <v>86.50732135501774</v>
+      </c>
+      <c r="Z51">
+        <v>86.50732135501774</v>
+      </c>
+      <c r="AA51">
+        <v>17.88899448945016</v>
+      </c>
+      <c r="AB51">
+        <v>21.53037927947842</v>
+      </c>
+      <c r="AC51">
+        <v>21.53037927947842</v>
       </c>
     </row>
   </sheetData>

--- a/output/calibration/adana.xlsx
+++ b/output/calibration/adana.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ugurg\Documents\GitHub\oceanview\output\calibration\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB3F46E3-6309-4CCF-8733-1CC50885A207}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -106,8 +112,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -170,6 +176,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -216,7 +230,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -248,9 +262,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -282,6 +314,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -457,14 +507,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="P21" sqref="P21"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="13" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="20" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="26" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="29" width="13.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -550,7 +619,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:29">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -564,10 +633,10 @@
         <v>28</v>
       </c>
       <c r="E2">
-        <v>0.073</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="F2">
-        <v>2.757</v>
+        <v>2.7570000000000001</v>
       </c>
       <c r="G2">
         <v>135.233</v>
@@ -576,70 +645,70 @@
         <v>5.258</v>
       </c>
       <c r="I2">
-        <v>476.1516222873825</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>476.1516222873825</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>150.758304101385</v>
+        <v>170.63449358278021</v>
       </c>
       <c r="L2">
-        <v>150.758304101385</v>
+        <v>170.63449358278021</v>
       </c>
       <c r="M2">
-        <v>214.9493480615818</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>214.9493480615818</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>661.2060267438159</v>
+        <v>701.85973528682962</v>
       </c>
       <c r="P2">
-        <v>661.2060267438159</v>
+        <v>701.85973528682962</v>
       </c>
       <c r="Q2">
-        <v>349.0037892366194</v>
+        <v>554.7781423179257</v>
       </c>
       <c r="R2">
-        <v>349.0037892366194</v>
+        <v>554.7781423179257</v>
       </c>
       <c r="S2">
-        <v>390.5309525093325</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>56.67759676035072</v>
+        <v>47.666267151770043</v>
       </c>
       <c r="U2">
-        <v>476.1516222873825</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>155.8076030051722</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>394.1489429412907</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>476.1516222873825</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>169.3494698551825</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>169.3494698551825</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>70.51928931386412</v>
+        <v>80.582533835222677</v>
       </c>
       <c r="AB2">
-        <v>177.8219535264578</v>
+        <v>218.6599515945874</v>
       </c>
       <c r="AC2">
-        <v>177.8219535264578</v>
+        <v>218.6599515945874</v>
       </c>
     </row>
-    <row r="3" spans="1:29">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -653,82 +722,82 @@
         <v>28</v>
       </c>
       <c r="E3">
-        <v>0.073</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="F3">
         <v>2.694</v>
       </c>
       <c r="G3">
-        <v>178.918</v>
+        <v>178.91800000000001</v>
       </c>
       <c r="H3">
         <v>6.34</v>
       </c>
       <c r="I3">
-        <v>401.7937070069241</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>401.7937070069241</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>131.9839494493737</v>
+        <v>159.93115379612769</v>
       </c>
       <c r="L3">
-        <v>131.9839494493737</v>
+        <v>159.93115379612769</v>
       </c>
       <c r="M3">
-        <v>208.8164428150672</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>208.8164428150672</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>526.2827007329859</v>
+        <v>826.8868627082295</v>
       </c>
       <c r="P3">
-        <v>526.2827007329859</v>
+        <v>826.8868627082295</v>
       </c>
       <c r="Q3">
-        <v>278.6578466797631</v>
+        <v>465.96441331477018</v>
       </c>
       <c r="R3">
-        <v>278.6578466797631</v>
+        <v>465.96441331477018</v>
       </c>
       <c r="S3">
-        <v>285.7967085287395</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>54.26444313454772</v>
+        <v>42.87026218641342</v>
       </c>
       <c r="U3">
-        <v>401.7937070069241</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>133.3477531071089</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>328.8635673179768</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>401.7937070069241</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>160.6345151659971</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>160.6345151659971</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>0</v>
+        <v>67.178780076934245</v>
       </c>
       <c r="AB3">
-        <v>149.8277114774758</v>
+        <v>166.9403317225144</v>
       </c>
       <c r="AC3">
-        <v>149.8277114774758</v>
+        <v>166.9403317225144</v>
       </c>
     </row>
-    <row r="4" spans="1:29">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -745,79 +814,79 @@
         <v>0.129</v>
       </c>
       <c r="F4">
-        <v>1.545</v>
+        <v>1.5449999999999999</v>
       </c>
       <c r="G4">
-        <v>214.927</v>
+        <v>214.92699999999999</v>
       </c>
       <c r="H4">
-        <v>1.743</v>
+        <v>1.7430000000000001</v>
       </c>
       <c r="I4">
-        <v>326.3061597320066</v>
+        <v>326.30615973200662</v>
       </c>
       <c r="J4">
-        <v>326.3061597320066</v>
+        <v>326.30615973200662</v>
       </c>
       <c r="K4">
-        <v>181.4067372394636</v>
+        <v>181.40673723946361</v>
       </c>
       <c r="L4">
-        <v>181.4067372394636</v>
+        <v>181.40673723946361</v>
       </c>
       <c r="M4">
-        <v>209.8847402391214</v>
+        <v>209.88474023912141</v>
       </c>
       <c r="N4">
-        <v>209.8847402391214</v>
+        <v>209.88474023912141</v>
       </c>
       <c r="O4">
-        <v>527.1365024397134</v>
+        <v>527.13650243971335</v>
       </c>
       <c r="P4">
-        <v>527.1365024397134</v>
+        <v>527.13650243971335</v>
       </c>
       <c r="Q4">
-        <v>403.5550062352391</v>
+        <v>403.55500623523909</v>
       </c>
       <c r="R4">
-        <v>403.5550062352391</v>
+        <v>403.55500623523909</v>
       </c>
       <c r="S4">
-        <v>391.4063999905615</v>
+        <v>391.40639999056151</v>
       </c>
       <c r="T4">
-        <v>82.14456012174823</v>
+        <v>82.144560121748228</v>
       </c>
       <c r="U4">
-        <v>326.3061597320066</v>
+        <v>326.30615973200662</v>
       </c>
       <c r="V4">
-        <v>156.4647145147483</v>
+        <v>156.46471451474829</v>
       </c>
       <c r="W4">
-        <v>276.9607104672939</v>
+        <v>276.96071046729389</v>
       </c>
       <c r="X4">
-        <v>326.3061597320066</v>
+        <v>326.30615973200662</v>
       </c>
       <c r="Y4">
-        <v>147.3337754480893</v>
+        <v>147.33377544808931</v>
       </c>
       <c r="Z4">
-        <v>147.3337754480893</v>
+        <v>147.33377544808931</v>
       </c>
       <c r="AA4">
-        <v>86.68305268031604</v>
+        <v>86.683052680316038</v>
       </c>
       <c r="AB4">
-        <v>209.7275044733421</v>
+        <v>209.72750447334209</v>
       </c>
       <c r="AC4">
-        <v>209.7275044733421</v>
+        <v>209.72750447334209</v>
       </c>
     </row>
-    <row r="5" spans="1:29">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -834,7 +903,7 @@
         <v>0.129</v>
       </c>
       <c r="F5">
-        <v>3.322</v>
+        <v>3.3220000000000001</v>
       </c>
       <c r="G5">
         <v>108.672</v>
@@ -843,52 +912,52 @@
         <v>6.34</v>
       </c>
       <c r="I5">
-        <v>312.1368802901525</v>
+        <v>312.13688029015248</v>
       </c>
       <c r="J5">
-        <v>312.1368802901525</v>
+        <v>312.13688029015248</v>
       </c>
       <c r="K5">
-        <v>184.1110758205072</v>
+        <v>184.11107582050721</v>
       </c>
       <c r="L5">
-        <v>184.1110758205072</v>
+        <v>184.11107582050721</v>
       </c>
       <c r="M5">
-        <v>236.9960824392757</v>
+        <v>236.99608243927571</v>
       </c>
       <c r="N5">
-        <v>236.9960824392757</v>
+        <v>236.99608243927571</v>
       </c>
       <c r="O5">
-        <v>551.4727645877277</v>
+        <v>551.47276458772774</v>
       </c>
       <c r="P5">
-        <v>551.4727645877277</v>
+        <v>551.47276458772774</v>
       </c>
       <c r="Q5">
-        <v>359.4674747443912</v>
+        <v>359.46747474439121</v>
       </c>
       <c r="R5">
-        <v>359.4674747443912</v>
+        <v>359.46747474439121</v>
       </c>
       <c r="S5">
-        <v>323.1444755911318</v>
+        <v>323.14447559113182</v>
       </c>
       <c r="T5">
-        <v>85.59854473385285</v>
+        <v>85.598544733852847</v>
       </c>
       <c r="U5">
-        <v>312.1368802901525</v>
+        <v>312.13688029015248</v>
       </c>
       <c r="V5">
-        <v>156.7525460275569</v>
+        <v>156.75254602755689</v>
       </c>
       <c r="W5">
-        <v>258.9324953058079</v>
+        <v>258.93249530580789</v>
       </c>
       <c r="X5">
-        <v>312.1368802901525</v>
+        <v>312.13688029015248</v>
       </c>
       <c r="Y5">
         <v>137.3217389089011</v>
@@ -897,16 +966,16 @@
         <v>137.3217389089011</v>
       </c>
       <c r="AA5">
-        <v>90.80958504225629</v>
+        <v>90.809585042256288</v>
       </c>
       <c r="AB5">
-        <v>182.7552089781285</v>
+        <v>182.75520897812851</v>
       </c>
       <c r="AC5">
-        <v>182.7552089781285</v>
+        <v>182.75520897812851</v>
       </c>
     </row>
-    <row r="6" spans="1:29">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -920,7 +989,7 @@
         <v>28</v>
       </c>
       <c r="E6">
-        <v>0.078</v>
+        <v>7.8E-2</v>
       </c>
       <c r="F6">
         <v>2.016</v>
@@ -929,73 +998,73 @@
         <v>29.46</v>
       </c>
       <c r="H6">
-        <v>1.743</v>
+        <v>1.7430000000000001</v>
       </c>
       <c r="I6">
-        <v>384.0376894458356</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>384.0376894458356</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>223.9996847380993</v>
+        <v>191.74775387757481</v>
       </c>
       <c r="L6">
-        <v>223.9996847380993</v>
+        <v>191.74775387757481</v>
       </c>
       <c r="M6">
-        <v>208.477001331917</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>208.477001331917</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>666.2616854492776</v>
+        <v>1004.112833019204</v>
       </c>
       <c r="P6">
-        <v>666.2616854492776</v>
+        <v>1004.112833019204</v>
       </c>
       <c r="Q6">
-        <v>635.4279805689927</v>
+        <v>863.66450529384099</v>
       </c>
       <c r="R6">
-        <v>635.4279805689927</v>
+        <v>863.66450529384099</v>
       </c>
       <c r="S6">
-        <v>642.1689471690019</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>94.04458491393339</v>
+        <v>52.109574374252361</v>
       </c>
       <c r="U6">
-        <v>384.0376894458356</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>155.9532346004674</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>318.3742198248536</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>384.0376894458356</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>150.3719166740655</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>150.3719166740655</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>0</v>
+        <v>93.711605672417406</v>
       </c>
       <c r="AB6">
-        <v>318.6994658862075</v>
+        <v>348.30708054696129</v>
       </c>
       <c r="AC6">
-        <v>318.6994658862075</v>
+        <v>348.30708054696129</v>
       </c>
     </row>
-    <row r="7" spans="1:29">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1009,82 +1078,82 @@
         <v>28</v>
       </c>
       <c r="E7">
-        <v>0.011</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="F7">
-        <v>1.626</v>
+        <v>1.6259999999999999</v>
       </c>
       <c r="G7">
         <v>25.698</v>
       </c>
       <c r="H7">
-        <v>2.013</v>
+        <v>2.0129999999999999</v>
       </c>
       <c r="I7">
-        <v>377.8651085567955</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>377.8651085567955</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>186.1343737658799</v>
+        <v>207.9772141449327</v>
       </c>
       <c r="L7">
-        <v>186.1343737658799</v>
+        <v>207.9772141449327</v>
       </c>
       <c r="M7">
-        <v>233.7900599744954</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>233.7900599744954</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>650.9608778023456</v>
+        <v>1143.705018615613</v>
       </c>
       <c r="P7">
-        <v>650.9608778023456</v>
+        <v>1143.705018615613</v>
       </c>
       <c r="Q7">
-        <v>444.2934793055591</v>
+        <v>871.73234794386951</v>
       </c>
       <c r="R7">
-        <v>444.2934793055591</v>
+        <v>871.73234794386951</v>
       </c>
       <c r="S7">
-        <v>478.4147488478813</v>
+        <v>0</v>
       </c>
       <c r="T7">
-        <v>81.05017300945373</v>
+        <v>56.807239109809657</v>
       </c>
       <c r="U7">
-        <v>377.8651085567955</v>
+        <v>0</v>
       </c>
       <c r="V7">
-        <v>157.0901729720547</v>
+        <v>0</v>
       </c>
       <c r="W7">
-        <v>325.7257917115331</v>
+        <v>0</v>
       </c>
       <c r="X7">
-        <v>377.8651085567955</v>
+        <v>0</v>
       </c>
       <c r="Y7">
-        <v>152.9571484858412</v>
+        <v>0</v>
       </c>
       <c r="Z7">
-        <v>152.9571484858412</v>
+        <v>0</v>
       </c>
       <c r="AA7">
-        <v>93.51505843475884</v>
+        <v>101.03093304720581</v>
       </c>
       <c r="AB7">
-        <v>248.3066881483916</v>
+        <v>336.51809408688649</v>
       </c>
       <c r="AC7">
-        <v>248.3066881483916</v>
+        <v>336.51809408688649</v>
       </c>
     </row>
-    <row r="8" spans="1:29">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1098,22 +1167,22 @@
         <v>28</v>
       </c>
       <c r="E8">
-        <v>0.011</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="F8">
-        <v>1.576</v>
+        <v>1.5760000000000001</v>
       </c>
       <c r="G8">
-        <v>56.684</v>
+        <v>56.683999999999997</v>
       </c>
       <c r="H8">
         <v>1.472</v>
       </c>
       <c r="I8">
-        <v>388.4151430028079</v>
+        <v>388.41514300280789</v>
       </c>
       <c r="J8">
-        <v>388.4151430028079</v>
+        <v>388.41514300280789</v>
       </c>
       <c r="K8">
         <v>189.068035659484</v>
@@ -1128,52 +1197,52 @@
         <v>221.122126962485</v>
       </c>
       <c r="O8">
-        <v>761.6975065558155</v>
+        <v>761.69750655581549</v>
       </c>
       <c r="P8">
-        <v>761.6975065558155</v>
+        <v>761.69750655581549</v>
       </c>
       <c r="Q8">
-        <v>418.84402496006</v>
+        <v>418.84402496005998</v>
       </c>
       <c r="R8">
-        <v>418.84402496006</v>
+        <v>418.84402496005998</v>
       </c>
       <c r="S8">
         <v>426.7651985884454</v>
       </c>
       <c r="T8">
-        <v>89.89387923607657</v>
+        <v>89.893879236076572</v>
       </c>
       <c r="U8">
-        <v>388.4151430028079</v>
+        <v>388.41514300280789</v>
       </c>
       <c r="V8">
-        <v>161.9769107198179</v>
+        <v>161.97691071981791</v>
       </c>
       <c r="W8">
-        <v>319.4335058524532</v>
+        <v>319.43350585245321</v>
       </c>
       <c r="X8">
-        <v>388.4151430028079</v>
+        <v>388.41514300280789</v>
       </c>
       <c r="Y8">
-        <v>159.9089344514696</v>
+        <v>159.90893445146961</v>
       </c>
       <c r="Z8">
-        <v>159.9089344514696</v>
+        <v>159.90893445146961</v>
       </c>
       <c r="AA8">
-        <v>97.82366473123409</v>
+        <v>97.823664731234089</v>
       </c>
       <c r="AB8">
-        <v>225.2822605102334</v>
+        <v>225.28226051023341</v>
       </c>
       <c r="AC8">
-        <v>225.2822605102334</v>
+        <v>225.28226051023341</v>
       </c>
     </row>
-    <row r="9" spans="1:29">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1187,64 +1256,64 @@
         <v>28</v>
       </c>
       <c r="E9">
-        <v>0.168</v>
+        <v>0.16800000000000001</v>
       </c>
       <c r="F9">
-        <v>2.926</v>
+        <v>2.9260000000000002</v>
       </c>
       <c r="G9">
         <v>144.79</v>
       </c>
       <c r="H9">
-        <v>10.126</v>
+        <v>10.125999999999999</v>
       </c>
       <c r="I9">
-        <v>309.2289284766927</v>
+        <v>309.22892847669272</v>
       </c>
       <c r="J9">
-        <v>309.2289284766927</v>
+        <v>309.22892847669272</v>
       </c>
       <c r="K9">
-        <v>186.0274894532556</v>
+        <v>186.02748945325561</v>
       </c>
       <c r="L9">
-        <v>186.0274894532556</v>
+        <v>186.02748945325561</v>
       </c>
       <c r="M9">
-        <v>216.7212895380845</v>
+        <v>216.72128953808451</v>
       </c>
       <c r="N9">
-        <v>216.7212895380845</v>
+        <v>216.72128953808451</v>
       </c>
       <c r="O9">
-        <v>494.029714245302</v>
+        <v>494.02971424530199</v>
       </c>
       <c r="P9">
-        <v>494.029714245302</v>
+        <v>494.02971424530199</v>
       </c>
       <c r="Q9">
-        <v>407.877684805734</v>
+        <v>407.87768480573402</v>
       </c>
       <c r="R9">
-        <v>407.877684805734</v>
+        <v>407.87768480573402</v>
       </c>
       <c r="S9">
-        <v>431.2662439633044</v>
+        <v>431.26624396330442</v>
       </c>
       <c r="T9">
-        <v>76.38748180808159</v>
+        <v>76.387481808081588</v>
       </c>
       <c r="U9">
-        <v>309.2289284766927</v>
+        <v>309.22892847669272</v>
       </c>
       <c r="V9">
         <v>150.3433905659833</v>
       </c>
       <c r="W9">
-        <v>265.1368867660673</v>
+        <v>265.13688676606728</v>
       </c>
       <c r="X9">
-        <v>309.2289284766927</v>
+        <v>309.22892847669272</v>
       </c>
       <c r="Y9">
         <v>136.4943382395366</v>
@@ -1253,16 +1322,16 @@
         <v>136.4943382395366</v>
       </c>
       <c r="AA9">
-        <v>96.58336143184111</v>
+        <v>96.583361431841112</v>
       </c>
       <c r="AB9">
-        <v>219.3291783435166</v>
+        <v>219.32917834351659</v>
       </c>
       <c r="AC9">
-        <v>219.3291783435166</v>
+        <v>219.32917834351659</v>
       </c>
     </row>
-    <row r="10" spans="1:29">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1276,40 +1345,40 @@
         <v>28</v>
       </c>
       <c r="E10">
-        <v>0.011</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="F10">
-        <v>1.896</v>
+        <v>1.8959999999999999</v>
       </c>
       <c r="G10">
         <v>53.945</v>
       </c>
       <c r="H10">
-        <v>3.635</v>
+        <v>3.6349999999999998</v>
       </c>
       <c r="I10">
-        <v>348.9490548877516</v>
+        <v>348.94905488775157</v>
       </c>
       <c r="J10">
-        <v>348.9490548877516</v>
+        <v>348.94905488775157</v>
       </c>
       <c r="K10">
-        <v>158.4032291157486</v>
+        <v>158.40322911574859</v>
       </c>
       <c r="L10">
-        <v>158.4032291157486</v>
+        <v>158.40322911574859</v>
       </c>
       <c r="M10">
-        <v>379.8185465321052</v>
+        <v>379.81854653210519</v>
       </c>
       <c r="N10">
-        <v>379.8185465321052</v>
+        <v>379.81854653210519</v>
       </c>
       <c r="O10">
-        <v>865.8901429654488</v>
+        <v>865.89014296544883</v>
       </c>
       <c r="P10">
-        <v>865.8901429654488</v>
+        <v>865.89014296544883</v>
       </c>
       <c r="Q10">
         <v>313.9271441618522</v>
@@ -1318,22 +1387,22 @@
         <v>313.9271441618522</v>
       </c>
       <c r="S10">
-        <v>210.6767462868312</v>
+        <v>210.67674628683119</v>
       </c>
       <c r="T10">
-        <v>69.26262711794797</v>
+        <v>69.262627117947972</v>
       </c>
       <c r="U10">
-        <v>348.9490548877516</v>
+        <v>348.94905488775157</v>
       </c>
       <c r="V10">
-        <v>204.0572691060436</v>
+        <v>204.05726910604361</v>
       </c>
       <c r="W10">
-        <v>290.7598143011406</v>
+        <v>290.75981430114058</v>
       </c>
       <c r="X10">
-        <v>348.9490548877516</v>
+        <v>348.94905488775157</v>
       </c>
       <c r="Y10">
         <v>144.0950902259122</v>
@@ -1342,7 +1411,7 @@
         <v>144.0950902259122</v>
       </c>
       <c r="AA10">
-        <v>79.46864249140815</v>
+        <v>79.468642491408147</v>
       </c>
       <c r="AB10">
         <v>144.6378293092624</v>
@@ -1351,7 +1420,7 @@
         <v>144.6378293092624</v>
       </c>
     </row>
-    <row r="11" spans="1:29">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1371,76 +1440,76 @@
         <v>2.895</v>
       </c>
       <c r="G11">
-        <v>115.463</v>
+        <v>115.46299999999999</v>
       </c>
       <c r="H11">
         <v>11.478</v>
       </c>
       <c r="I11">
-        <v>352.66714601052</v>
+        <v>352.66714601052001</v>
       </c>
       <c r="J11">
-        <v>352.66714601052</v>
+        <v>352.66714601052001</v>
       </c>
       <c r="K11">
-        <v>207.3079437948274</v>
+        <v>207.30794379482739</v>
       </c>
       <c r="L11">
-        <v>207.3079437948274</v>
+        <v>207.30794379482739</v>
       </c>
       <c r="M11">
-        <v>320.3015846249152</v>
+        <v>320.30158462491522</v>
       </c>
       <c r="N11">
-        <v>320.3015846249152</v>
+        <v>320.30158462491522</v>
       </c>
       <c r="O11">
-        <v>850.3793508049403</v>
+        <v>850.37935080494026</v>
       </c>
       <c r="P11">
-        <v>850.3793508049403</v>
+        <v>850.37935080494026</v>
       </c>
       <c r="Q11">
-        <v>385.0699487926494</v>
+        <v>385.06994879264943</v>
       </c>
       <c r="R11">
-        <v>385.0699487926494</v>
+        <v>385.06994879264943</v>
       </c>
       <c r="S11">
-        <v>250.9567863581995</v>
+        <v>250.95678635819951</v>
       </c>
       <c r="T11">
         <v>104.3366179151561</v>
       </c>
       <c r="U11">
-        <v>352.66714601052</v>
+        <v>352.66714601052001</v>
       </c>
       <c r="V11">
         <v>204.1437899268673</v>
       </c>
       <c r="W11">
-        <v>285.6230820620835</v>
+        <v>285.62308206208348</v>
       </c>
       <c r="X11">
-        <v>352.66714601052</v>
+        <v>352.66714601052001</v>
       </c>
       <c r="Y11">
-        <v>153.7424464007298</v>
+        <v>153.74244640072979</v>
       </c>
       <c r="Z11">
-        <v>153.7424464007298</v>
+        <v>153.74244640072979</v>
       </c>
       <c r="AA11">
         <v>105.4900415098538</v>
       </c>
       <c r="AB11">
-        <v>196.0617431156519</v>
+        <v>196.06174311565189</v>
       </c>
       <c r="AC11">
-        <v>196.0617431156519</v>
+        <v>196.06174311565189</v>
       </c>
     </row>
-    <row r="12" spans="1:29">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1454,28 +1523,28 @@
         <v>28</v>
       </c>
       <c r="E12">
-        <v>0.073</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="F12">
-        <v>2.386</v>
+        <v>2.3860000000000001</v>
       </c>
       <c r="G12">
-        <v>92.31699999999999</v>
+        <v>92.316999999999993</v>
       </c>
       <c r="H12">
         <v>5.258</v>
       </c>
       <c r="I12">
-        <v>406.3871137343334</v>
+        <v>406.38711373433341</v>
       </c>
       <c r="J12">
-        <v>406.3871137343334</v>
+        <v>406.38711373433341</v>
       </c>
       <c r="K12">
-        <v>198.1105888226095</v>
+        <v>198.11058882260949</v>
       </c>
       <c r="L12">
-        <v>198.1105888226095</v>
+        <v>198.11058882260949</v>
       </c>
       <c r="M12">
         <v>243.8245556283305</v>
@@ -1484,52 +1553,52 @@
         <v>243.8245556283305</v>
       </c>
       <c r="O12">
-        <v>755.7313213602495</v>
+        <v>755.73132136024947</v>
       </c>
       <c r="P12">
-        <v>755.7313213602495</v>
+        <v>755.73132136024947</v>
       </c>
       <c r="Q12">
-        <v>378.8950966062437</v>
+        <v>378.89509660624373</v>
       </c>
       <c r="R12">
-        <v>378.8950966062437</v>
+        <v>378.89509660624373</v>
       </c>
       <c r="S12">
-        <v>342.3664192524001</v>
+        <v>342.36641925240008</v>
       </c>
       <c r="T12">
-        <v>91.51183890635509</v>
+        <v>91.511838906355095</v>
       </c>
       <c r="U12">
-        <v>406.3871137343334</v>
+        <v>406.38711373433341</v>
       </c>
       <c r="V12">
-        <v>165.2276375359353</v>
+        <v>165.22763753593529</v>
       </c>
       <c r="W12">
         <v>340.4996181980261</v>
       </c>
       <c r="X12">
-        <v>406.3871137343334</v>
+        <v>406.38711373433341</v>
       </c>
       <c r="Y12">
-        <v>162.5403049245475</v>
+        <v>162.54030492454751</v>
       </c>
       <c r="Z12">
-        <v>162.5403049245475</v>
+        <v>162.54030492454751</v>
       </c>
       <c r="AA12">
-        <v>93.7827885911215</v>
+        <v>93.782788591121502</v>
       </c>
       <c r="AB12">
-        <v>201.7019383138551</v>
+        <v>201.70193831385509</v>
       </c>
       <c r="AC12">
-        <v>201.7019383138551</v>
+        <v>201.70193831385509</v>
       </c>
     </row>
-    <row r="13" spans="1:29">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1543,7 +1612,7 @@
         <v>28</v>
       </c>
       <c r="E13">
-        <v>0.034</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="F13">
         <v>1.758</v>
@@ -1552,73 +1621,73 @@
         <v>45.42</v>
       </c>
       <c r="H13">
-        <v>3.635</v>
+        <v>3.6349999999999998</v>
       </c>
       <c r="I13">
-        <v>419.6878758284478</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>419.6878758284478</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>191.1434491435968</v>
+        <v>42.804149098549111</v>
       </c>
       <c r="L13">
-        <v>191.1434491435968</v>
+        <v>42.804149098549111</v>
       </c>
       <c r="M13">
-        <v>280.0395971625849</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>280.0395971625849</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>927.5098618283988</v>
+        <v>250.05394995637329</v>
       </c>
       <c r="P13">
-        <v>927.5098618283988</v>
+        <v>250.05394995637329</v>
       </c>
       <c r="Q13">
-        <v>403.0293582734224</v>
+        <v>238.09229151945249</v>
       </c>
       <c r="R13">
-        <v>403.0293582734224</v>
+        <v>238.09229151945249</v>
       </c>
       <c r="S13">
-        <v>389.9819169381847</v>
+        <v>0</v>
       </c>
       <c r="T13">
-        <v>84.95674056000655</v>
+        <v>16.193052991249449</v>
       </c>
       <c r="U13">
-        <v>419.6878758284478</v>
+        <v>0</v>
       </c>
       <c r="V13">
-        <v>179.3551388604782</v>
+        <v>0</v>
       </c>
       <c r="W13">
-        <v>351.9959365544138</v>
+        <v>0</v>
       </c>
       <c r="X13">
-        <v>419.6878758284478</v>
+        <v>0</v>
       </c>
       <c r="Y13">
-        <v>170.7411807452721</v>
+        <v>0</v>
       </c>
       <c r="Z13">
-        <v>170.7411807452721</v>
+        <v>0</v>
       </c>
       <c r="AA13">
-        <v>104.4022127466987</v>
+        <v>32.115397993711099</v>
       </c>
       <c r="AB13">
-        <v>217.576301924229</v>
+        <v>72.32335163358232</v>
       </c>
       <c r="AC13">
-        <v>217.576301924229</v>
+        <v>72.32335163358232</v>
       </c>
     </row>
-    <row r="14" spans="1:29">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1632,82 +1701,82 @@
         <v>28</v>
       </c>
       <c r="E14">
-        <v>0.028</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="F14">
-        <v>1.896</v>
+        <v>1.8959999999999999</v>
       </c>
       <c r="G14">
-        <v>78.658</v>
+        <v>78.658000000000001</v>
       </c>
       <c r="H14">
         <v>1.472</v>
       </c>
       <c r="I14">
-        <v>356.8186246983963</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>356.8186246983963</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>168.9784336449413</v>
+        <v>169.57065392139961</v>
       </c>
       <c r="L14">
-        <v>168.9784336449413</v>
+        <v>169.57065392139961</v>
       </c>
       <c r="M14">
-        <v>217.7759848186398</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>217.7759848186398</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>567.0098180076897</v>
+        <v>1195.8905633425329</v>
       </c>
       <c r="P14">
-        <v>567.0098180076897</v>
+        <v>1195.8905633425329</v>
       </c>
       <c r="Q14">
-        <v>318.8346180485889</v>
+        <v>645.84389602357339</v>
       </c>
       <c r="R14">
-        <v>318.8346180485889</v>
+        <v>645.84389602357339</v>
       </c>
       <c r="S14">
-        <v>272.2675564473594</v>
+        <v>0</v>
       </c>
       <c r="T14">
-        <v>74.56111376709134</v>
+        <v>44.216181629842261</v>
       </c>
       <c r="U14">
-        <v>356.8186246983963</v>
+        <v>0</v>
       </c>
       <c r="V14">
-        <v>150.2242104410217</v>
+        <v>0</v>
       </c>
       <c r="W14">
-        <v>293.9980334199247</v>
+        <v>0</v>
       </c>
       <c r="X14">
-        <v>356.8186246983963</v>
+        <v>0</v>
       </c>
       <c r="Y14">
-        <v>157.9746459425843</v>
+        <v>0</v>
       </c>
       <c r="Z14">
-        <v>157.9746459425843</v>
+        <v>0</v>
       </c>
       <c r="AA14">
-        <v>82.31093464848509</v>
+        <v>77.705538034138044</v>
       </c>
       <c r="AB14">
-        <v>166.9159939450557</v>
+        <v>239.0292035580288</v>
       </c>
       <c r="AC14">
-        <v>166.9159939450557</v>
+        <v>239.0292035580288</v>
       </c>
     </row>
-    <row r="15" spans="1:29">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1721,82 +1790,82 @@
         <v>28</v>
       </c>
       <c r="E15">
-        <v>0.006</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F15">
-        <v>2.826</v>
+        <v>2.8260000000000001</v>
       </c>
       <c r="G15">
         <v>150.791</v>
       </c>
       <c r="H15">
-        <v>3.365</v>
+        <v>3.3650000000000002</v>
       </c>
       <c r="I15">
-        <v>388.1756660349544</v>
+        <v>388.17566603495442</v>
       </c>
       <c r="J15">
-        <v>388.1756660349544</v>
+        <v>388.17566603495442</v>
       </c>
       <c r="K15">
-        <v>175.3294507395862</v>
+        <v>175.32945073958621</v>
       </c>
       <c r="L15">
-        <v>175.3294507395862</v>
+        <v>175.32945073958621</v>
       </c>
       <c r="M15">
-        <v>222.1099697199025</v>
+        <v>222.10996971990249</v>
       </c>
       <c r="N15">
-        <v>222.1099697199025</v>
+        <v>222.10996971990249</v>
       </c>
       <c r="O15">
-        <v>633.2459343380806</v>
+        <v>633.24593433808059</v>
       </c>
       <c r="P15">
-        <v>633.2459343380806</v>
+        <v>633.24593433808059</v>
       </c>
       <c r="Q15">
-        <v>321.1163105448637</v>
+        <v>321.11631054486372</v>
       </c>
       <c r="R15">
-        <v>321.1163105448637</v>
+        <v>321.11631054486372</v>
       </c>
       <c r="S15">
-        <v>273.0079411069788</v>
+        <v>273.00794110697882</v>
       </c>
       <c r="T15">
-        <v>83.33804701472104</v>
+        <v>83.338047014721042</v>
       </c>
       <c r="U15">
-        <v>388.1756660349544</v>
+        <v>388.17566603495442</v>
       </c>
       <c r="V15">
-        <v>156.1326041136735</v>
+        <v>156.13260411367349</v>
       </c>
       <c r="W15">
-        <v>322.4917861734398</v>
+        <v>322.49178617343978</v>
       </c>
       <c r="X15">
-        <v>388.1756660349544</v>
+        <v>388.17566603495442</v>
       </c>
       <c r="Y15">
-        <v>160.2674367874658</v>
+        <v>160.26743678746581</v>
       </c>
       <c r="Z15">
-        <v>160.2674367874658</v>
+        <v>160.26743678746581</v>
       </c>
       <c r="AA15">
-        <v>88.5536951200512</v>
+        <v>88.553695120051202</v>
       </c>
       <c r="AB15">
-        <v>175.5646082424034</v>
+        <v>175.56460824240341</v>
       </c>
       <c r="AC15">
-        <v>175.5646082424034</v>
+        <v>175.56460824240341</v>
       </c>
     </row>
-    <row r="16" spans="1:29">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1813,31 +1882,31 @@
         <v>0.151</v>
       </c>
       <c r="F16">
-        <v>1.191</v>
+        <v>1.1910000000000001</v>
       </c>
       <c r="G16">
         <v>127.333</v>
       </c>
       <c r="H16">
-        <v>3.906</v>
+        <v>3.9060000000000001</v>
       </c>
       <c r="I16">
-        <v>430.4043750204631</v>
+        <v>430.40437502046308</v>
       </c>
       <c r="J16">
-        <v>430.4043750204631</v>
+        <v>430.40437502046308</v>
       </c>
       <c r="K16">
-        <v>206.9390263553151</v>
+        <v>206.93902635531509</v>
       </c>
       <c r="L16">
-        <v>206.9390263553151</v>
+        <v>206.93902635531509</v>
       </c>
       <c r="M16">
-        <v>252.5395653301624</v>
+        <v>252.53956533016239</v>
       </c>
       <c r="N16">
-        <v>252.5395653301624</v>
+        <v>252.53956533016239</v>
       </c>
       <c r="O16">
         <v>818.7869358525279</v>
@@ -1846,46 +1915,46 @@
         <v>818.7869358525279</v>
       </c>
       <c r="Q16">
-        <v>370.8354829394133</v>
+        <v>370.83548293941328</v>
       </c>
       <c r="R16">
-        <v>370.8354829394133</v>
+        <v>370.83548293941328</v>
       </c>
       <c r="S16">
-        <v>293.9358154526319</v>
+        <v>293.93581545263191</v>
       </c>
       <c r="T16">
-        <v>84.1361412027553</v>
+        <v>84.136141202755297</v>
       </c>
       <c r="U16">
-        <v>430.4043750204631</v>
+        <v>430.40437502046308</v>
       </c>
       <c r="V16">
         <v>168.5077864833857</v>
       </c>
       <c r="W16">
-        <v>360.2012071778519</v>
+        <v>360.20120717785193</v>
       </c>
       <c r="X16">
-        <v>430.4043750204631</v>
+        <v>430.40437502046308</v>
       </c>
       <c r="Y16">
-        <v>170.5751718266715</v>
+        <v>170.57517182667149</v>
       </c>
       <c r="Z16">
-        <v>170.5751718266715</v>
+        <v>170.57517182667149</v>
       </c>
       <c r="AA16">
-        <v>99.44216846629672</v>
+        <v>99.442168466296721</v>
       </c>
       <c r="AB16">
-        <v>197.9356316625648</v>
+        <v>197.93563166256479</v>
       </c>
       <c r="AC16">
-        <v>197.9356316625648</v>
+        <v>197.93563166256479</v>
       </c>
     </row>
-    <row r="17" spans="1:29">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1902,61 +1971,61 @@
         <v>0.123</v>
       </c>
       <c r="F17">
-        <v>2.217</v>
+        <v>2.2170000000000001</v>
       </c>
       <c r="G17">
-        <v>330.343</v>
+        <v>330.34300000000002</v>
       </c>
       <c r="H17">
-        <v>7.421</v>
+        <v>7.4210000000000003</v>
       </c>
       <c r="I17">
-        <v>425.1576906638763</v>
+        <v>425.15769066387628</v>
       </c>
       <c r="J17">
-        <v>425.1576906638763</v>
+        <v>425.15769066387628</v>
       </c>
       <c r="K17">
-        <v>199.1082881154339</v>
+        <v>199.10828811543391</v>
       </c>
       <c r="L17">
-        <v>199.1082881154339</v>
+        <v>199.10828811543391</v>
       </c>
       <c r="M17">
-        <v>250.8213717757749</v>
+        <v>250.82137177577491</v>
       </c>
       <c r="N17">
-        <v>250.8213717757749</v>
+        <v>250.82137177577491</v>
       </c>
       <c r="O17">
-        <v>683.6410483102591</v>
+        <v>683.64104831025907</v>
       </c>
       <c r="P17">
-        <v>683.6410483102591</v>
+        <v>683.64104831025907</v>
       </c>
       <c r="Q17">
-        <v>375.4873230743028</v>
+        <v>375.48732307430282</v>
       </c>
       <c r="R17">
-        <v>375.4873230743028</v>
+        <v>375.48732307430282</v>
       </c>
       <c r="S17">
         <v>323.2797541200265</v>
       </c>
       <c r="T17">
-        <v>84.29324258781369</v>
+        <v>84.293242587813694</v>
       </c>
       <c r="U17">
-        <v>425.1576906638763</v>
+        <v>425.15769066387628</v>
       </c>
       <c r="V17">
         <v>170.8425574241586</v>
       </c>
       <c r="W17">
-        <v>350.2049757587133</v>
+        <v>350.20497575871332</v>
       </c>
       <c r="X17">
-        <v>425.1576906638763</v>
+        <v>425.15769066387628</v>
       </c>
       <c r="Y17">
         <v>166.0171611356235</v>
@@ -1965,7 +2034,7 @@
         <v>166.0171611356235</v>
       </c>
       <c r="AA17">
-        <v>97.50140315173491</v>
+        <v>97.501403151734905</v>
       </c>
       <c r="AB17">
         <v>201.1780048073426</v>
@@ -1974,7 +2043,7 @@
         <v>201.1780048073426</v>
       </c>
     </row>
-    <row r="18" spans="1:29">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1988,82 +2057,82 @@
         <v>28</v>
       </c>
       <c r="E18">
-        <v>0.062</v>
+        <v>6.2E-2</v>
       </c>
       <c r="F18">
         <v>1.915</v>
       </c>
       <c r="G18">
-        <v>273.383</v>
+        <v>273.38299999999998</v>
       </c>
       <c r="H18">
         <v>6.069</v>
       </c>
       <c r="I18">
-        <v>397.6955811277902</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>397.6955811277902</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>191.5948277413793</v>
+        <v>163.57668174391549</v>
       </c>
       <c r="L18">
-        <v>191.5948277413793</v>
+        <v>163.57668174391549</v>
       </c>
       <c r="M18">
-        <v>229.9705726560667</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>229.9705726560667</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>762.9204931940673</v>
+        <v>346.43673601640762</v>
       </c>
       <c r="P18">
-        <v>762.9204931940673</v>
+        <v>346.43673601640762</v>
       </c>
       <c r="Q18">
-        <v>373.5761777117808</v>
+        <v>448.85306112736072</v>
       </c>
       <c r="R18">
-        <v>373.5761777117808</v>
+        <v>448.85306112736072</v>
       </c>
       <c r="S18">
-        <v>330.3660437137241</v>
+        <v>0</v>
       </c>
       <c r="T18">
-        <v>82.23012314863104</v>
+        <v>46.491096697245148</v>
       </c>
       <c r="U18">
-        <v>397.6955811277902</v>
+        <v>0</v>
       </c>
       <c r="V18">
-        <v>154.4873475092573</v>
+        <v>0</v>
       </c>
       <c r="W18">
-        <v>335.538597852992</v>
+        <v>0</v>
       </c>
       <c r="X18">
-        <v>397.6955811277902</v>
+        <v>0</v>
       </c>
       <c r="Y18">
-        <v>160.4831205515079</v>
+        <v>0</v>
       </c>
       <c r="Z18">
-        <v>160.4831205515079</v>
+        <v>0</v>
       </c>
       <c r="AA18">
-        <v>98.09934397781392</v>
+        <v>65.148326090970244</v>
       </c>
       <c r="AB18">
-        <v>206.9047616933942</v>
+        <v>159.54565367184151</v>
       </c>
       <c r="AC18">
-        <v>206.9047616933942</v>
+        <v>159.54565367184151</v>
       </c>
     </row>
-    <row r="19" spans="1:29">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2077,82 +2146,82 @@
         <v>28</v>
       </c>
       <c r="E19">
-        <v>0.174</v>
+        <v>0.17399999999999999</v>
       </c>
       <c r="F19">
         <v>2.129</v>
       </c>
       <c r="G19">
-        <v>74.57299999999999</v>
+        <v>74.572999999999993</v>
       </c>
       <c r="H19">
-        <v>1.477</v>
+        <v>1.4770000000000001</v>
       </c>
       <c r="I19">
-        <v>358.4235892651806</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>358.4235892651806</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>168.6049537183127</v>
+        <v>138.69710805979719</v>
       </c>
       <c r="L19">
-        <v>168.6049537183127</v>
+        <v>138.69710805979719</v>
       </c>
       <c r="M19">
-        <v>213.0006935361005</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>213.0006935361005</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>606.5253783729507</v>
+        <v>422.37712189270837</v>
       </c>
       <c r="P19">
-        <v>606.5253783729507</v>
+        <v>422.37712189270837</v>
       </c>
       <c r="Q19">
-        <v>306.4853854685213</v>
+        <v>409.21376440662362</v>
       </c>
       <c r="R19">
-        <v>306.4853854685213</v>
+        <v>409.21376440662362</v>
       </c>
       <c r="S19">
-        <v>238.5213136981797</v>
+        <v>0</v>
       </c>
       <c r="T19">
-        <v>70.21326446212979</v>
+        <v>41.950782141210958</v>
       </c>
       <c r="U19">
-        <v>358.4235892651806</v>
+        <v>0</v>
       </c>
       <c r="V19">
-        <v>153.2062520703935</v>
+        <v>0</v>
       </c>
       <c r="W19">
-        <v>308.7154300482262</v>
+        <v>0</v>
       </c>
       <c r="X19">
-        <v>358.4235892651806</v>
+        <v>0</v>
       </c>
       <c r="Y19">
-        <v>146.6602995514719</v>
+        <v>0</v>
       </c>
       <c r="Z19">
-        <v>146.6602995514719</v>
+        <v>0</v>
       </c>
       <c r="AA19">
-        <v>74.56102327265904</v>
+        <v>52.623296919511631</v>
       </c>
       <c r="AB19">
-        <v>157.6956914469495</v>
+        <v>129.89910533856221</v>
       </c>
       <c r="AC19">
-        <v>157.6956914469495</v>
+        <v>129.89910533856221</v>
       </c>
     </row>
-    <row r="20" spans="1:29">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2166,82 +2235,82 @@
         <v>28</v>
       </c>
       <c r="E20">
-        <v>0.08400000000000001</v>
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="F20">
         <v>1.859</v>
       </c>
       <c r="G20">
-        <v>55.275</v>
+        <v>55.274999999999999</v>
       </c>
       <c r="H20">
         <v>1.218</v>
       </c>
       <c r="I20">
-        <v>391.6380578908238</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>391.6380578908238</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>171.4555126597946</v>
+        <v>165.55447166673019</v>
       </c>
       <c r="L20">
-        <v>171.4555126597946</v>
+        <v>165.55447166673019</v>
       </c>
       <c r="M20">
-        <v>219.0824835442763</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>219.0824835442763</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>726.1892724883611</v>
+        <v>772.36461258272925</v>
       </c>
       <c r="P20">
-        <v>726.1892724883611</v>
+        <v>772.36461258272925</v>
       </c>
       <c r="Q20">
-        <v>323.2184863153136</v>
+        <v>566.49698206128471</v>
       </c>
       <c r="R20">
-        <v>323.2184863153136</v>
+        <v>566.49698206128471</v>
       </c>
       <c r="S20">
-        <v>298.932355186093</v>
+        <v>0</v>
       </c>
       <c r="T20">
-        <v>78.75224492520022</v>
+        <v>46.538090280596883</v>
       </c>
       <c r="U20">
-        <v>391.6380578908238</v>
+        <v>0</v>
       </c>
       <c r="V20">
-        <v>157.215576077877</v>
+        <v>0</v>
       </c>
       <c r="W20">
-        <v>327.924683769384</v>
+        <v>0</v>
       </c>
       <c r="X20">
-        <v>391.6380578908238</v>
+        <v>0</v>
       </c>
       <c r="Y20">
-        <v>150.6691044523228</v>
+        <v>0</v>
       </c>
       <c r="Z20">
-        <v>150.6691044523228</v>
+        <v>0</v>
       </c>
       <c r="AA20">
-        <v>90.46454762454958</v>
+        <v>76.706986031216388</v>
       </c>
       <c r="AB20">
-        <v>179.3499706682152</v>
+        <v>212.53363889593791</v>
       </c>
       <c r="AC20">
-        <v>179.3499706682152</v>
+        <v>212.53363889593791</v>
       </c>
     </row>
-    <row r="21" spans="1:29">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2255,82 +2324,82 @@
         <v>28</v>
       </c>
       <c r="E21">
-        <v>0.022</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="F21">
         <v>1.903</v>
       </c>
       <c r="G21">
-        <v>174.719</v>
+        <v>174.71899999999999</v>
       </c>
       <c r="H21">
         <v>3.03</v>
       </c>
       <c r="I21">
-        <v>457.4334695814226</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>457.4334695814226</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>200.9671157162094</v>
+        <v>200.41227792316931</v>
       </c>
       <c r="L21">
-        <v>200.9671157162094</v>
+        <v>200.41227792316931</v>
       </c>
       <c r="M21">
-        <v>249.2408077635399</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>249.2408077635399</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>767.2857375423621</v>
+        <v>1237.6251504791651</v>
       </c>
       <c r="P21">
-        <v>767.2857375423621</v>
+        <v>1237.6251504791651</v>
       </c>
       <c r="Q21">
-        <v>432.5896962816723</v>
+        <v>694.11564140846758</v>
       </c>
       <c r="R21">
-        <v>432.5896962816723</v>
+        <v>694.11564140846758</v>
       </c>
       <c r="S21">
-        <v>390.467627902382</v>
+        <v>0</v>
       </c>
       <c r="T21">
-        <v>94.42288933751939</v>
+        <v>55.368009998348363</v>
       </c>
       <c r="U21">
-        <v>457.4334695814226</v>
+        <v>0</v>
       </c>
       <c r="V21">
-        <v>171.2659544743688</v>
+        <v>0</v>
       </c>
       <c r="W21">
-        <v>371.4087552412564</v>
+        <v>0</v>
       </c>
       <c r="X21">
-        <v>457.4334695814226</v>
+        <v>0</v>
       </c>
       <c r="Y21">
-        <v>179.7388362860749</v>
+        <v>0</v>
       </c>
       <c r="Z21">
-        <v>179.7388362860749</v>
+        <v>0</v>
       </c>
       <c r="AA21">
-        <v>107.3356822044891</v>
+        <v>95.065723144543554</v>
       </c>
       <c r="AB21">
-        <v>232.9185382796342</v>
+        <v>278.79822394948451</v>
       </c>
       <c r="AC21">
-        <v>232.9185382796342</v>
+        <v>278.79822394948451</v>
       </c>
     </row>
-    <row r="22" spans="1:29">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2344,82 +2413,82 @@
         <v>28</v>
       </c>
       <c r="E22">
-        <v>0.028</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="F22">
-        <v>2.543</v>
+        <v>2.5430000000000001</v>
       </c>
       <c r="G22">
-        <v>135.343</v>
+        <v>135.34299999999999</v>
       </c>
       <c r="H22">
-        <v>2.253</v>
+        <v>2.2530000000000001</v>
       </c>
       <c r="I22">
-        <v>440.3701649522301</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>440.3701649522301</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>187.6191066077577</v>
+        <v>242.78178162824321</v>
       </c>
       <c r="L22">
-        <v>187.6191066077577</v>
+        <v>242.78178162824321</v>
       </c>
       <c r="M22">
-        <v>242.9783155144075</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>242.9783155144075</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>723.2616464853789</v>
+        <v>1057.7179318187891</v>
       </c>
       <c r="P22">
-        <v>723.2616464853789</v>
+        <v>1057.7179318187891</v>
       </c>
       <c r="Q22">
-        <v>397.3907905949467</v>
+        <v>706.7805379716275</v>
       </c>
       <c r="R22">
-        <v>397.3907905949467</v>
+        <v>706.7805379716275</v>
       </c>
       <c r="S22">
-        <v>366.3837294340339</v>
+        <v>0</v>
       </c>
       <c r="T22">
-        <v>84.12923663711027</v>
+        <v>71.567543333402682</v>
       </c>
       <c r="U22">
-        <v>440.3701649522301</v>
+        <v>0</v>
       </c>
       <c r="V22">
-        <v>163.1415497316492</v>
+        <v>0</v>
       </c>
       <c r="W22">
-        <v>371.142523591601</v>
+        <v>0</v>
       </c>
       <c r="X22">
-        <v>440.3701649522301</v>
+        <v>0</v>
       </c>
       <c r="Y22">
-        <v>177.8231716135443</v>
+        <v>0</v>
       </c>
       <c r="Z22">
-        <v>177.8231716135443</v>
+        <v>0</v>
       </c>
       <c r="AA22">
-        <v>99.29883417070796</v>
+        <v>82.888900099272391</v>
       </c>
       <c r="AB22">
-        <v>227.650949575935</v>
+        <v>287.97328870462422</v>
       </c>
       <c r="AC22">
-        <v>227.650949575935</v>
+        <v>287.97328870462422</v>
       </c>
     </row>
-    <row r="23" spans="1:29">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2433,10 +2502,10 @@
         <v>28</v>
       </c>
       <c r="E23">
-        <v>0.022</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="F23">
-        <v>2.474</v>
+        <v>2.4740000000000002</v>
       </c>
       <c r="G23">
         <v>78.53</v>
@@ -2445,52 +2514,52 @@
         <v>1.218</v>
       </c>
       <c r="I23">
-        <v>463.8966569277516</v>
+        <v>463.89665692775162</v>
       </c>
       <c r="J23">
-        <v>463.8966569277516</v>
+        <v>463.89665692775162</v>
       </c>
       <c r="K23">
-        <v>185.4522037145047</v>
+        <v>185.45220371450469</v>
       </c>
       <c r="L23">
-        <v>185.4522037145047</v>
+        <v>185.45220371450469</v>
       </c>
       <c r="M23">
-        <v>264.3796522079663</v>
+        <v>264.37965220796627</v>
       </c>
       <c r="N23">
-        <v>264.3796522079663</v>
+        <v>264.37965220796627</v>
       </c>
       <c r="O23">
-        <v>796.4861590005881</v>
+        <v>796.48615900058815</v>
       </c>
       <c r="P23">
-        <v>796.4861590005881</v>
+        <v>796.48615900058815</v>
       </c>
       <c r="Q23">
-        <v>381.6946942915199</v>
+        <v>381.69469429151991</v>
       </c>
       <c r="R23">
-        <v>381.6946942915199</v>
+        <v>381.69469429151991</v>
       </c>
       <c r="S23">
-        <v>359.6385805640297</v>
+        <v>359.63858056402972</v>
       </c>
       <c r="T23">
-        <v>92.15267352057255</v>
+        <v>92.152673520572549</v>
       </c>
       <c r="U23">
-        <v>463.8966569277516</v>
+        <v>463.89665692775162</v>
       </c>
       <c r="V23">
-        <v>175.4261202441849</v>
+        <v>175.42612024418489</v>
       </c>
       <c r="W23">
-        <v>387.1875389061718</v>
+        <v>387.18753890617182</v>
       </c>
       <c r="X23">
-        <v>463.8966569277516</v>
+        <v>463.89665692775162</v>
       </c>
       <c r="Y23">
         <v>183.4890175712807</v>
@@ -2499,16 +2568,16 @@
         <v>183.4890175712807</v>
       </c>
       <c r="AA23">
-        <v>88.52738904057387</v>
+        <v>88.527389040573865</v>
       </c>
       <c r="AB23">
-        <v>200.0912784538363</v>
+        <v>200.09127845383631</v>
       </c>
       <c r="AC23">
-        <v>200.0912784538363</v>
+        <v>200.09127845383631</v>
       </c>
     </row>
-    <row r="24" spans="1:29">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2522,22 +2591,22 @@
         <v>28</v>
       </c>
       <c r="E24">
-        <v>0.179</v>
+        <v>0.17899999999999999</v>
       </c>
       <c r="F24">
-        <v>2.461</v>
+        <v>2.4609999999999999</v>
       </c>
       <c r="G24">
         <v>141.631</v>
       </c>
       <c r="H24">
-        <v>1.477</v>
+        <v>1.4770000000000001</v>
       </c>
       <c r="I24">
-        <v>379.092055734666</v>
+        <v>379.09205573466602</v>
       </c>
       <c r="J24">
-        <v>379.092055734666</v>
+        <v>379.09205573466602</v>
       </c>
       <c r="K24">
         <v>154.0552506319768</v>
@@ -2546,16 +2615,16 @@
         <v>154.0552506319768</v>
       </c>
       <c r="M24">
-        <v>253.0706720338218</v>
+        <v>253.07067203382181</v>
       </c>
       <c r="N24">
-        <v>253.0706720338218</v>
+        <v>253.07067203382181</v>
       </c>
       <c r="O24">
-        <v>677.3377954226851</v>
+        <v>677.33779542268508</v>
       </c>
       <c r="P24">
-        <v>677.3377954226851</v>
+        <v>677.33779542268508</v>
       </c>
       <c r="Q24">
         <v>278.6562907667327</v>
@@ -2567,19 +2636,19 @@
         <v>239.6154238236976</v>
       </c>
       <c r="T24">
-        <v>74.54339708942952</v>
+        <v>74.543397089429519</v>
       </c>
       <c r="U24">
-        <v>379.092055734666</v>
+        <v>379.09205573466602</v>
       </c>
       <c r="V24">
-        <v>153.9363239849185</v>
+        <v>153.93632398491849</v>
       </c>
       <c r="W24">
-        <v>320.9378916447454</v>
+        <v>320.93789164474538</v>
       </c>
       <c r="X24">
-        <v>379.092055734666</v>
+        <v>379.09205573466602</v>
       </c>
       <c r="Y24">
         <v>162.205526285959</v>
@@ -2588,16 +2657,16 @@
         <v>162.205526285959</v>
       </c>
       <c r="AA24">
-        <v>82.8038153189683</v>
+        <v>82.803815318968304</v>
       </c>
       <c r="AB24">
-        <v>157.6068387898883</v>
+        <v>157.60683878988829</v>
       </c>
       <c r="AC24">
-        <v>157.6068387898883</v>
+        <v>157.60683878988829</v>
       </c>
     </row>
-    <row r="25" spans="1:29">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2611,82 +2680,82 @@
         <v>28</v>
       </c>
       <c r="E25">
-        <v>0.095</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="F25">
-        <v>1.275</v>
+        <v>1.2749999999999999</v>
       </c>
       <c r="G25">
-        <v>81.97499999999999</v>
+        <v>81.974999999999994</v>
       </c>
       <c r="H25">
-        <v>0.959</v>
+        <v>0.95899999999999996</v>
       </c>
       <c r="I25">
-        <v>400.7752662993873</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>400.7752662993873</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>167.2537085197177</v>
+        <v>167.3051705854152</v>
       </c>
       <c r="L25">
-        <v>167.2537085197177</v>
+        <v>167.3051705854152</v>
       </c>
       <c r="M25">
-        <v>266.1529465494568</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>266.1529465494568</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>768.7031004349438</v>
+        <v>1091.733098708622</v>
       </c>
       <c r="P25">
-        <v>768.7031004349438</v>
+        <v>1091.733098708622</v>
       </c>
       <c r="Q25">
-        <v>345.6697890192992</v>
+        <v>612.57661803267149</v>
       </c>
       <c r="R25">
-        <v>345.6697890192992</v>
+        <v>612.57661803267149</v>
       </c>
       <c r="S25">
-        <v>307.0416837560907</v>
+        <v>0</v>
       </c>
       <c r="T25">
-        <v>72.07196590280357</v>
+        <v>46.041044432270972</v>
       </c>
       <c r="U25">
-        <v>400.7752662993873</v>
+        <v>0</v>
       </c>
       <c r="V25">
-        <v>166.3464070321473</v>
+        <v>0</v>
       </c>
       <c r="W25">
-        <v>338.966665549103</v>
+        <v>0</v>
       </c>
       <c r="X25">
-        <v>400.7752662993873</v>
+        <v>0</v>
       </c>
       <c r="Y25">
-        <v>161.0054980524659</v>
+        <v>0</v>
       </c>
       <c r="Z25">
-        <v>161.0054980524659</v>
+        <v>0</v>
       </c>
       <c r="AA25">
-        <v>81.52127556133944</v>
+        <v>83.48738887424247</v>
       </c>
       <c r="AB25">
-        <v>175.7153419079735</v>
+        <v>208.98143646419979</v>
       </c>
       <c r="AC25">
-        <v>175.7153419079735</v>
+        <v>208.98143646419979</v>
       </c>
     </row>
-    <row r="26" spans="1:29">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2703,61 +2772,61 @@
         <v>0.123</v>
       </c>
       <c r="F26">
-        <v>2.857</v>
+        <v>2.8570000000000002</v>
       </c>
       <c r="G26">
-        <v>137.427</v>
+        <v>137.42699999999999</v>
       </c>
       <c r="H26">
-        <v>2.253</v>
+        <v>2.2530000000000001</v>
       </c>
       <c r="I26">
-        <v>414.7077948697605</v>
+        <v>414.70779486976051</v>
       </c>
       <c r="J26">
-        <v>414.7077948697605</v>
+        <v>414.70779486976051</v>
       </c>
       <c r="K26">
-        <v>190.2219648494978</v>
+        <v>190.22196484949779</v>
       </c>
       <c r="L26">
-        <v>190.2219648494978</v>
+        <v>190.22196484949779</v>
       </c>
       <c r="M26">
-        <v>266.3180916431249</v>
+        <v>266.31809164312489</v>
       </c>
       <c r="N26">
-        <v>266.3180916431249</v>
+        <v>266.31809164312489</v>
       </c>
       <c r="O26">
-        <v>946.7776632568691</v>
+        <v>946.77766325686912</v>
       </c>
       <c r="P26">
-        <v>946.7776632568691</v>
+        <v>946.77766325686912</v>
       </c>
       <c r="Q26">
-        <v>402.7668928616786</v>
+        <v>402.76689286167863</v>
       </c>
       <c r="R26">
-        <v>402.7668928616786</v>
+        <v>402.76689286167863</v>
       </c>
       <c r="S26">
         <v>323.9985951652742</v>
       </c>
       <c r="T26">
-        <v>92.44540766550134</v>
+        <v>92.445407665501335</v>
       </c>
       <c r="U26">
-        <v>414.7077948697605</v>
+        <v>414.70779486976051</v>
       </c>
       <c r="V26">
         <v>240.4772815842278</v>
       </c>
       <c r="W26">
-        <v>338.7837356076287</v>
+        <v>338.78373560762873</v>
       </c>
       <c r="X26">
-        <v>414.7077948697605</v>
+        <v>414.70779486976051</v>
       </c>
       <c r="Y26">
         <v>168.0592162755338</v>
@@ -2766,16 +2835,16 @@
         <v>168.0592162755338</v>
       </c>
       <c r="AA26">
-        <v>91.1433598413857</v>
+        <v>91.143359841385703</v>
       </c>
       <c r="AB26">
-        <v>230.0671826557632</v>
+        <v>230.06718265576319</v>
       </c>
       <c r="AC26">
-        <v>230.0671826557632</v>
+        <v>230.06718265576319</v>
       </c>
     </row>
-    <row r="27" spans="1:29">
+    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2789,7 +2858,7 @@
         <v>28</v>
       </c>
       <c r="E27">
-        <v>0.062</v>
+        <v>6.2E-2</v>
       </c>
       <c r="F27">
         <v>1.250867900800001</v>
@@ -2801,70 +2870,70 @@
         <v>181.9392</v>
       </c>
       <c r="I27">
-        <v>370.6624708186055</v>
+        <v>0</v>
       </c>
       <c r="J27">
-        <v>370.6624708186055</v>
+        <v>0</v>
       </c>
       <c r="K27">
-        <v>203.0441951761325</v>
+        <v>234.80551452770521</v>
       </c>
       <c r="L27">
-        <v>203.0441951761325</v>
+        <v>234.80551452770521</v>
       </c>
       <c r="M27">
-        <v>202.1557914436748</v>
+        <v>0</v>
       </c>
       <c r="N27">
-        <v>202.1557914436748</v>
+        <v>0</v>
       </c>
       <c r="O27">
-        <v>669.817433410681</v>
+        <v>900.0102155288148</v>
       </c>
       <c r="P27">
-        <v>669.817433410681</v>
+        <v>900.0102155288148</v>
       </c>
       <c r="Q27">
-        <v>565.179464978239</v>
+        <v>889.96711699638911</v>
       </c>
       <c r="R27">
-        <v>565.179464978239</v>
+        <v>889.96711699638911</v>
       </c>
       <c r="S27">
-        <v>644.3546023853198</v>
+        <v>0</v>
       </c>
       <c r="T27">
-        <v>98.19261055805242</v>
+        <v>67.123703705443731</v>
       </c>
       <c r="U27">
-        <v>370.6624708186055</v>
+        <v>0</v>
       </c>
       <c r="V27">
-        <v>146.8438401847273</v>
+        <v>0</v>
       </c>
       <c r="W27">
-        <v>301.4848800612498</v>
+        <v>0</v>
       </c>
       <c r="X27">
-        <v>370.6624708186055</v>
+        <v>0</v>
       </c>
       <c r="Y27">
-        <v>151.8056643082518</v>
+        <v>0</v>
       </c>
       <c r="Z27">
-        <v>151.8056643082518</v>
+        <v>0</v>
       </c>
       <c r="AA27">
-        <v>123.6562535923631</v>
+        <v>117.6089916209387</v>
       </c>
       <c r="AB27">
-        <v>343.8037099824912</v>
+        <v>379.23403195293548</v>
       </c>
       <c r="AC27">
-        <v>343.8037099824912</v>
+        <v>379.23403195293548</v>
       </c>
     </row>
-    <row r="28" spans="1:29">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -2881,19 +2950,19 @@
         <v>0.06</v>
       </c>
       <c r="F28">
-        <v>1.217950021119999</v>
+        <v>1.2179500211199989</v>
       </c>
       <c r="G28">
-        <v>66.03753</v>
+        <v>66.037530000000004</v>
       </c>
       <c r="H28">
-        <v>70.25920000000001</v>
+        <v>70.259200000000007</v>
       </c>
       <c r="I28">
-        <v>337.9360370248222</v>
+        <v>337.93603702482221</v>
       </c>
       <c r="J28">
-        <v>337.9360370248222</v>
+        <v>337.93603702482221</v>
       </c>
       <c r="K28">
         <v>175.0178128093572</v>
@@ -2908,52 +2977,52 @@
         <v>235.2955718325062</v>
       </c>
       <c r="O28">
-        <v>520.1440634851656</v>
+        <v>520.14406348516559</v>
       </c>
       <c r="P28">
-        <v>520.1440634851656</v>
+        <v>520.14406348516559</v>
       </c>
       <c r="Q28">
-        <v>267.1576976289946</v>
+        <v>267.15769762899458</v>
       </c>
       <c r="R28">
-        <v>267.1576976289946</v>
+        <v>267.15769762899458</v>
       </c>
       <c r="S28">
-        <v>225.4715052188625</v>
+        <v>225.47150521886249</v>
       </c>
       <c r="T28">
-        <v>82.9035625040769</v>
+        <v>82.903562504076902</v>
       </c>
       <c r="U28">
-        <v>337.9360370248222</v>
+        <v>337.93603702482221</v>
       </c>
       <c r="V28">
         <v>147.7487163263508</v>
       </c>
       <c r="W28">
-        <v>286.5150680991983</v>
+        <v>286.51506809919829</v>
       </c>
       <c r="X28">
-        <v>337.9360370248222</v>
+        <v>337.93603702482221</v>
       </c>
       <c r="Y28">
-        <v>144.8208434338625</v>
+        <v>144.82084343386251</v>
       </c>
       <c r="Z28">
-        <v>144.8208434338625</v>
+        <v>144.82084343386251</v>
       </c>
       <c r="AA28">
-        <v>92.72472120295645</v>
+        <v>92.724721202956445</v>
       </c>
       <c r="AB28">
-        <v>162.0547469018701</v>
+        <v>162.05474690187009</v>
       </c>
       <c r="AC28">
-        <v>162.0547469018701</v>
+        <v>162.05474690187009</v>
       </c>
     </row>
-    <row r="29" spans="1:29">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -2967,82 +3036,82 @@
         <v>28</v>
       </c>
       <c r="E29">
-        <v>0.016</v>
+        <v>1.6E-2</v>
       </c>
       <c r="F29">
-        <v>0.3181946431999996</v>
+        <v>0.31819464319999963</v>
       </c>
       <c r="G29">
-        <v>31.70193</v>
+        <v>31.701930000000001</v>
       </c>
       <c r="H29">
-        <v>18.8864</v>
+        <v>18.886399999999998</v>
       </c>
       <c r="I29">
-        <v>435.8717808705419</v>
+        <v>0</v>
       </c>
       <c r="J29">
-        <v>435.8717808705419</v>
+        <v>0</v>
       </c>
       <c r="K29">
-        <v>189.0276648978276</v>
+        <v>230.74705977734379</v>
       </c>
       <c r="L29">
-        <v>189.0276648978276</v>
+        <v>230.74705977734379</v>
       </c>
       <c r="M29">
-        <v>261.0140105812062</v>
+        <v>0</v>
       </c>
       <c r="N29">
-        <v>261.0140105812062</v>
+        <v>0</v>
       </c>
       <c r="O29">
-        <v>655.6238802954234</v>
+        <v>1164.950952866101</v>
       </c>
       <c r="P29">
-        <v>655.6238802954234</v>
+        <v>1164.950952866101</v>
       </c>
       <c r="Q29">
-        <v>349.3784936180472</v>
+        <v>690.70841887384609</v>
       </c>
       <c r="R29">
-        <v>349.3784936180472</v>
+        <v>690.70841887384609</v>
       </c>
       <c r="S29">
-        <v>342.4483128247357</v>
+        <v>0</v>
       </c>
       <c r="T29">
-        <v>89.24676741868545</v>
+        <v>59.955238794955292</v>
       </c>
       <c r="U29">
-        <v>435.8717808705419</v>
+        <v>0</v>
       </c>
       <c r="V29">
-        <v>166.0335551902926</v>
+        <v>0</v>
       </c>
       <c r="W29">
-        <v>360.9182008478419</v>
+        <v>0</v>
       </c>
       <c r="X29">
-        <v>435.8717808705419</v>
+        <v>0</v>
       </c>
       <c r="Y29">
-        <v>165.1713336459098</v>
+        <v>0</v>
       </c>
       <c r="Z29">
-        <v>165.1713336459098</v>
+        <v>0</v>
       </c>
       <c r="AA29">
-        <v>101.713136682184</v>
+        <v>94.456231864094818</v>
       </c>
       <c r="AB29">
-        <v>203.1005065818227</v>
+        <v>258.63415541285087</v>
       </c>
       <c r="AC29">
-        <v>203.1005065818227</v>
+        <v>258.63415541285087</v>
       </c>
     </row>
-    <row r="30" spans="1:29">
+    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -3056,10 +3125,10 @@
         <v>28</v>
       </c>
       <c r="E30">
-        <v>0.026</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="F30">
-        <v>0.5102156079999992</v>
+        <v>0.51021560799999921</v>
       </c>
       <c r="G30">
         <v>28.68177</v>
@@ -3068,10 +3137,10 @@
         <v>11.0688</v>
       </c>
       <c r="I30">
-        <v>383.151885878653</v>
+        <v>383.15188587865299</v>
       </c>
       <c r="J30">
-        <v>383.151885878653</v>
+        <v>383.15188587865299</v>
       </c>
       <c r="K30">
         <v>195.3292715488063</v>
@@ -3080,40 +3149,40 @@
         <v>195.3292715488063</v>
       </c>
       <c r="M30">
-        <v>258.0767652725276</v>
+        <v>258.07676527252761</v>
       </c>
       <c r="N30">
-        <v>258.0767652725276</v>
+        <v>258.07676527252761</v>
       </c>
       <c r="O30">
-        <v>646.5186386342542</v>
+        <v>646.51863863425422</v>
       </c>
       <c r="P30">
-        <v>646.5186386342542</v>
+        <v>646.51863863425422</v>
       </c>
       <c r="Q30">
-        <v>336.9598870415759</v>
+        <v>336.95988704157588</v>
       </c>
       <c r="R30">
-        <v>340.0827254405456</v>
+        <v>340.08272544054557</v>
       </c>
       <c r="S30">
-        <v>377.97745208858</v>
+        <v>377.97745208857998</v>
       </c>
       <c r="T30">
-        <v>102.0907080152845</v>
+        <v>102.09070801528451</v>
       </c>
       <c r="U30">
-        <v>383.151885878653</v>
+        <v>383.15188587865299</v>
       </c>
       <c r="V30">
-        <v>167.2681504676872</v>
+        <v>167.26815046768721</v>
       </c>
       <c r="W30">
-        <v>320.1786497996432</v>
+        <v>320.17864979964321</v>
       </c>
       <c r="X30">
-        <v>383.151885878653</v>
+        <v>383.15188587865299</v>
       </c>
       <c r="Y30">
         <v>152.1755733935058</v>
@@ -3122,16 +3191,16 @@
         <v>152.1755733935058</v>
       </c>
       <c r="AA30">
-        <v>97.78354520302996</v>
+        <v>97.783545203029959</v>
       </c>
       <c r="AB30">
-        <v>206.3540355880637</v>
+        <v>206.35403558806371</v>
       </c>
       <c r="AC30">
-        <v>206.3540355880637</v>
+        <v>206.35403558806371</v>
       </c>
     </row>
-    <row r="31" spans="1:29">
+    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -3145,82 +3214,82 @@
         <v>28</v>
       </c>
       <c r="E31">
-        <v>0.056</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="F31">
-        <v>1.124682695360001</v>
+        <v>1.1246826953600011</v>
       </c>
       <c r="G31">
-        <v>121.25217</v>
+        <v>121.25217000000001</v>
       </c>
       <c r="H31">
-        <v>18.8864</v>
+        <v>18.886399999999998</v>
       </c>
       <c r="I31">
-        <v>437.1594534727267</v>
+        <v>0</v>
       </c>
       <c r="J31">
-        <v>437.1594534727267</v>
+        <v>0</v>
       </c>
       <c r="K31">
-        <v>224.1170028524456</v>
+        <v>107.8295869543698</v>
       </c>
       <c r="L31">
-        <v>224.1170028524456</v>
+        <v>107.8295869543698</v>
       </c>
       <c r="M31">
-        <v>237.2918836867595</v>
+        <v>0</v>
       </c>
       <c r="N31">
-        <v>237.2918836867595</v>
+        <v>0</v>
       </c>
       <c r="O31">
-        <v>710.6839254721508</v>
+        <v>615.07809534162686</v>
       </c>
       <c r="P31">
-        <v>710.6839254721508</v>
+        <v>615.07809534162686</v>
       </c>
       <c r="Q31">
-        <v>554.1003544631334</v>
+        <v>561.01074171224275</v>
       </c>
       <c r="R31">
-        <v>554.1003544631334</v>
+        <v>561.01074171224275</v>
       </c>
       <c r="S31">
-        <v>648.1302617944481</v>
+        <v>0</v>
       </c>
       <c r="T31">
-        <v>97.28538967929369</v>
+        <v>31.443632095647651</v>
       </c>
       <c r="U31">
-        <v>437.1594534727267</v>
+        <v>0</v>
       </c>
       <c r="V31">
-        <v>171.1074678235283</v>
+        <v>0</v>
       </c>
       <c r="W31">
-        <v>356.9241588519267</v>
+        <v>0</v>
       </c>
       <c r="X31">
-        <v>437.1594534727267</v>
+        <v>0</v>
       </c>
       <c r="Y31">
-        <v>164.0169039038651</v>
+        <v>0</v>
       </c>
       <c r="Z31">
-        <v>164.0169039038651</v>
+        <v>0</v>
       </c>
       <c r="AA31">
-        <v>118.9543885819857</v>
+        <v>71.576059152036848</v>
       </c>
       <c r="AB31">
-        <v>333.1761885184086</v>
+        <v>213.83432884208059</v>
       </c>
       <c r="AC31">
-        <v>333.1761885184086</v>
+        <v>213.83432884208059</v>
       </c>
     </row>
-    <row r="32" spans="1:29">
+    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -3237,79 +3306,79 @@
         <v>0.05</v>
       </c>
       <c r="F32">
-        <v>0.9930111766399998</v>
+        <v>0.99301117663999983</v>
       </c>
       <c r="G32">
-        <v>92.78567999999999</v>
+        <v>92.785679999999985</v>
       </c>
       <c r="H32">
         <v>20.0032</v>
       </c>
       <c r="I32">
-        <v>338.6936559506685</v>
+        <v>0</v>
       </c>
       <c r="J32">
-        <v>338.6936559506685</v>
+        <v>0</v>
       </c>
       <c r="K32">
-        <v>174.2351940614718</v>
+        <v>147.9009875413393</v>
       </c>
       <c r="L32">
-        <v>174.2351940614718</v>
+        <v>147.9009875413393</v>
       </c>
       <c r="M32">
-        <v>235.1888160346071</v>
+        <v>0</v>
       </c>
       <c r="N32">
-        <v>235.1888160346071</v>
+        <v>0</v>
       </c>
       <c r="O32">
-        <v>473.1471404252814</v>
+        <v>776.66902946659548</v>
       </c>
       <c r="P32">
-        <v>473.1471404252814</v>
+        <v>776.66902946659548</v>
       </c>
       <c r="Q32">
-        <v>392.4665929814528</v>
+        <v>580.51675386624606</v>
       </c>
       <c r="R32">
-        <v>392.4665929814528</v>
+        <v>580.51675386624606</v>
       </c>
       <c r="S32">
-        <v>478.1986026384891</v>
+        <v>0</v>
       </c>
       <c r="T32">
-        <v>78.58888346077894</v>
+        <v>32.057245819555447</v>
       </c>
       <c r="U32">
-        <v>338.6936559506685</v>
+        <v>0</v>
       </c>
       <c r="V32">
-        <v>159.0819486042514</v>
+        <v>0</v>
       </c>
       <c r="W32">
-        <v>279.4767469143138</v>
+        <v>0</v>
       </c>
       <c r="X32">
-        <v>338.6936559506685</v>
+        <v>0</v>
       </c>
       <c r="Y32">
-        <v>142.3387326220144</v>
+        <v>0</v>
       </c>
       <c r="Z32">
-        <v>142.3387326220144</v>
+        <v>0</v>
       </c>
       <c r="AA32">
-        <v>89.24832435009365</v>
+        <v>69.528373227609691</v>
       </c>
       <c r="AB32">
-        <v>234.5103789282097</v>
+        <v>229.38484293315199</v>
       </c>
       <c r="AC32">
-        <v>234.5103789282097</v>
+        <v>229.38484293315199</v>
       </c>
     </row>
-    <row r="33" spans="1:29">
+    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -3323,10 +3392,10 @@
         <v>28</v>
       </c>
       <c r="E33">
-        <v>0.018</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="F33">
-        <v>0.3511125228799994</v>
+        <v>0.35111252287999939</v>
       </c>
       <c r="G33">
         <v>44.93072999999999</v>
@@ -3347,25 +3416,25 @@
         <v>197.0907635732213</v>
       </c>
       <c r="M33">
-        <v>269.5561728632164</v>
+        <v>269.55617286321637</v>
       </c>
       <c r="N33">
-        <v>269.5561728632164</v>
+        <v>269.55617286321637</v>
       </c>
       <c r="O33">
-        <v>715.8410618585011</v>
+        <v>715.84106185850112</v>
       </c>
       <c r="P33">
-        <v>715.8410618585011</v>
+        <v>715.84106185850112</v>
       </c>
       <c r="Q33">
-        <v>399.7933117211437</v>
+        <v>399.79331172114371</v>
       </c>
       <c r="R33">
-        <v>399.7933117211437</v>
+        <v>399.79331172114371</v>
       </c>
       <c r="S33">
-        <v>448.0775014600792</v>
+        <v>448.07750146007919</v>
       </c>
       <c r="T33">
         <v>87.5615131498095</v>
@@ -3374,31 +3443,31 @@
         <v>456.0129048642105</v>
       </c>
       <c r="V33">
-        <v>173.3634461466476</v>
+        <v>173.36344614664759</v>
       </c>
       <c r="W33">
-        <v>387.2582969305053</v>
+        <v>387.25829693050531</v>
       </c>
       <c r="X33">
         <v>456.0129048642105</v>
       </c>
       <c r="Y33">
-        <v>174.7416115831797</v>
+        <v>174.74161158317969</v>
       </c>
       <c r="Z33">
-        <v>174.7416115831797</v>
+        <v>174.74161158317969</v>
       </c>
       <c r="AA33">
         <v>106.622631784726</v>
       </c>
       <c r="AB33">
-        <v>230.0836780600154</v>
+        <v>230.08367806001539</v>
       </c>
       <c r="AC33">
-        <v>230.0836780600154</v>
+        <v>230.08367806001539</v>
       </c>
     </row>
-    <row r="34" spans="1:29">
+    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -3412,82 +3481,82 @@
         <v>28</v>
       </c>
       <c r="E34">
-        <v>0.044</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="F34">
-        <v>0.8887712243199996</v>
+        <v>0.88877122431999955</v>
       </c>
       <c r="G34">
-        <v>38.84673</v>
+        <v>38.846730000000001</v>
       </c>
       <c r="H34">
-        <v>33.4048</v>
+        <v>33.404800000000002</v>
       </c>
       <c r="I34">
-        <v>456.5969874985278</v>
+        <v>0</v>
       </c>
       <c r="J34">
-        <v>456.5969874985278</v>
+        <v>0</v>
       </c>
       <c r="K34">
-        <v>210.2479825892534</v>
+        <v>303.04794274724969</v>
       </c>
       <c r="L34">
-        <v>210.2479825892534</v>
+        <v>303.04794274724969</v>
       </c>
       <c r="M34">
-        <v>237.2936671594918</v>
+        <v>0</v>
       </c>
       <c r="N34">
-        <v>237.2936671594918</v>
+        <v>0</v>
       </c>
       <c r="O34">
-        <v>661.0104544357042</v>
+        <v>1247.4529455941879</v>
       </c>
       <c r="P34">
-        <v>661.0104544357042</v>
+        <v>1247.4529455941879</v>
       </c>
       <c r="Q34">
-        <v>475.3178732518628</v>
+        <v>988.62623340134701</v>
       </c>
       <c r="R34">
-        <v>475.3178732518628</v>
+        <v>988.62623340134701</v>
       </c>
       <c r="S34">
-        <v>587.5912382630931</v>
+        <v>0</v>
       </c>
       <c r="T34">
-        <v>107.5875217196349</v>
+        <v>97.172485298806507</v>
       </c>
       <c r="U34">
-        <v>456.5969874985278</v>
+        <v>0</v>
       </c>
       <c r="V34">
-        <v>174.4637182293446</v>
+        <v>0</v>
       </c>
       <c r="W34">
-        <v>391.0377366083418</v>
+        <v>0</v>
       </c>
       <c r="X34">
-        <v>456.5969874985278</v>
+        <v>0</v>
       </c>
       <c r="Y34">
-        <v>190.4894174123841</v>
+        <v>0</v>
       </c>
       <c r="Z34">
-        <v>190.4894174123841</v>
+        <v>0</v>
       </c>
       <c r="AA34">
-        <v>133.0291511194358</v>
+        <v>129.98165792226899</v>
       </c>
       <c r="AB34">
-        <v>307.2076620411784</v>
+        <v>416.27921857398422</v>
       </c>
       <c r="AC34">
-        <v>307.2076620411784</v>
+        <v>416.27921857398422</v>
       </c>
     </row>
-    <row r="35" spans="1:29">
+    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -3501,82 +3570,82 @@
         <v>28</v>
       </c>
       <c r="E35">
-        <v>0.032</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="F35">
         <v>0.6473734399999993</v>
       </c>
       <c r="G35">
-        <v>34.62888</v>
+        <v>34.628880000000002</v>
       </c>
       <c r="H35">
         <v>23.3536</v>
       </c>
       <c r="I35">
-        <v>408.269050404078</v>
+        <v>0</v>
       </c>
       <c r="J35">
-        <v>408.269050404078</v>
+        <v>0</v>
       </c>
       <c r="K35">
-        <v>186.1491371317687</v>
+        <v>189.52255213082449</v>
       </c>
       <c r="L35">
-        <v>186.1491371317687</v>
+        <v>189.52255213082449</v>
       </c>
       <c r="M35">
-        <v>248.7981343927476</v>
+        <v>0</v>
       </c>
       <c r="N35">
-        <v>248.7981343927476</v>
+        <v>0</v>
       </c>
       <c r="O35">
-        <v>649.0659459983822</v>
+        <v>1103.092506445146</v>
       </c>
       <c r="P35">
-        <v>649.0659459983822</v>
+        <v>1103.092506445146</v>
       </c>
       <c r="Q35">
-        <v>388.3809148367131</v>
+        <v>647.90310925946608</v>
       </c>
       <c r="R35">
-        <v>388.3809148367131</v>
+        <v>647.90310925946608</v>
       </c>
       <c r="S35">
-        <v>406.7071138397772</v>
+        <v>0</v>
       </c>
       <c r="T35">
-        <v>98.34279751665127</v>
+        <v>54.207034398850119</v>
       </c>
       <c r="U35">
-        <v>408.269050404078</v>
+        <v>0</v>
       </c>
       <c r="V35">
-        <v>168.3905348028326</v>
+        <v>0</v>
       </c>
       <c r="W35">
-        <v>341.7080995161652</v>
+        <v>0</v>
       </c>
       <c r="X35">
-        <v>408.269050404078</v>
+        <v>0</v>
       </c>
       <c r="Y35">
-        <v>158.053820056629</v>
+        <v>0</v>
       </c>
       <c r="Z35">
-        <v>158.053820056629</v>
+        <v>0</v>
       </c>
       <c r="AA35">
-        <v>103.1616256518496</v>
+        <v>84.271879559171921</v>
       </c>
       <c r="AB35">
-        <v>230.8576767739564</v>
+        <v>264.02695379714021</v>
       </c>
       <c r="AC35">
-        <v>230.8576767739564</v>
+        <v>264.02695379714021</v>
       </c>
     </row>
-    <row r="36" spans="1:29">
+    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -3590,82 +3659,82 @@
         <v>28</v>
       </c>
       <c r="E36">
-        <v>0.079</v>
+        <v>7.9000000000000001E-2</v>
       </c>
       <c r="F36">
         <v>1.57456038432</v>
       </c>
       <c r="G36">
-        <v>147.29832</v>
+        <v>147.29831999999999</v>
       </c>
       <c r="H36">
         <v>28.9376</v>
       </c>
       <c r="I36">
-        <v>417.8063709442735</v>
+        <v>0</v>
       </c>
       <c r="J36">
-        <v>417.8063709442735</v>
+        <v>0</v>
       </c>
       <c r="K36">
-        <v>222.5189530871466</v>
+        <v>215.45586771304781</v>
       </c>
       <c r="L36">
-        <v>222.5189530871466</v>
+        <v>215.45586771304781</v>
       </c>
       <c r="M36">
-        <v>250.2556525177247</v>
+        <v>0</v>
       </c>
       <c r="N36">
-        <v>250.2556525177247</v>
+        <v>0</v>
       </c>
       <c r="O36">
-        <v>811.6741242727738</v>
+        <v>1405.5806102939471</v>
       </c>
       <c r="P36">
-        <v>811.6741242727738</v>
+        <v>1405.5806102939471</v>
       </c>
       <c r="Q36">
-        <v>393.7097813491893</v>
+        <v>749.31162676342001</v>
       </c>
       <c r="R36">
-        <v>393.7097813491893</v>
+        <v>749.31162676342001</v>
       </c>
       <c r="S36">
-        <v>379.6803098651988</v>
+        <v>0</v>
       </c>
       <c r="T36">
-        <v>119.728783479304</v>
+        <v>57.143574285256392</v>
       </c>
       <c r="U36">
-        <v>417.8063709442735</v>
+        <v>0</v>
       </c>
       <c r="V36">
-        <v>161.1116376116029</v>
+        <v>0</v>
       </c>
       <c r="W36">
-        <v>352.5327855112331</v>
+        <v>0</v>
       </c>
       <c r="X36">
-        <v>417.8063709442735</v>
+        <v>0</v>
       </c>
       <c r="Y36">
-        <v>170.6220589930146</v>
+        <v>0</v>
       </c>
       <c r="Z36">
-        <v>170.6220589930146</v>
+        <v>0</v>
       </c>
       <c r="AA36">
-        <v>119.7344832601991</v>
+        <v>91.357255477141805</v>
       </c>
       <c r="AB36">
-        <v>234.4282830501459</v>
+        <v>290.1723369899741</v>
       </c>
       <c r="AC36">
-        <v>234.4282830501459</v>
+        <v>290.1723369899741</v>
       </c>
     </row>
-    <row r="37" spans="1:29">
+    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -3682,79 +3751,79 @@
         <v>0.129</v>
       </c>
       <c r="F37">
-        <v>2.578555714559999</v>
+        <v>2.5785557145599989</v>
       </c>
       <c r="G37">
         <v>319.70952</v>
       </c>
       <c r="H37">
-        <v>143.968</v>
+        <v>143.96799999999999</v>
       </c>
       <c r="I37">
-        <v>382.7968732386371</v>
+        <v>382.79687323863709</v>
       </c>
       <c r="J37">
-        <v>382.7968732386371</v>
+        <v>382.79687323863709</v>
       </c>
       <c r="K37">
-        <v>195.7611050759241</v>
+        <v>195.76110507592409</v>
       </c>
       <c r="L37">
-        <v>195.7611050759241</v>
+        <v>195.76110507592409</v>
       </c>
       <c r="M37">
-        <v>226.2668579619516</v>
+        <v>226.26685796195159</v>
       </c>
       <c r="N37">
-        <v>226.2668579619516</v>
+        <v>226.26685796195159</v>
       </c>
       <c r="O37">
-        <v>709.761480056239</v>
+        <v>709.76148005623895</v>
       </c>
       <c r="P37">
-        <v>709.761480056239</v>
+        <v>709.76148005623895</v>
       </c>
       <c r="Q37">
-        <v>335.5768842003835</v>
+        <v>335.57688420038352</v>
       </c>
       <c r="R37">
-        <v>335.5768842003835</v>
+        <v>335.57688420038352</v>
       </c>
       <c r="S37">
-        <v>330.4001105100385</v>
+        <v>330.40011051003847</v>
       </c>
       <c r="T37">
         <v>106.5988858155678</v>
       </c>
       <c r="U37">
-        <v>382.7968732386371</v>
+        <v>382.79687323863709</v>
       </c>
       <c r="V37">
-        <v>152.4388198496455</v>
+        <v>152.43881984964551</v>
       </c>
       <c r="W37">
-        <v>328.7244728788456</v>
+        <v>328.72447287884557</v>
       </c>
       <c r="X37">
-        <v>382.7968732386371</v>
+        <v>382.79687323863709</v>
       </c>
       <c r="Y37">
-        <v>159.8808537201351</v>
+        <v>159.88085372013509</v>
       </c>
       <c r="Z37">
-        <v>159.8808537201351</v>
+        <v>159.88085372013509</v>
       </c>
       <c r="AA37">
-        <v>116.7737085507708</v>
+        <v>116.77370855077081</v>
       </c>
       <c r="AB37">
-        <v>204.0885622586355</v>
+        <v>204.08856225863551</v>
       </c>
       <c r="AC37">
-        <v>204.0885622586355</v>
+        <v>204.08856225863551</v>
       </c>
     </row>
-    <row r="38" spans="1:29">
+    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -3771,52 +3840,52 @@
         <v>0.44</v>
       </c>
       <c r="F38">
-        <v>0.8723122844800006</v>
+        <v>0.87231228448000064</v>
       </c>
       <c r="G38">
-        <v>45.49856999999999</v>
+        <v>45.498569999999987</v>
       </c>
       <c r="H38">
         <v>9.952</v>
       </c>
       <c r="I38">
-        <v>329.5079739293262</v>
+        <v>329.50797392932623</v>
       </c>
       <c r="J38">
-        <v>329.5079739293262</v>
+        <v>329.50797392932623</v>
       </c>
       <c r="K38">
-        <v>169.8009899147957</v>
+        <v>169.80098991479571</v>
       </c>
       <c r="L38">
-        <v>169.8009899147957</v>
+        <v>169.80098991479571</v>
       </c>
       <c r="M38">
-        <v>200.1591066576025</v>
+        <v>200.15910665760251</v>
       </c>
       <c r="N38">
-        <v>200.1591066576025</v>
+        <v>200.15910665760251</v>
       </c>
       <c r="O38">
-        <v>493.3317192197098</v>
+        <v>493.33171921970978</v>
       </c>
       <c r="P38">
-        <v>493.3317192197098</v>
+        <v>493.33171921970978</v>
       </c>
       <c r="Q38">
-        <v>407.5741921101081</v>
+        <v>407.57419211010807</v>
       </c>
       <c r="R38">
-        <v>407.5741921101081</v>
+        <v>407.57419211010807</v>
       </c>
       <c r="S38">
-        <v>467.6251961602248</v>
+        <v>467.62519616022479</v>
       </c>
       <c r="T38">
-        <v>76.10884315905582</v>
+        <v>76.108843159055823</v>
       </c>
       <c r="U38">
-        <v>329.5079739293262</v>
+        <v>329.50797392932623</v>
       </c>
       <c r="V38">
         <v>139.7548495459142</v>
@@ -3825,25 +3894,25 @@
         <v>273.4613474663397</v>
       </c>
       <c r="X38">
-        <v>329.5079739293262</v>
+        <v>329.50797392932623</v>
       </c>
       <c r="Y38">
-        <v>143.5936144945321</v>
+        <v>143.59361449453209</v>
       </c>
       <c r="Z38">
-        <v>143.5936144945321</v>
+        <v>143.59361449453209</v>
       </c>
       <c r="AA38">
-        <v>89.22570577791166</v>
+        <v>89.225705777911656</v>
       </c>
       <c r="AB38">
-        <v>246.9025070947218</v>
+        <v>246.90250709472181</v>
       </c>
       <c r="AC38">
-        <v>246.9025070947218</v>
+        <v>246.90250709472181</v>
       </c>
     </row>
-    <row r="39" spans="1:29">
+    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -3857,82 +3926,82 @@
         <v>28</v>
       </c>
       <c r="E39">
-        <v>0.046</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="F39">
         <v>0.9271754172800003</v>
       </c>
       <c r="G39">
-        <v>34.80633</v>
+        <v>34.806330000000003</v>
       </c>
       <c r="H39">
-        <v>59.0912</v>
+        <v>59.091200000000001</v>
       </c>
       <c r="I39">
-        <v>390.9439112612718</v>
+        <v>390.94391126127181</v>
       </c>
       <c r="J39">
-        <v>390.9439112612718</v>
+        <v>390.94391126127181</v>
       </c>
       <c r="K39">
-        <v>205.7173761294216</v>
+        <v>205.71737612942161</v>
       </c>
       <c r="L39">
-        <v>205.7173761294216</v>
+        <v>205.71737612942161</v>
       </c>
       <c r="M39">
-        <v>232.3308478873612</v>
+        <v>232.33084788736119</v>
       </c>
       <c r="N39">
-        <v>232.3308478873612</v>
+        <v>232.33084788736119</v>
       </c>
       <c r="O39">
-        <v>611.5463277516852</v>
+        <v>611.54632775168523</v>
       </c>
       <c r="P39">
-        <v>611.5463277516852</v>
+        <v>611.54632775168523</v>
       </c>
       <c r="Q39">
-        <v>551.4275191993473</v>
+        <v>551.42751919934733</v>
       </c>
       <c r="R39">
-        <v>551.4275191993473</v>
+        <v>551.42751919934733</v>
       </c>
       <c r="S39">
-        <v>698.7381946538392</v>
+        <v>698.73819465383917</v>
       </c>
       <c r="T39">
-        <v>90.79987094795965</v>
+        <v>90.799870947959647</v>
       </c>
       <c r="U39">
-        <v>390.9439112612718</v>
+        <v>390.94391126127181</v>
       </c>
       <c r="V39">
-        <v>156.4325344203783</v>
+        <v>156.43253442037829</v>
       </c>
       <c r="W39">
-        <v>315.9509533744791</v>
+        <v>315.95095337447913</v>
       </c>
       <c r="X39">
-        <v>390.9439112612718</v>
+        <v>390.94391126127181</v>
       </c>
       <c r="Y39">
-        <v>152.0909330005987</v>
+        <v>152.09093300059871</v>
       </c>
       <c r="Z39">
-        <v>152.0909330005987</v>
+        <v>152.09093300059871</v>
       </c>
       <c r="AA39">
         <v>123.629344320746</v>
       </c>
       <c r="AB39">
-        <v>318.6831034893568</v>
+        <v>318.68310348935682</v>
       </c>
       <c r="AC39">
-        <v>318.6831034893568</v>
+        <v>318.68310348935682</v>
       </c>
     </row>
-    <row r="40" spans="1:29">
+    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -3949,79 +4018,79 @@
         <v>0.03</v>
       </c>
       <c r="F40">
-        <v>0.5925103071999996</v>
+        <v>0.59251030719999964</v>
       </c>
       <c r="G40">
-        <v>84.78872999999999</v>
+        <v>84.788729999999987</v>
       </c>
       <c r="H40">
-        <v>26.704</v>
+        <v>26.704000000000001</v>
       </c>
       <c r="I40">
-        <v>357.5750689541476</v>
+        <v>357.57506895414758</v>
       </c>
       <c r="J40">
-        <v>357.5750689541476</v>
+        <v>357.57506895414758</v>
       </c>
       <c r="K40">
-        <v>160.7493001295238</v>
+        <v>160.74930012952379</v>
       </c>
       <c r="L40">
-        <v>160.7493001295238</v>
+        <v>160.74930012952379</v>
       </c>
       <c r="M40">
-        <v>210.3947516806836</v>
+        <v>210.39475168068361</v>
       </c>
       <c r="N40">
-        <v>210.3947516806836</v>
+        <v>210.39475168068361</v>
       </c>
       <c r="O40">
-        <v>583.0476489174832</v>
+        <v>583.04764891748323</v>
       </c>
       <c r="P40">
-        <v>583.0476489174832</v>
+        <v>583.04764891748323</v>
       </c>
       <c r="Q40">
-        <v>362.6674602675113</v>
+        <v>362.66746026751127</v>
       </c>
       <c r="R40">
-        <v>362.9021714448238</v>
+        <v>362.90217144482381</v>
       </c>
       <c r="S40">
-        <v>419.1410892845786</v>
+        <v>419.14108928457858</v>
       </c>
       <c r="T40">
-        <v>74.33657684766776</v>
+        <v>74.336576847667757</v>
       </c>
       <c r="U40">
-        <v>357.5750689541476</v>
+        <v>357.57506895414758</v>
       </c>
       <c r="V40">
-        <v>146.087826487951</v>
+        <v>146.08782648795099</v>
       </c>
       <c r="W40">
-        <v>293.5824194255185</v>
+        <v>293.58241942551848</v>
       </c>
       <c r="X40">
-        <v>357.5750689541476</v>
+        <v>357.57506895414758</v>
       </c>
       <c r="Y40">
-        <v>144.4341055546809</v>
+        <v>144.43410555468091</v>
       </c>
       <c r="Z40">
-        <v>144.4341055546809</v>
+        <v>144.43410555468091</v>
       </c>
       <c r="AA40">
-        <v>91.33608980896739</v>
+        <v>91.336089808967387</v>
       </c>
       <c r="AB40">
-        <v>226.7014781092303</v>
+        <v>226.70147810923029</v>
       </c>
       <c r="AC40">
-        <v>226.7014781092303</v>
+        <v>226.70147810923029</v>
       </c>
     </row>
-    <row r="41" spans="1:29">
+    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -4035,82 +4104,82 @@
         <v>28</v>
       </c>
       <c r="E41">
-        <v>0.049</v>
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="F41">
-        <v>0.9875248633600009</v>
+        <v>0.98752486336000089</v>
       </c>
       <c r="G41">
-        <v>51.03033</v>
+        <v>51.030329999999999</v>
       </c>
       <c r="H41">
-        <v>7.7184</v>
+        <v>7.7183999999999999</v>
       </c>
       <c r="I41">
-        <v>418.8001104917419</v>
+        <v>0</v>
       </c>
       <c r="J41">
-        <v>418.8001104917419</v>
+        <v>0</v>
       </c>
       <c r="K41">
-        <v>197.2791791514479</v>
+        <v>201.4614964453751</v>
       </c>
       <c r="L41">
-        <v>197.2791791514479</v>
+        <v>201.4614964453751</v>
       </c>
       <c r="M41">
-        <v>229.5468081645202</v>
+        <v>0</v>
       </c>
       <c r="N41">
-        <v>229.5468081645202</v>
+        <v>0</v>
       </c>
       <c r="O41">
-        <v>606.8769223374542</v>
+        <v>863.51121727737291</v>
       </c>
       <c r="P41">
-        <v>606.8769223374542</v>
+        <v>863.51121727737291</v>
       </c>
       <c r="Q41">
-        <v>417.9059640243481</v>
+        <v>622.13124175037262</v>
       </c>
       <c r="R41">
-        <v>417.9059640243481</v>
+        <v>622.13124175037262</v>
       </c>
       <c r="S41">
-        <v>488.7866850621235</v>
+        <v>0</v>
       </c>
       <c r="T41">
-        <v>81.50145184600203</v>
+        <v>54.139951436135107</v>
       </c>
       <c r="U41">
-        <v>418.8001104917419</v>
+        <v>0</v>
       </c>
       <c r="V41">
-        <v>161.5537164843478</v>
+        <v>0</v>
       </c>
       <c r="W41">
-        <v>360.2475046380179</v>
+        <v>0</v>
       </c>
       <c r="X41">
-        <v>418.8001104917419</v>
+        <v>0</v>
       </c>
       <c r="Y41">
-        <v>170.8584349846563</v>
+        <v>0</v>
       </c>
       <c r="Z41">
-        <v>170.8584349846563</v>
+        <v>0</v>
       </c>
       <c r="AA41">
-        <v>95.38713891157188</v>
+        <v>90.062558270247621</v>
       </c>
       <c r="AB41">
-        <v>260.0904343821953</v>
+        <v>241.52460229129949</v>
       </c>
       <c r="AC41">
-        <v>260.0904343821953</v>
+        <v>241.52460229129949</v>
       </c>
     </row>
-    <row r="42" spans="1:29">
+    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -4124,22 +4193,22 @@
         <v>28</v>
       </c>
       <c r="E42">
-        <v>0.027</v>
+        <v>2.7E-2</v>
       </c>
       <c r="F42">
-        <v>0.5321608611199991</v>
+        <v>0.53216086111999905</v>
       </c>
       <c r="G42">
-        <v>46.66233</v>
+        <v>46.662329999999997</v>
       </c>
       <c r="H42">
-        <v>2.1344</v>
+        <v>2.1343999999999999</v>
       </c>
       <c r="I42">
-        <v>370.6899506247275</v>
+        <v>370.68995062472749</v>
       </c>
       <c r="J42">
-        <v>370.6899506247275</v>
+        <v>370.68995062472749</v>
       </c>
       <c r="K42">
         <v>180.917448493156</v>
@@ -4148,49 +4217,49 @@
         <v>180.917448493156</v>
       </c>
       <c r="M42">
-        <v>230.940989945163</v>
+        <v>230.94098994516301</v>
       </c>
       <c r="N42">
-        <v>230.940989945163</v>
+        <v>230.94098994516301</v>
       </c>
       <c r="O42">
-        <v>514.3210657175185</v>
+        <v>514.32106571751854</v>
       </c>
       <c r="P42">
-        <v>514.3210657175185</v>
+        <v>514.32106571751854</v>
       </c>
       <c r="Q42">
-        <v>384.3218008597452</v>
+        <v>384.32180085974522</v>
       </c>
       <c r="R42">
-        <v>384.3218008597452</v>
+        <v>384.32180085974522</v>
       </c>
       <c r="S42">
-        <v>422.7718763449288</v>
+        <v>422.77187634492878</v>
       </c>
       <c r="T42">
-        <v>77.77153732577693</v>
+        <v>77.771537325776933</v>
       </c>
       <c r="U42">
-        <v>370.6899506247275</v>
+        <v>370.68995062472749</v>
       </c>
       <c r="V42">
-        <v>156.7493086465178</v>
+        <v>156.74930864651779</v>
       </c>
       <c r="W42">
-        <v>297.9435389317358</v>
+        <v>297.94353893173582</v>
       </c>
       <c r="X42">
-        <v>370.6899506247275</v>
+        <v>370.68995062472749</v>
       </c>
       <c r="Y42">
-        <v>149.5147699245422</v>
+        <v>149.51476992454221</v>
       </c>
       <c r="Z42">
-        <v>149.5147699245422</v>
+        <v>149.51476992454221</v>
       </c>
       <c r="AA42">
-        <v>92.51411189288896</v>
+        <v>92.514111892888963</v>
       </c>
       <c r="AB42">
         <v>228.684006364157</v>
@@ -4199,7 +4268,7 @@
         <v>228.684006364157</v>
       </c>
     </row>
-    <row r="43" spans="1:29">
+    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -4213,13 +4282,13 @@
         <v>28</v>
       </c>
       <c r="E43">
-        <v>0.042</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="F43">
-        <v>0.8448807180799999</v>
+        <v>0.84488071807999987</v>
       </c>
       <c r="G43">
-        <v>43.55207999999999</v>
+        <v>43.552079999999989</v>
       </c>
       <c r="H43">
         <v>28.9376</v>
@@ -4231,64 +4300,64 @@
         <v>451.130354520303</v>
       </c>
       <c r="K43">
-        <v>201.0271984234084</v>
+        <v>201.02719842340841</v>
       </c>
       <c r="L43">
-        <v>201.0271984234084</v>
+        <v>201.02719842340841</v>
       </c>
       <c r="M43">
-        <v>275.0385434634456</v>
+        <v>275.03854346344559</v>
       </c>
       <c r="N43">
-        <v>275.0385434634456</v>
+        <v>275.03854346344559</v>
       </c>
       <c r="O43">
-        <v>641.2197730896388</v>
+        <v>641.21977308963881</v>
       </c>
       <c r="P43">
-        <v>641.2197730896388</v>
+        <v>641.21977308963881</v>
       </c>
       <c r="Q43">
-        <v>362.7630862438417</v>
+        <v>362.76308624384171</v>
       </c>
       <c r="R43">
-        <v>362.7630862438417</v>
+        <v>362.76308624384171</v>
       </c>
       <c r="S43">
-        <v>321.2747422829577</v>
+        <v>321.27474228295767</v>
       </c>
       <c r="T43">
-        <v>82.05915836253914</v>
+        <v>82.059158362539137</v>
       </c>
       <c r="U43">
         <v>451.130354520303</v>
       </c>
       <c r="V43">
-        <v>180.7336229610925</v>
+        <v>180.73362296109249</v>
       </c>
       <c r="W43">
-        <v>373.9194464691503</v>
+        <v>373.91944646915027</v>
       </c>
       <c r="X43">
         <v>451.130354520303</v>
       </c>
       <c r="Y43">
-        <v>160.4024782119479</v>
+        <v>160.40247821194791</v>
       </c>
       <c r="Z43">
-        <v>160.4024782119479</v>
+        <v>160.40247821194791</v>
       </c>
       <c r="AA43">
-        <v>89.60854854621859</v>
+        <v>89.608548546218586</v>
       </c>
       <c r="AB43">
-        <v>180.7549029732833</v>
+        <v>180.75490297328329</v>
       </c>
       <c r="AC43">
-        <v>180.7549029732833</v>
+        <v>180.75490297328329</v>
       </c>
     </row>
-    <row r="44" spans="1:29">
+    <row r="44" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -4302,64 +4371,64 @@
         <v>28</v>
       </c>
       <c r="E44">
-        <v>0.048</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="F44">
-        <v>0.8997438508799994</v>
+        <v>0.89974385087999942</v>
       </c>
       <c r="G44">
-        <v>81.23699999999999</v>
+        <v>81.236999999999995</v>
       </c>
       <c r="H44">
-        <v>75.8432</v>
+        <v>75.843199999999996</v>
       </c>
       <c r="I44">
-        <v>417.5170278350409</v>
+        <v>417.51702783504089</v>
       </c>
       <c r="J44">
-        <v>417.5170278350409</v>
+        <v>417.51702783504089</v>
       </c>
       <c r="K44">
-        <v>192.7609780120193</v>
+        <v>192.76097801201931</v>
       </c>
       <c r="L44">
-        <v>192.7609780120193</v>
+        <v>192.76097801201931</v>
       </c>
       <c r="M44">
-        <v>300.6750556977746</v>
+        <v>300.67505569777461</v>
       </c>
       <c r="N44">
-        <v>300.6750556977746</v>
+        <v>300.67505569777461</v>
       </c>
       <c r="O44">
-        <v>825.6090155532899</v>
+        <v>825.60901555328985</v>
       </c>
       <c r="P44">
-        <v>825.6090155532899</v>
+        <v>825.60901555328985</v>
       </c>
       <c r="Q44">
-        <v>361.1412011203726</v>
+        <v>361.14120112037261</v>
       </c>
       <c r="R44">
-        <v>361.1412011203726</v>
+        <v>361.14120112037261</v>
       </c>
       <c r="S44">
-        <v>285.7718847207963</v>
+        <v>285.77188472079632</v>
       </c>
       <c r="T44">
-        <v>86.12932425303907</v>
+        <v>86.129324253039073</v>
       </c>
       <c r="U44">
-        <v>417.5170278350409</v>
+        <v>417.51702783504089</v>
       </c>
       <c r="V44">
-        <v>184.3915881883439</v>
+        <v>184.39158818834389</v>
       </c>
       <c r="W44">
-        <v>348.3063793030747</v>
+        <v>348.30637930307472</v>
       </c>
       <c r="X44">
-        <v>417.5170278350409</v>
+        <v>417.51702783504089</v>
       </c>
       <c r="Y44">
         <v>158.3399058494652</v>
@@ -4368,16 +4437,16 @@
         <v>158.3399058494652</v>
       </c>
       <c r="AA44">
-        <v>99.04046659575869</v>
+        <v>99.040466595758687</v>
       </c>
       <c r="AB44">
-        <v>191.1671461882918</v>
+        <v>191.16714618829181</v>
       </c>
       <c r="AC44">
-        <v>191.1671461882918</v>
+        <v>191.16714618829181</v>
       </c>
     </row>
-    <row r="45" spans="1:29">
+    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -4391,22 +4460,22 @@
         <v>28</v>
       </c>
       <c r="E45">
-        <v>0.07099999999999999</v>
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="F45">
-        <v>1.4154572992</v>
+        <v>1.4154572992000001</v>
       </c>
       <c r="G45">
         <v>216.4390799999999</v>
       </c>
       <c r="H45">
-        <v>68.0256</v>
+        <v>68.025599999999997</v>
       </c>
       <c r="I45">
-        <v>509.635338889608</v>
+        <v>509.63533888960802</v>
       </c>
       <c r="J45">
-        <v>509.635338889608</v>
+        <v>509.63533888960802</v>
       </c>
       <c r="K45">
         <v>209.7389844827791</v>
@@ -4415,58 +4484,58 @@
         <v>209.7389844827791</v>
       </c>
       <c r="M45">
-        <v>290.6368412758318</v>
+        <v>290.63684127583178</v>
       </c>
       <c r="N45">
-        <v>290.6368412758318</v>
+        <v>290.63684127583178</v>
       </c>
       <c r="O45">
-        <v>695.4591305705812</v>
+        <v>695.45913057058124</v>
       </c>
       <c r="P45">
-        <v>695.4591305705812</v>
+        <v>695.45913057058124</v>
       </c>
       <c r="Q45">
-        <v>398.219420888771</v>
+        <v>398.21942088877103</v>
       </c>
       <c r="R45">
-        <v>398.219420888771</v>
+        <v>398.21942088877103</v>
       </c>
       <c r="S45">
-        <v>365.8862426866708</v>
+        <v>365.88624268667081</v>
       </c>
       <c r="T45">
-        <v>83.28474199133804</v>
+        <v>83.284741991338038</v>
       </c>
       <c r="U45">
-        <v>509.635338889608</v>
+        <v>509.63533888960802</v>
       </c>
       <c r="V45">
-        <v>180.6318160121685</v>
+        <v>180.63181601216851</v>
       </c>
       <c r="W45">
-        <v>419.0684571161212</v>
+        <v>419.06845711612118</v>
       </c>
       <c r="X45">
-        <v>509.635338889608</v>
+        <v>509.63533888960802</v>
       </c>
       <c r="Y45">
-        <v>186.491940588726</v>
+        <v>186.49194058872601</v>
       </c>
       <c r="Z45">
-        <v>186.491940588726</v>
+        <v>186.49194058872601</v>
       </c>
       <c r="AA45">
         <v>105.9420643774024</v>
       </c>
       <c r="AB45">
-        <v>211.6031002249503</v>
+        <v>211.60310022495031</v>
       </c>
       <c r="AC45">
-        <v>211.6031002249503</v>
+        <v>211.60310022495031</v>
       </c>
     </row>
-    <row r="46" spans="1:29">
+    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -4480,28 +4549,28 @@
         <v>28</v>
       </c>
       <c r="E46">
-        <v>0.062</v>
+        <v>6.2E-2</v>
       </c>
       <c r="F46">
-        <v>1.24538158752</v>
+        <v>1.2453815875200001</v>
       </c>
       <c r="G46">
-        <v>165.906</v>
+        <v>165.90600000000001</v>
       </c>
       <c r="H46">
-        <v>16.6528</v>
+        <v>16.652799999999999</v>
       </c>
       <c r="I46">
-        <v>522.5314031485941</v>
+        <v>522.53140314859411</v>
       </c>
       <c r="J46">
-        <v>522.5314031485941</v>
+        <v>522.53140314859411</v>
       </c>
       <c r="K46">
-        <v>231.3129073693503</v>
+        <v>231.31290736935031</v>
       </c>
       <c r="L46">
-        <v>231.3129073693503</v>
+        <v>231.31290736935031</v>
       </c>
       <c r="M46">
         <v>223.6492121889728</v>
@@ -4510,52 +4579,52 @@
         <v>223.6492121889728</v>
       </c>
       <c r="O46">
-        <v>686.1951808187837</v>
+        <v>686.19518081878368</v>
       </c>
       <c r="P46">
-        <v>686.1951808187837</v>
+        <v>686.19518081878368</v>
       </c>
       <c r="Q46">
-        <v>553.9638813301472</v>
+        <v>553.96388133014716</v>
       </c>
       <c r="R46">
-        <v>553.9638813301472</v>
+        <v>553.96388133014716</v>
       </c>
       <c r="S46">
         <v>630.1386908671949</v>
       </c>
       <c r="T46">
-        <v>95.79666812168291</v>
+        <v>95.796668121682913</v>
       </c>
       <c r="U46">
-        <v>522.5314031485941</v>
+        <v>522.53140314859411</v>
       </c>
       <c r="V46">
-        <v>167.8108713136074</v>
+        <v>167.81087131360741</v>
       </c>
       <c r="W46">
-        <v>432.648422754192</v>
+        <v>432.64842275419198</v>
       </c>
       <c r="X46">
-        <v>522.5314031485941</v>
+        <v>522.53140314859411</v>
       </c>
       <c r="Y46">
-        <v>197.45086236271</v>
+        <v>197.45086236271001</v>
       </c>
       <c r="Z46">
-        <v>197.45086236271</v>
+        <v>197.45086236271001</v>
       </c>
       <c r="AA46">
-        <v>93.5250165749399</v>
+        <v>93.525016574939897</v>
       </c>
       <c r="AB46">
-        <v>321.6419158259143</v>
+        <v>321.64191582591428</v>
       </c>
       <c r="AC46">
-        <v>321.6419158259143</v>
+        <v>321.64191582591428</v>
       </c>
     </row>
-    <row r="47" spans="1:29">
+    <row r="47" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -4569,34 +4638,34 @@
         <v>28</v>
       </c>
       <c r="E47">
-        <v>0.033</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="F47">
-        <v>0.6583460665599992</v>
+        <v>0.65834606655999917</v>
       </c>
       <c r="G47">
         <v>127.29288</v>
       </c>
       <c r="H47">
-        <v>62.4416</v>
+        <v>62.441600000000001</v>
       </c>
       <c r="I47">
-        <v>479.5154684818791</v>
+        <v>479.51546848187911</v>
       </c>
       <c r="J47">
-        <v>479.5154684818791</v>
+        <v>479.51546848187911</v>
       </c>
       <c r="K47">
-        <v>190.5413440995019</v>
+        <v>190.54134409950191</v>
       </c>
       <c r="L47">
-        <v>190.5413440995019</v>
+        <v>190.54134409950191</v>
       </c>
       <c r="M47">
-        <v>279.0412254921121</v>
+        <v>279.04122549211212</v>
       </c>
       <c r="N47">
-        <v>279.0412254921121</v>
+        <v>279.04122549211212</v>
       </c>
       <c r="O47">
         <v>827.8647636577989</v>
@@ -4605,37 +4674,37 @@
         <v>827.8647636577989</v>
       </c>
       <c r="Q47">
-        <v>429.2915162756667</v>
+        <v>429.29151627566671</v>
       </c>
       <c r="R47">
-        <v>429.2915162756667</v>
+        <v>429.29151627566671</v>
       </c>
       <c r="S47">
-        <v>463.4557077135053</v>
+        <v>463.45570771350532</v>
       </c>
       <c r="T47">
-        <v>82.65281747618005</v>
+        <v>82.652817476180047</v>
       </c>
       <c r="U47">
-        <v>479.5154684818791</v>
+        <v>479.51546848187911</v>
       </c>
       <c r="V47">
-        <v>187.2350658162971</v>
+        <v>187.23506581629709</v>
       </c>
       <c r="W47">
-        <v>396.3227733506263</v>
+        <v>396.32277335062628</v>
       </c>
       <c r="X47">
-        <v>479.5154684818791</v>
+        <v>479.51546848187911</v>
       </c>
       <c r="Y47">
-        <v>180.2558168303559</v>
+        <v>180.25581683035591</v>
       </c>
       <c r="Z47">
-        <v>180.2558168303559</v>
+        <v>180.25581683035591</v>
       </c>
       <c r="AA47">
-        <v>93.13529437618756</v>
+        <v>93.135294376187559</v>
       </c>
       <c r="AB47">
         <v>241.6733363817003</v>
@@ -4644,7 +4713,7 @@
         <v>241.6733363817003</v>
       </c>
     </row>
-    <row r="48" spans="1:29">
+    <row r="48" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -4658,22 +4727,22 @@
         <v>28</v>
       </c>
       <c r="E48">
-        <v>0.116</v>
+        <v>0.11600000000000001</v>
       </c>
       <c r="F48">
-        <v>2.3206989904</v>
+        <v>2.3206989903999999</v>
       </c>
       <c r="G48">
-        <v>357.05553</v>
+        <v>357.05552999999998</v>
       </c>
       <c r="H48">
         <v>197.3</v>
       </c>
       <c r="I48">
-        <v>359.0834214658462</v>
+        <v>359.08342146584619</v>
       </c>
       <c r="J48">
-        <v>359.0834214658462</v>
+        <v>359.08342146584619</v>
       </c>
       <c r="K48">
         <v>153.7799312668057</v>
@@ -4682,58 +4751,58 @@
         <v>153.7799312668057</v>
       </c>
       <c r="M48">
-        <v>211.8983829283752</v>
+        <v>211.89838292837521</v>
       </c>
       <c r="N48">
-        <v>211.8983829283752</v>
+        <v>211.89838292837521</v>
       </c>
       <c r="O48">
-        <v>522.1913031319248</v>
+        <v>522.19130313192477</v>
       </c>
       <c r="P48">
-        <v>522.1913031319248</v>
+        <v>522.19130313192477</v>
       </c>
       <c r="Q48">
-        <v>341.3089388847212</v>
+        <v>341.30893888472121</v>
       </c>
       <c r="R48">
-        <v>341.3089388847212</v>
+        <v>341.30893888472121</v>
       </c>
       <c r="S48">
         <v>306.6840226852039</v>
       </c>
       <c r="T48">
-        <v>64.60380240893792</v>
+        <v>64.603802408937923</v>
       </c>
       <c r="U48">
-        <v>359.0834214658462</v>
+        <v>359.08342146584619</v>
       </c>
       <c r="V48">
         <v>141.3901189121782</v>
       </c>
       <c r="W48">
-        <v>290.3256562858093</v>
+        <v>290.32565628580932</v>
       </c>
       <c r="X48">
-        <v>359.0834214658462</v>
+        <v>359.08342146584619</v>
       </c>
       <c r="Y48">
-        <v>144.6966607516221</v>
+        <v>144.69666075162209</v>
       </c>
       <c r="Z48">
-        <v>144.6966607516221</v>
+        <v>144.69666075162209</v>
       </c>
       <c r="AA48">
-        <v>77.08901601365494</v>
+        <v>77.089016013654941</v>
       </c>
       <c r="AB48">
-        <v>163.4877069572597</v>
+        <v>163.48770695725969</v>
       </c>
       <c r="AC48">
-        <v>163.4877069572597</v>
+        <v>163.48770695725969</v>
       </c>
     </row>
-    <row r="49" spans="1:29">
+    <row r="49" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -4747,7 +4816,7 @@
         <v>28</v>
       </c>
       <c r="E49">
-        <v>0.066</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="F49">
         <v>1.327676286719998</v>
@@ -4756,25 +4825,25 @@
         <v>105.46692</v>
       </c>
       <c r="H49">
-        <v>69.14239999999999</v>
+        <v>69.142399999999995</v>
       </c>
       <c r="I49">
-        <v>439.8875055210448</v>
+        <v>439.88750552104477</v>
       </c>
       <c r="J49">
-        <v>439.8875055210448</v>
+        <v>439.88750552104477</v>
       </c>
       <c r="K49">
-        <v>164.9721280807466</v>
+        <v>164.97212808074659</v>
       </c>
       <c r="L49">
-        <v>164.9721280807466</v>
+        <v>164.97212808074659</v>
       </c>
       <c r="M49">
-        <v>399.9927779900586</v>
+        <v>399.99277799005858</v>
       </c>
       <c r="N49">
-        <v>399.9927779900586</v>
+        <v>399.99277799005858</v>
       </c>
       <c r="O49">
         <v>1027.07955242303</v>
@@ -4783,46 +4852,46 @@
         <v>1027.07955242303</v>
       </c>
       <c r="Q49">
-        <v>328.1806679789447</v>
+        <v>328.18066797894471</v>
       </c>
       <c r="R49">
-        <v>328.1806679789447</v>
+        <v>328.18066797894471</v>
       </c>
       <c r="S49">
-        <v>296.4124123226671</v>
+        <v>296.41241232266708</v>
       </c>
       <c r="T49">
-        <v>78.08690099169903</v>
+        <v>78.086900991699025</v>
       </c>
       <c r="U49">
-        <v>439.8875055210448</v>
+        <v>439.88750552104477</v>
       </c>
       <c r="V49">
-        <v>229.4972976495434</v>
+        <v>229.49729764954341</v>
       </c>
       <c r="W49">
-        <v>375.4617038341524</v>
+        <v>375.46170383415239</v>
       </c>
       <c r="X49">
-        <v>439.8875055210448</v>
+        <v>439.88750552104477</v>
       </c>
       <c r="Y49">
-        <v>179.856842096328</v>
+        <v>179.85684209632799</v>
       </c>
       <c r="Z49">
-        <v>179.856842096328</v>
+        <v>179.85684209632799</v>
       </c>
       <c r="AA49">
-        <v>85.26447157961582</v>
+        <v>85.264471579615815</v>
       </c>
       <c r="AB49">
-        <v>169.0994188729744</v>
+        <v>169.09941887297441</v>
       </c>
       <c r="AC49">
-        <v>169.0994188729744</v>
+        <v>169.09941887297441</v>
       </c>
     </row>
-    <row r="50" spans="1:29">
+    <row r="50" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -4836,22 +4905,22 @@
         <v>28</v>
       </c>
       <c r="E50">
-        <v>0.068</v>
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="F50">
         <v>1.366080479679999</v>
       </c>
       <c r="G50">
-        <v>116.68488</v>
+        <v>116.68488000000001</v>
       </c>
       <c r="H50">
-        <v>26.704</v>
+        <v>26.704000000000001</v>
       </c>
       <c r="I50">
-        <v>345.5035004690653</v>
+        <v>345.50350046906527</v>
       </c>
       <c r="J50">
-        <v>345.5035004690653</v>
+        <v>345.50350046906527</v>
       </c>
       <c r="K50">
         <v>156.2886345195196</v>
@@ -4860,40 +4929,40 @@
         <v>156.2886345195196</v>
       </c>
       <c r="M50">
-        <v>199.5822525861005</v>
+        <v>199.58225258610051</v>
       </c>
       <c r="N50">
-        <v>199.5822525861005</v>
+        <v>199.58225258610051</v>
       </c>
       <c r="O50">
-        <v>491.0931756158323</v>
+        <v>491.09317561583231</v>
       </c>
       <c r="P50">
-        <v>491.0931756158323</v>
+        <v>491.09317561583231</v>
       </c>
       <c r="Q50">
-        <v>250.0865412500837</v>
+        <v>250.08654125008371</v>
       </c>
       <c r="R50">
-        <v>250.0865412500837</v>
+        <v>250.08654125008371</v>
       </c>
       <c r="S50">
-        <v>248.6116179144552</v>
+        <v>248.61161791445519</v>
       </c>
       <c r="T50">
-        <v>68.03324992332323</v>
+        <v>68.033249923323226</v>
       </c>
       <c r="U50">
-        <v>345.5035004690653</v>
+        <v>345.50350046906527</v>
       </c>
       <c r="V50">
-        <v>153.6795885529654</v>
+        <v>153.67958855296541</v>
       </c>
       <c r="W50">
-        <v>297.4601220073868</v>
+        <v>297.46012200738681</v>
       </c>
       <c r="X50">
-        <v>345.5035004690653</v>
+        <v>345.50350046906527</v>
       </c>
       <c r="Y50">
         <v>139.2094848667202</v>
@@ -4902,16 +4971,16 @@
         <v>139.2094848667202</v>
       </c>
       <c r="AA50">
-        <v>73.24755479654843</v>
+        <v>73.247554796548428</v>
       </c>
       <c r="AB50">
-        <v>144.5483858745774</v>
+        <v>144.54838587457741</v>
       </c>
       <c r="AC50">
-        <v>144.5483858745774</v>
+        <v>144.54838587457741</v>
       </c>
     </row>
-    <row r="51" spans="1:29">
+    <row r="51" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -4925,79 +4994,79 @@
         <v>28</v>
       </c>
       <c r="E51">
-        <v>0.075</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="F51">
-        <v>1.4977519984</v>
+        <v>1.4977519984000001</v>
       </c>
       <c r="G51">
         <v>126.61233</v>
       </c>
       <c r="H51">
-        <v>31.1712</v>
+        <v>31.171199999999999</v>
       </c>
       <c r="I51">
-        <v>85.26802252089439</v>
+        <v>85.268022520894391</v>
       </c>
       <c r="J51">
-        <v>85.26802252089439</v>
+        <v>85.268022520894391</v>
       </c>
       <c r="K51">
-        <v>16.75251873888798</v>
+        <v>16.752518738887979</v>
       </c>
       <c r="L51">
-        <v>16.75251873888798</v>
+        <v>16.752518738887979</v>
       </c>
       <c r="M51">
-        <v>83.4085015061732</v>
+        <v>83.408501506173195</v>
       </c>
       <c r="N51">
-        <v>83.4085015061732</v>
+        <v>83.408501506173195</v>
       </c>
       <c r="O51">
-        <v>8.549765474720978</v>
+        <v>8.5497654747209779</v>
       </c>
       <c r="P51">
-        <v>8.549765474720978</v>
+        <v>8.5497654747209779</v>
       </c>
       <c r="Q51">
-        <v>6.502100521422577</v>
+        <v>6.5021005214225767</v>
       </c>
       <c r="R51">
         <v>8.778364831747604</v>
       </c>
       <c r="S51">
-        <v>79.69043915865134</v>
+        <v>79.690439158651344</v>
       </c>
       <c r="T51">
         <v>20.395725616899</v>
       </c>
       <c r="U51">
-        <v>80.92997180390527</v>
+        <v>80.929971803905275</v>
       </c>
       <c r="V51">
-        <v>84.23531998313904</v>
+        <v>84.235319983139036</v>
       </c>
       <c r="W51">
         <v>86.71386260547456</v>
       </c>
       <c r="X51">
-        <v>85.26802252089439</v>
+        <v>85.268022520894391</v>
       </c>
       <c r="Y51">
-        <v>86.50732135501774</v>
+        <v>86.507321355017737</v>
       </c>
       <c r="Z51">
-        <v>86.50732135501774</v>
+        <v>86.507321355017737</v>
       </c>
       <c r="AA51">
-        <v>17.88899448945016</v>
+        <v>17.888994489450159</v>
       </c>
       <c r="AB51">
-        <v>21.53037927947842</v>
+        <v>21.530379279478421</v>
       </c>
       <c r="AC51">
-        <v>21.53037927947842</v>
+        <v>21.530379279478421</v>
       </c>
     </row>
   </sheetData>
